--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAPSTONE\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -34,9 +29,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Type</t>
   </si>
@@ -162,12 +157,68 @@
       <t xml:space="preserve"> ISSUE TRACKER</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Chưa có button select All/ Deselect All ở màn hình EditCollectionPlan </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>KhanhNHV</t>
+  </si>
+  <si>
+    <t>Highlight cho Plan được chọn hiện tại trong carousel (change độ tương phản tốt hơn)</t>
+  </si>
+  <si>
+    <t>Change icon khác cho button next/previous ở màn hình EditCollectionPlan</t>
+  </si>
+  <si>
+    <t>Thay đổi màn hình Popup của edit plan
+       Đem plan information lên header
+       Tạo collapse để hiển thị (user click lên collapse thì thông tin sẽ hiện ra. Maps, Request/Orders in Plan )</t>
+  </si>
+  <si>
+    <t>Hiển thị plan hiện tại / tổng số plan trên carousel</t>
+  </si>
+  <si>
+    <t>Sửa lại layout cho hiện product management lên chỗ dashboard của phần customer</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Add request -&gt; chọn lại group thì có bugs:
+1. Không load lại list request
+2. Không thay đổi total requests</t>
+  </si>
+  <si>
+    <t>Chưa format price của Buyer
+-&gt; phải format theo dạng #,### VNĐ</t>
+  </si>
+  <si>
+    <t>Ward chuyển thành not required. Combo box chuyển thành textbox</t>
+  </si>
+  <si>
+    <t>Chuyển status lại của Customer thành động từ</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug load lại nhiều delivery men khi assign người vào plan </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -281,6 +332,12 @@
       <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -406,15 +463,12 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -461,6 +515,21 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -472,7 +541,18 @@
     <cellStyle name="Table Header" xfId="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -536,9 +616,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Issue Tracker" defaultPivotStyle="PivotStyleDark1">
     <tableStyle name="Project Issue Tracker" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -554,17 +634,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -573,15 +643,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.8809252851585478E-2"/>
+          <c:x val="1.6377158938091038E-2"/>
           <c:y val="0"/>
-          <c:w val="0.97886606699030965"/>
-          <c:h val="0.94944925634295718"/>
+          <c:w val="0.97886606699030954"/>
+          <c:h val="0.94944925634295729"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -606,7 +675,7 @@
               <c:f>[0]!closed</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,29 +761,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="534384520"/>
-        <c:axId val="534384912"/>
+        <c:dLbls/>
+        <c:axId val="93671808"/>
+        <c:axId val="93673344"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -749,96 +840,126 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>41395</c:v>
+                  <c:v>41324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41396</c:v>
+                  <c:v>41325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41397</c:v>
+                  <c:v>41326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41398</c:v>
+                  <c:v>41327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41399</c:v>
+                  <c:v>41328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41400</c:v>
+                  <c:v>41329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41401</c:v>
+                  <c:v>41330</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41402</c:v>
+                  <c:v>41331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41403</c:v>
+                  <c:v>41332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41404</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41405</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41406</c:v>
+                  <c:v>41335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41407</c:v>
+                  <c:v>41336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41408</c:v>
+                  <c:v>41337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41409</c:v>
+                  <c:v>41338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41410</c:v>
+                  <c:v>41339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41411</c:v>
+                  <c:v>41340</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41412</c:v>
+                  <c:v>41341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41413</c:v>
+                  <c:v>41342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41414</c:v>
+                  <c:v>41343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41415</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41416</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41417</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41418</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41419</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41420</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41421</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41422</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41423</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41424</c:v>
+                  <c:v>41353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41355</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41362</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +969,7 @@
               <c:f>[0]!opened</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -934,15 +1055,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -986,96 +1136,126 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>41395</c:v>
+                  <c:v>41324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41396</c:v>
+                  <c:v>41325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41397</c:v>
+                  <c:v>41326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41398</c:v>
+                  <c:v>41327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41399</c:v>
+                  <c:v>41328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41400</c:v>
+                  <c:v>41329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41401</c:v>
+                  <c:v>41330</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41402</c:v>
+                  <c:v>41331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41403</c:v>
+                  <c:v>41332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41404</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41405</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41406</c:v>
+                  <c:v>41335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41407</c:v>
+                  <c:v>41336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41408</c:v>
+                  <c:v>41337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41409</c:v>
+                  <c:v>41338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41410</c:v>
+                  <c:v>41339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41411</c:v>
+                  <c:v>41340</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41412</c:v>
+                  <c:v>41341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41413</c:v>
+                  <c:v>41342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41414</c:v>
+                  <c:v>41343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41415</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41416</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41417</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41418</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41419</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41420</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41421</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41422</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41423</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41424</c:v>
+                  <c:v>41353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41355</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41362</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1265,7 @@
               <c:f>[0]!closed</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1171,15 +1351,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1226,13 +1435,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1258,96 +1461,126 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>41395</c:v>
+                  <c:v>41324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41396</c:v>
+                  <c:v>41325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41397</c:v>
+                  <c:v>41326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41398</c:v>
+                  <c:v>41327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41399</c:v>
+                  <c:v>41328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41400</c:v>
+                  <c:v>41329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41401</c:v>
+                  <c:v>41330</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41402</c:v>
+                  <c:v>41331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41403</c:v>
+                  <c:v>41332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41404</c:v>
+                  <c:v>41333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41405</c:v>
+                  <c:v>41334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41406</c:v>
+                  <c:v>41335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41407</c:v>
+                  <c:v>41336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41408</c:v>
+                  <c:v>41337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41409</c:v>
+                  <c:v>41338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41410</c:v>
+                  <c:v>41339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41411</c:v>
+                  <c:v>41340</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41412</c:v>
+                  <c:v>41341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41413</c:v>
+                  <c:v>41342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41414</c:v>
+                  <c:v>41343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41415</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41416</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41417</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41418</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41419</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41420</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41421</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41422</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41423</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41424</c:v>
+                  <c:v>41353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41355</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41356</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41359</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41362</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,101 +1590,130 @@
               <c:f>[0]!opened_labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1498,13 +1760,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1530,122 +1786,143 @@
               <c:f>[0]!closed_labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="534384520"/>
-        <c:axId val="534384912"/>
+        <c:axId val="93671808"/>
+        <c:axId val="93673344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534384520"/>
+        <c:axId val="93671808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1661,8 +1938,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1689,14 +1964,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534384912"/>
+        <c:crossAx val="93673344"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534384912"/>
+        <c:axId val="93673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,9 +1978,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534384520"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="93671808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1730,7 +2003,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1752,7 +2024,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2323,7 +2595,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 2" descr="Used to provide a background color for the chart's horizontal axis." title="Background Color"/>
+        <xdr:cNvPr id="4" name="TextBox 2" descr="Used to provide a background color for the chart's horizontal axis."/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2479,7 +2751,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="LIne chart that plots Opened vs. Closed issues per day for a given time frame." title="Issue Tracker Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" descr="LIne chart that plots Opened vs. Closed issues per day for a given time frame."/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2498,18 +2770,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:J107" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B16:J107"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:K108" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B16:K108">
+    <filterColumn colId="9"/>
+  </autoFilter>
+  <tableColumns count="10">
     <tableColumn id="10" name="#"/>
-    <tableColumn id="1" name="ISSUE"/>
+    <tableColumn id="1" name="ISSUE" dataDxfId="1"/>
     <tableColumn id="2" name="TYPE"/>
-    <tableColumn id="3" name="PRIORITY"/>
+    <tableColumn id="3" name="PRIORITY" dataDxfId="0"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
     <tableColumn id="5" name="OPENED BY"/>
     <tableColumn id="7" name="CLOSED ON" dataCellStyle="Date"/>
     <tableColumn id="8" name="CLOSED BY"/>
     <tableColumn id="9" name="NOTES"/>
+    <tableColumn id="6" name="DUE DATE"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2715,25 +2990,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J107"/>
+  <dimension ref="B1:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2745,987 +3020,1169 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="27.375" customWidth="1"/>
-    <col min="11" max="11" width="2.875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:11" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="8" t="s">
+    <row r="3" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8">
+        <v>41363</v>
+      </c>
+      <c r="J3" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1">
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="44.25" customHeight="1">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="69.75" customHeight="1">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="48.75" customHeight="1">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="128.25" customHeight="1">
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="33.75" customHeight="1">
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9">
-        <v>41424</v>
-      </c>
-      <c r="J3" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="C21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="91.5" customHeight="1">
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="62.25" customHeight="1">
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="75" customHeight="1">
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="53.25" customHeight="1">
+      <c r="B25" s="2">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="1">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="54" customHeight="1">
+      <c r="B26" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="1">
+        <v>41355</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1">
+      <c r="B27" s="2">
+        <v>11</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3">
+        <v>41352</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="3">
+        <v>41352</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="30" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="30" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="30" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="30" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" ht="30" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" ht="30" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" ht="30" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" ht="30" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" ht="30" customHeight="1">
+      <c r="B37" s="2"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" ht="30" customHeight="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="30" customHeight="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" ht="30" customHeight="1">
+      <c r="B40" s="2"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" ht="30" customHeight="1">
+      <c r="B41" s="2"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" ht="30" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" ht="30" customHeight="1">
+      <c r="B43" s="2"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" ht="30" customHeight="1">
+      <c r="B44" s="2"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" ht="30" customHeight="1">
+      <c r="B45" s="2"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" ht="30" customHeight="1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" ht="30" customHeight="1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" ht="30" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" ht="30" customHeight="1">
+      <c r="B49" s="2"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" ht="30" customHeight="1">
+      <c r="B50" s="2"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" ht="30" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" ht="30" customHeight="1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" ht="30" customHeight="1">
+      <c r="B53" s="2"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" ht="30" customHeight="1">
+      <c r="B54" s="2"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" ht="30" customHeight="1">
+      <c r="B55" s="2"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" ht="30" customHeight="1">
+      <c r="B56" s="2"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" ht="30" customHeight="1">
+      <c r="B57" s="2"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" ht="30" customHeight="1">
+      <c r="B58" s="2"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" ht="30" customHeight="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" ht="30" customHeight="1">
+      <c r="B60" s="2"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" ht="30" customHeight="1">
+      <c r="B61" s="2"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" ht="30" customHeight="1">
+      <c r="B62" s="2"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" ht="30" customHeight="1">
+      <c r="B63" s="2"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" ht="30" customHeight="1">
+      <c r="B64" s="2"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" ht="30" customHeight="1">
+      <c r="B65" s="2"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" ht="30" customHeight="1">
+      <c r="B66" s="2"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" ht="30" customHeight="1">
+      <c r="B67" s="2"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" ht="30" customHeight="1">
+      <c r="B68" s="2"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1">
+      <c r="B69" s="2"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1">
+      <c r="B70" s="2"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" ht="30" customHeight="1">
+      <c r="B71" s="2"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" ht="30" customHeight="1">
+      <c r="B72" s="2"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" ht="30" customHeight="1">
+      <c r="B73" s="2"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" ht="30" customHeight="1">
+      <c r="B74" s="2"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" ht="30" customHeight="1">
+      <c r="B75" s="2"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" ht="30" customHeight="1">
+      <c r="B76" s="2"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" ht="30" customHeight="1">
+      <c r="B77" s="2"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" ht="30" customHeight="1">
+      <c r="B78" s="2"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" ht="30" customHeight="1">
+      <c r="B79" s="2"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" ht="30" customHeight="1">
+      <c r="B80" s="2"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" ht="30" customHeight="1">
+      <c r="B81" s="2"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" customHeight="1">
+      <c r="B82" s="2"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" ht="30" customHeight="1">
+      <c r="B83" s="2"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" ht="30" customHeight="1">
+      <c r="B84" s="2"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" ht="30" customHeight="1">
+      <c r="B85" s="2"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" ht="30" customHeight="1">
+      <c r="B86" s="2"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" ht="30" customHeight="1">
+      <c r="B87" s="2"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" ht="30" customHeight="1">
+      <c r="B88" s="2"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" ht="30" customHeight="1">
+      <c r="B89" s="2"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" ht="30" customHeight="1">
+      <c r="B90" s="2"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" ht="30" customHeight="1">
+      <c r="B91" s="2"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" ht="30" customHeight="1">
+      <c r="B92" s="2"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" ht="30" customHeight="1">
+      <c r="B93" s="2"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" ht="30" customHeight="1">
+      <c r="B94" s="2"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" ht="30" customHeight="1">
+      <c r="B95" s="2"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" ht="30" customHeight="1">
+      <c r="B96" s="2"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" ht="30" customHeight="1">
+      <c r="B97" s="2"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" ht="30" customHeight="1">
+      <c r="B98" s="2"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" ht="30" customHeight="1">
+      <c r="B99" s="2"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" ht="30" customHeight="1">
+      <c r="B100" s="2"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" ht="30" customHeight="1">
+      <c r="B101" s="2"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" ht="30" customHeight="1">
+      <c r="B102" s="2"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" ht="30" customHeight="1">
+      <c r="B103" s="2"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="2:9" ht="30" customHeight="1">
+      <c r="B104" s="2"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" ht="30" customHeight="1">
+      <c r="B105" s="2"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" ht="30" customHeight="1">
+      <c r="B106" s="2"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="2:9" ht="30" customHeight="1">
+      <c r="B107" s="2"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" ht="30" customHeight="1">
+      <c r="C108" s="20"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3756,25 +4213,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -3782,70 +4239,70 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7">
         <f>'Issue Tracker'!J3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1">
         <f>'Issue Tracker'!I3</f>
-        <v>41424</v>
+        <v>41363</v>
       </c>
       <c r="N8">
         <f ca="1">COUNT(typesUnsorted)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Plan</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
       <c r="J10" t="str">
         <f>'Issue Tracker'!H3</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N12">
+        <v>High</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" t="e">
         <f ca="1">OFFSET($O$16,,,$O$13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" t="s">
         <v>13</v>
@@ -3854,7 +4311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -3877,7 +4334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -3885,13 +4342,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ref="H16:H47" si="0">keydate-days+G16</f>
-        <v>41395</v>
+        <v>41324</v>
       </c>
       <c r="I16">
         <f>I15+COUNTIFS(issues[OPENED ON],H16,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -3901,13 +4358,13 @@
         <f>J15+COUNTIFS(issues[CLOSED ON],H16,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="str">
         <f t="array" ref="N16">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N15, issues[TYPE]),0))</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
+        <v>Plan</v>
+      </c>
+      <c r="O16" t="str">
         <f t="array" ref="O16">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O15,issues[PRIORITY]),0))</f>
-        <v>0</v>
+        <v>High</v>
       </c>
       <c r="S16" t="str">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(1:1)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -3918,13 +4375,13 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>41396</v>
+        <v>41325</v>
       </c>
       <c r="I17">
         <f>I16+COUNTIFS(issues[OPENED ON],H17,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -3934,13 +4391,13 @@
         <f>J16+COUNTIFS(issues[CLOSED ON],H17,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N17" t="e">
+      <c r="N17" t="str">
         <f t="array" ref="N17">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N16, issues[TYPE]),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" t="e">
+        <v>Customer</v>
+      </c>
+      <c r="O17">
         <f t="array" ref="O17">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S17" t="str">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -3951,13 +4408,13 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>41397</v>
+        <v>41326</v>
       </c>
       <c r="I18">
         <f>I17+COUNTIFS(issues[OPENED ON],H18,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -3967,30 +4424,30 @@
         <f>J17+COUNTIFS(issues[CLOSED ON],H18,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N18" t="e">
+      <c r="N18" t="str">
         <f t="array" ref="N18">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N17, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>Buyer</v>
       </c>
       <c r="O18" t="e">
         <f t="array" ref="O18">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S18" t="e">
+      <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T18" t="e">
+        <v>Buyer</v>
+      </c>
+      <c r="T18" t="str">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(3:3)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+        <v>High</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>41398</v>
+        <v>41327</v>
       </c>
       <c r="I19">
         <f>I18+COUNTIFS(issues[OPENED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4000,30 +4457,30 @@
         <f>J18+COUNTIFS(issues[CLOSED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N19" t="e">
+      <c r="N19">
         <f t="array" ref="N19">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N18, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O19" t="e">
         <f t="array" ref="O19">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S19" t="e">
+      <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Customer</v>
       </c>
       <c r="T19" t="e">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>41399</v>
+        <v>41328</v>
       </c>
       <c r="I20">
         <f>I19+COUNTIFS(issues[OPENED ON],H20,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4041,22 +4498,22 @@
         <f t="array" ref="O20">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S20" t="e">
+      <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Plan</v>
       </c>
       <c r="T20" t="e">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>41329</v>
       </c>
       <c r="I21">
         <f>I20+COUNTIFS(issues[OPENED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4083,13 +4540,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>41401</v>
+        <v>41330</v>
       </c>
       <c r="I22">
         <f>I21+COUNTIFS(issues[OPENED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4116,13 +4573,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>41402</v>
+        <v>41331</v>
       </c>
       <c r="I23">
         <f>I22+COUNTIFS(issues[OPENED ON],H23,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4149,13 +4606,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>41403</v>
+        <v>41332</v>
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4182,13 +4639,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>41404</v>
+        <v>41333</v>
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4215,13 +4672,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>41405</v>
+        <v>41334</v>
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4248,13 +4705,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>41406</v>
+        <v>41335</v>
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4281,13 +4738,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>41407</v>
+        <v>41336</v>
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4314,13 +4771,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>41408</v>
+        <v>41337</v>
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4347,13 +4804,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>41409</v>
+        <v>41338</v>
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4380,13 +4837,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>41410</v>
+        <v>41339</v>
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4413,13 +4870,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>41411</v>
+        <v>41340</v>
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4446,13 +4903,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>41412</v>
+        <v>41341</v>
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4479,13 +4936,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>41413</v>
+        <v>41342</v>
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4512,13 +4969,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>41414</v>
+        <v>41343</v>
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4545,13 +5002,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>41415</v>
+        <v>41344</v>
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4578,13 +5035,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>41416</v>
+        <v>41345</v>
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4611,13 +5068,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>41417</v>
+        <v>41346</v>
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4644,13 +5101,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>41418</v>
+        <v>41347</v>
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4677,13 +5134,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>41419</v>
+        <v>41348</v>
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4710,13 +5167,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>41420</v>
+        <v>41349</v>
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4743,13 +5200,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>41421</v>
+        <v>41350</v>
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4776,13 +5233,13 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>41422</v>
+        <v>41351</v>
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4809,21 +5266,21 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>41423</v>
+        <v>41352</v>
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -4842,21 +5299,21 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>41424</v>
+        <v>41353</v>
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -4875,599 +5332,599 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>41425</v>
+        <v>41354</v>
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>41426</v>
+        <v>41355</v>
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:H79" si="1">keydate-days+G48</f>
-        <v>41427</v>
+        <v>41356</v>
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>41428</v>
+        <v>41357</v>
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>41429</v>
+        <v>41358</v>
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>41430</v>
+        <v>41359</v>
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>41431</v>
+        <v>41360</v>
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>41432</v>
+        <v>41361</v>
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>41433</v>
+        <v>41362</v>
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>41434</v>
+        <v>41363</v>
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>41435</v>
+        <v>41364</v>
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>41436</v>
+        <v>41365</v>
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" si="1"/>
-        <v>41437</v>
+        <v>41366</v>
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="1"/>
-        <v>41438</v>
+        <v>41367</v>
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="1"/>
-        <v>41439</v>
+        <v>41368</v>
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" si="1"/>
-        <v>41440</v>
+        <v>41369</v>
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" si="1"/>
-        <v>41441</v>
+        <v>41370</v>
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="1"/>
-        <v>41442</v>
+        <v>41371</v>
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="1"/>
-        <v>41443</v>
+        <v>41372</v>
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" si="1"/>
-        <v>41444</v>
+        <v>41373</v>
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="1"/>
-        <v>41445</v>
+        <v>41374</v>
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" si="1"/>
-        <v>41446</v>
+        <v>41375</v>
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
       <c r="H68" s="1">
         <f t="shared" si="1"/>
-        <v>41447</v>
+        <v>41376</v>
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" si="1"/>
-        <v>41448</v>
+        <v>41377</v>
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
       <c r="H70" s="1">
         <f t="shared" si="1"/>
-        <v>41449</v>
+        <v>41378</v>
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
       <c r="H71" s="1">
         <f t="shared" si="1"/>
-        <v>41450</v>
+        <v>41379</v>
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
       <c r="H72" s="1">
         <f t="shared" si="1"/>
-        <v>41451</v>
+        <v>41380</v>
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
       <c r="H73" s="1">
         <f t="shared" si="1"/>
-        <v>41452</v>
+        <v>41381</v>
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
       <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>41453</v>
+        <v>41382</v>
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" si="1"/>
-        <v>41454</v>
+        <v>41383</v>
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" si="1"/>
-        <v>41455</v>
+        <v>41384</v>
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" si="1"/>
-        <v>41456</v>
+        <v>41385</v>
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" si="1"/>
-        <v>41457</v>
+        <v>41386</v>
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" si="1"/>
-        <v>41458</v>
+        <v>41387</v>
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ref="H80" si="2">keydate-days+G80</f>
-        <v>41459</v>
+        <v>41388</v>
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -213,12 +213,51 @@
   <si>
     <t xml:space="preserve">Bug load lại nhiều delivery men khi assign người vào plan </t>
   </si>
+  <si>
+    <t>VuongND</t>
+  </si>
+  <si>
+    <t>Sửa lại layout để hiển thị cho đúng theo comment của thầy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Risk:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khi submit lên có thể sẽ phát sinh lỗi vì có dấu phẩy ở đó. Cần có xử lý ở client trước khi submit lên server</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -338,6 +377,21 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,7 +517,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -482,16 +536,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="7" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="7" applyFill="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="6" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,18 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -530,6 +566,27 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -541,7 +598,10 @@
     <cellStyle name="Table Header" xfId="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -616,9 +676,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Issue Tracker" defaultPivotStyle="PivotStyleDark1">
     <tableStyle name="Project Issue Tracker" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -643,10 +703,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.6377158938091038E-2"/>
+          <c:x val="1.6377158938091042E-2"/>
           <c:y val="0"/>
           <c:w val="0.97886606699030954"/>
-          <c:h val="0.94944925634295729"/>
+          <c:h val="0.9494492563429574"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -761,48 +821,47 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="93671808"/>
-        <c:axId val="93673344"/>
+        <c:axId val="83140608"/>
+        <c:axId val="83142144"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1055,40 +1114,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,40 +1410,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,124 +1651,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.28</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,124 +1847,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,11 +1974,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="93671808"/>
-        <c:axId val="93673344"/>
+        <c:axId val="83140608"/>
+        <c:axId val="83142144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93671808"/>
+        <c:axId val="83140608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,13 +2023,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93673344"/>
+        <c:crossAx val="83142144"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93673344"/>
+        <c:axId val="83142144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +2038,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93671808"/>
+        <c:crossAx val="83140608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2024,7 +2083,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2770,20 +2829,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:K108" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:K108" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B16:K108">
     <filterColumn colId="9"/>
   </autoFilter>
   <tableColumns count="10">
     <tableColumn id="10" name="#"/>
-    <tableColumn id="1" name="ISSUE" dataDxfId="1"/>
+    <tableColumn id="1" name="ISSUE" dataDxfId="2"/>
     <tableColumn id="2" name="TYPE"/>
-    <tableColumn id="3" name="PRIORITY" dataDxfId="0"/>
+    <tableColumn id="3" name="PRIORITY" dataDxfId="1"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
     <tableColumn id="5" name="OPENED BY"/>
     <tableColumn id="7" name="CLOSED ON" dataCellStyle="Date"/>
     <tableColumn id="8" name="CLOSED BY"/>
-    <tableColumn id="9" name="NOTES"/>
+    <tableColumn id="9" name="NOTES" dataDxfId="0"/>
     <tableColumn id="6" name="DUE DATE"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2990,7 +3049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3004,8 +3063,8 @@
   </sheetPr>
   <dimension ref="B1:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3019,19 +3078,19 @@
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="14" customWidth="1"/>
     <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="21.75" customHeight="1"/>
     <row r="2" spans="2:11" ht="30" customHeight="1">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3041,58 +3100,58 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.25" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>41363</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="21">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3100,24 +3159,24 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="3">
         <v>41352</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="1">
         <v>41354</v>
       </c>
@@ -3126,24 +3185,28 @@
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="3">
         <v>41352</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="1">
         <v>41354</v>
       </c>
@@ -3152,24 +3215,28 @@
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="3">
         <v>41352</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="13"/>
       <c r="K19" s="1">
         <v>41354</v>
       </c>
@@ -3178,24 +3245,28 @@
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="3">
         <v>41352</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="13"/>
       <c r="K20" s="1">
         <v>41354</v>
       </c>
@@ -3204,24 +3275,28 @@
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="3">
         <v>41352</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="13"/>
       <c r="K21" s="1">
         <v>41354</v>
       </c>
@@ -3230,24 +3305,28 @@
       <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="3">
         <v>41352</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="H22" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="1">
         <v>41354</v>
       </c>
@@ -3256,23 +3335,26 @@
       <c r="B23" s="2">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="3">
         <v>41352</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
+      <c r="J23" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="K23" s="1">
         <v>41354</v>
       </c>
@@ -3281,19 +3363,19 @@
       <c r="B24" s="2">
         <v>8</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="3">
         <v>41352</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="3"/>
@@ -3302,27 +3384,30 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="53.25" customHeight="1">
+    <row r="25" spans="2:11" ht="78" customHeight="1">
       <c r="B25" s="2">
         <v>9</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="3">
         <v>41352</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
+      <c r="J25" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="K25" s="1">
         <v>41354</v>
       </c>
@@ -3331,19 +3416,19 @@
       <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="3">
         <v>41352</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="3"/>
@@ -3356,33 +3441,33 @@
       <c r="B27" s="2">
         <v>11</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="3">
         <v>41352</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="3">
         <v>41352</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="30" customHeight="1">
       <c r="B28" s="2"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
@@ -3390,9 +3475,9 @@
     </row>
     <row r="29" spans="2:11" ht="30" customHeight="1">
       <c r="B29" s="2"/>
-      <c r="C29" s="19"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
@@ -3400,9 +3485,9 @@
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1">
       <c r="B30" s="2"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
@@ -3410,9 +3495,9 @@
     </row>
     <row r="31" spans="2:11" ht="30" customHeight="1">
       <c r="B31" s="2"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
@@ -3420,9 +3505,9 @@
     </row>
     <row r="32" spans="2:11" ht="30" customHeight="1">
       <c r="B32" s="2"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
@@ -3430,9 +3515,9 @@
     </row>
     <row r="33" spans="2:9" ht="30" customHeight="1">
       <c r="B33" s="2"/>
-      <c r="C33" s="19"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
@@ -3440,9 +3525,9 @@
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1">
       <c r="B34" s="2"/>
-      <c r="C34" s="19"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
@@ -3450,9 +3535,9 @@
     </row>
     <row r="35" spans="2:9" ht="30" customHeight="1">
       <c r="B35" s="2"/>
-      <c r="C35" s="19"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
@@ -3460,9 +3545,9 @@
     </row>
     <row r="36" spans="2:9" ht="30" customHeight="1">
       <c r="B36" s="2"/>
-      <c r="C36" s="19"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
@@ -3470,9 +3555,9 @@
     </row>
     <row r="37" spans="2:9" ht="30" customHeight="1">
       <c r="B37" s="2"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
@@ -3480,9 +3565,9 @@
     </row>
     <row r="38" spans="2:9" ht="30" customHeight="1">
       <c r="B38" s="2"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
@@ -3490,9 +3575,9 @@
     </row>
     <row r="39" spans="2:9" ht="30" customHeight="1">
       <c r="B39" s="2"/>
-      <c r="C39" s="19"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
@@ -3500,9 +3585,9 @@
     </row>
     <row r="40" spans="2:9" ht="30" customHeight="1">
       <c r="B40" s="2"/>
-      <c r="C40" s="19"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
@@ -3510,9 +3595,9 @@
     </row>
     <row r="41" spans="2:9" ht="30" customHeight="1">
       <c r="B41" s="2"/>
-      <c r="C41" s="19"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
@@ -3520,9 +3605,9 @@
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1">
       <c r="B42" s="2"/>
-      <c r="C42" s="19"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
@@ -3530,9 +3615,9 @@
     </row>
     <row r="43" spans="2:9" ht="30" customHeight="1">
       <c r="B43" s="2"/>
-      <c r="C43" s="19"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
@@ -3540,9 +3625,9 @@
     </row>
     <row r="44" spans="2:9" ht="30" customHeight="1">
       <c r="B44" s="2"/>
-      <c r="C44" s="19"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
@@ -3550,9 +3635,9 @@
     </row>
     <row r="45" spans="2:9" ht="30" customHeight="1">
       <c r="B45" s="2"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
@@ -3560,9 +3645,9 @@
     </row>
     <row r="46" spans="2:9" ht="30" customHeight="1">
       <c r="B46" s="2"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
@@ -3570,9 +3655,9 @@
     </row>
     <row r="47" spans="2:9" ht="30" customHeight="1">
       <c r="B47" s="2"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
@@ -3580,9 +3665,9 @@
     </row>
     <row r="48" spans="2:9" ht="30" customHeight="1">
       <c r="B48" s="2"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
@@ -3590,9 +3675,9 @@
     </row>
     <row r="49" spans="2:9" ht="30" customHeight="1">
       <c r="B49" s="2"/>
-      <c r="C49" s="19"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="17"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
@@ -3600,9 +3685,9 @@
     </row>
     <row r="50" spans="2:9" ht="30" customHeight="1">
       <c r="B50" s="2"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
@@ -3610,9 +3695,9 @@
     </row>
     <row r="51" spans="2:9" ht="30" customHeight="1">
       <c r="B51" s="2"/>
-      <c r="C51" s="19"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
@@ -3620,9 +3705,9 @@
     </row>
     <row r="52" spans="2:9" ht="30" customHeight="1">
       <c r="B52" s="2"/>
-      <c r="C52" s="19"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
@@ -3630,9 +3715,9 @@
     </row>
     <row r="53" spans="2:9" ht="30" customHeight="1">
       <c r="B53" s="2"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="17"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
@@ -3640,9 +3725,9 @@
     </row>
     <row r="54" spans="2:9" ht="30" customHeight="1">
       <c r="B54" s="2"/>
-      <c r="C54" s="19"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
@@ -3650,9 +3735,9 @@
     </row>
     <row r="55" spans="2:9" ht="30" customHeight="1">
       <c r="B55" s="2"/>
-      <c r="C55" s="19"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
@@ -3660,9 +3745,9 @@
     </row>
     <row r="56" spans="2:9" ht="30" customHeight="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
@@ -3670,9 +3755,9 @@
     </row>
     <row r="57" spans="2:9" ht="30" customHeight="1">
       <c r="B57" s="2"/>
-      <c r="C57" s="19"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
@@ -3680,9 +3765,9 @@
     </row>
     <row r="58" spans="2:9" ht="30" customHeight="1">
       <c r="B58" s="2"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
@@ -3690,9 +3775,9 @@
     </row>
     <row r="59" spans="2:9" ht="30" customHeight="1">
       <c r="B59" s="2"/>
-      <c r="C59" s="19"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
@@ -3700,9 +3785,9 @@
     </row>
     <row r="60" spans="2:9" ht="30" customHeight="1">
       <c r="B60" s="2"/>
-      <c r="C60" s="19"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3"/>
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
@@ -3710,9 +3795,9 @@
     </row>
     <row r="61" spans="2:9" ht="30" customHeight="1">
       <c r="B61" s="2"/>
-      <c r="C61" s="19"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
       <c r="H61" s="3"/>
@@ -3720,9 +3805,9 @@
     </row>
     <row r="62" spans="2:9" ht="30" customHeight="1">
       <c r="B62" s="2"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="3"/>
       <c r="G62" s="2"/>
       <c r="H62" s="3"/>
@@ -3730,9 +3815,9 @@
     </row>
     <row r="63" spans="2:9" ht="30" customHeight="1">
       <c r="B63" s="2"/>
-      <c r="C63" s="19"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
       <c r="H63" s="3"/>
@@ -3740,9 +3825,9 @@
     </row>
     <row r="64" spans="2:9" ht="30" customHeight="1">
       <c r="B64" s="2"/>
-      <c r="C64" s="19"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
       <c r="H64" s="3"/>
@@ -3750,9 +3835,9 @@
     </row>
     <row r="65" spans="2:9" ht="30" customHeight="1">
       <c r="B65" s="2"/>
-      <c r="C65" s="19"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="17"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="3"/>
       <c r="G65" s="2"/>
       <c r="H65" s="3"/>
@@ -3760,9 +3845,9 @@
     </row>
     <row r="66" spans="2:9" ht="30" customHeight="1">
       <c r="B66" s="2"/>
-      <c r="C66" s="19"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
@@ -3770,9 +3855,9 @@
     </row>
     <row r="67" spans="2:9" ht="30" customHeight="1">
       <c r="B67" s="2"/>
-      <c r="C67" s="19"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="3"/>
       <c r="G67" s="2"/>
       <c r="H67" s="3"/>
@@ -3780,9 +3865,9 @@
     </row>
     <row r="68" spans="2:9" ht="30" customHeight="1">
       <c r="B68" s="2"/>
-      <c r="C68" s="19"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="3"/>
       <c r="G68" s="2"/>
       <c r="H68" s="3"/>
@@ -3790,9 +3875,9 @@
     </row>
     <row r="69" spans="2:9" ht="30" customHeight="1">
       <c r="B69" s="2"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
       <c r="H69" s="3"/>
@@ -3800,9 +3885,9 @@
     </row>
     <row r="70" spans="2:9" ht="30" customHeight="1">
       <c r="B70" s="2"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
       <c r="H70" s="3"/>
@@ -3810,9 +3895,9 @@
     </row>
     <row r="71" spans="2:9" ht="30" customHeight="1">
       <c r="B71" s="2"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="17"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
       <c r="H71" s="3"/>
@@ -3820,9 +3905,9 @@
     </row>
     <row r="72" spans="2:9" ht="30" customHeight="1">
       <c r="B72" s="2"/>
-      <c r="C72" s="19"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
       <c r="H72" s="3"/>
@@ -3830,9 +3915,9 @@
     </row>
     <row r="73" spans="2:9" ht="30" customHeight="1">
       <c r="B73" s="2"/>
-      <c r="C73" s="19"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="17"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
@@ -3840,9 +3925,9 @@
     </row>
     <row r="74" spans="2:9" ht="30" customHeight="1">
       <c r="B74" s="2"/>
-      <c r="C74" s="19"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="17"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
@@ -3850,9 +3935,9 @@
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1">
       <c r="B75" s="2"/>
-      <c r="C75" s="19"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="17"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
@@ -3860,9 +3945,9 @@
     </row>
     <row r="76" spans="2:9" ht="30" customHeight="1">
       <c r="B76" s="2"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
       <c r="H76" s="3"/>
@@ -3870,9 +3955,9 @@
     </row>
     <row r="77" spans="2:9" ht="30" customHeight="1">
       <c r="B77" s="2"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="17"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
@@ -3880,9 +3965,9 @@
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1">
       <c r="B78" s="2"/>
-      <c r="C78" s="19"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
       <c r="H78" s="3"/>
@@ -3890,9 +3975,9 @@
     </row>
     <row r="79" spans="2:9" ht="30" customHeight="1">
       <c r="B79" s="2"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="17"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
       <c r="H79" s="3"/>
@@ -3900,9 +3985,9 @@
     </row>
     <row r="80" spans="2:9" ht="30" customHeight="1">
       <c r="B80" s="2"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
@@ -3910,9 +3995,9 @@
     </row>
     <row r="81" spans="2:9" ht="30" customHeight="1">
       <c r="B81" s="2"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="17"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
       <c r="H81" s="3"/>
@@ -3920,9 +4005,9 @@
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1">
       <c r="B82" s="2"/>
-      <c r="C82" s="19"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="17"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
@@ -3930,9 +4015,9 @@
     </row>
     <row r="83" spans="2:9" ht="30" customHeight="1">
       <c r="B83" s="2"/>
-      <c r="C83" s="19"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
@@ -3940,9 +4025,9 @@
     </row>
     <row r="84" spans="2:9" ht="30" customHeight="1">
       <c r="B84" s="2"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
       <c r="H84" s="3"/>
@@ -3950,9 +4035,9 @@
     </row>
     <row r="85" spans="2:9" ht="30" customHeight="1">
       <c r="B85" s="2"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="17"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
       <c r="H85" s="3"/>
@@ -3960,9 +4045,9 @@
     </row>
     <row r="86" spans="2:9" ht="30" customHeight="1">
       <c r="B86" s="2"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
@@ -3970,9 +4055,9 @@
     </row>
     <row r="87" spans="2:9" ht="30" customHeight="1">
       <c r="B87" s="2"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="17"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3"/>
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
@@ -3980,9 +4065,9 @@
     </row>
     <row r="88" spans="2:9" ht="30" customHeight="1">
       <c r="B88" s="2"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="17"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="3"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
@@ -3990,9 +4075,9 @@
     </row>
     <row r="89" spans="2:9" ht="30" customHeight="1">
       <c r="B89" s="2"/>
-      <c r="C89" s="19"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="17"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="3"/>
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
@@ -4000,9 +4085,9 @@
     </row>
     <row r="90" spans="2:9" ht="30" customHeight="1">
       <c r="B90" s="2"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="17"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="3"/>
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
@@ -4010,9 +4095,9 @@
     </row>
     <row r="91" spans="2:9" ht="30" customHeight="1">
       <c r="B91" s="2"/>
-      <c r="C91" s="19"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="17"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="3"/>
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
@@ -4020,9 +4105,9 @@
     </row>
     <row r="92" spans="2:9" ht="30" customHeight="1">
       <c r="B92" s="2"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="17"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
@@ -4030,9 +4115,9 @@
     </row>
     <row r="93" spans="2:9" ht="30" customHeight="1">
       <c r="B93" s="2"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="3"/>
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
@@ -4040,9 +4125,9 @@
     </row>
     <row r="94" spans="2:9" ht="30" customHeight="1">
       <c r="B94" s="2"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="17"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
@@ -4050,9 +4135,9 @@
     </row>
     <row r="95" spans="2:9" ht="30" customHeight="1">
       <c r="B95" s="2"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="17"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="3"/>
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
@@ -4060,9 +4145,9 @@
     </row>
     <row r="96" spans="2:9" ht="30" customHeight="1">
       <c r="B96" s="2"/>
-      <c r="C96" s="19"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="17"/>
+      <c r="E96" s="11"/>
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
@@ -4070,9 +4155,9 @@
     </row>
     <row r="97" spans="2:9" ht="30" customHeight="1">
       <c r="B97" s="2"/>
-      <c r="C97" s="19"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="17"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
@@ -4080,9 +4165,9 @@
     </row>
     <row r="98" spans="2:9" ht="30" customHeight="1">
       <c r="B98" s="2"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="17"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
@@ -4090,9 +4175,9 @@
     </row>
     <row r="99" spans="2:9" ht="30" customHeight="1">
       <c r="B99" s="2"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="17"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
@@ -4100,9 +4185,9 @@
     </row>
     <row r="100" spans="2:9" ht="30" customHeight="1">
       <c r="B100" s="2"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="17"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
       <c r="H100" s="3"/>
@@ -4110,9 +4195,9 @@
     </row>
     <row r="101" spans="2:9" ht="30" customHeight="1">
       <c r="B101" s="2"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="17"/>
+      <c r="E101" s="11"/>
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
       <c r="H101" s="3"/>
@@ -4120,9 +4205,9 @@
     </row>
     <row r="102" spans="2:9" ht="30" customHeight="1">
       <c r="B102" s="2"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="17"/>
+      <c r="E102" s="11"/>
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
       <c r="H102" s="3"/>
@@ -4130,9 +4215,9 @@
     </row>
     <row r="103" spans="2:9" ht="30" customHeight="1">
       <c r="B103" s="2"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="17"/>
+      <c r="E103" s="11"/>
       <c r="F103" s="3"/>
       <c r="G103" s="2"/>
       <c r="H103" s="3"/>
@@ -4140,9 +4225,9 @@
     </row>
     <row r="104" spans="2:9" ht="30" customHeight="1">
       <c r="B104" s="2"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="17"/>
+      <c r="E104" s="11"/>
       <c r="F104" s="3"/>
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
@@ -4150,9 +4235,9 @@
     </row>
     <row r="105" spans="2:9" ht="30" customHeight="1">
       <c r="B105" s="2"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="17"/>
+      <c r="E105" s="11"/>
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
       <c r="H105" s="3"/>
@@ -4160,9 +4245,9 @@
     </row>
     <row r="106" spans="2:9" ht="30" customHeight="1">
       <c r="B106" s="2"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="17"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="3"/>
       <c r="G106" s="2"/>
       <c r="H106" s="3"/>
@@ -4170,17 +4255,17 @@
     </row>
     <row r="107" spans="2:9" ht="30" customHeight="1">
       <c r="B107" s="2"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="17"/>
+      <c r="E107" s="11"/>
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="2:9" ht="30" customHeight="1">
-      <c r="C108" s="20"/>
-      <c r="E108" s="17"/>
+      <c r="C108" s="14"/>
+      <c r="E108" s="11"/>
       <c r="F108" s="4"/>
       <c r="H108" s="4"/>
     </row>
@@ -4273,7 +4358,7 @@
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>Plan</v>
+        <v>Buyer</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -5276,11 +5361,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5309,11 +5394,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5342,11 +5427,11 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="7:20">
@@ -5359,11 +5444,11 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:20">
@@ -5376,11 +5461,11 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -5393,11 +5478,11 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -5410,11 +5495,11 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -5427,11 +5512,11 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -5444,11 +5529,11 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -5461,11 +5546,11 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -5478,11 +5563,11 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -5495,11 +5580,11 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -5512,11 +5597,11 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -5529,11 +5614,11 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -5546,11 +5631,11 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -5563,11 +5648,11 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -5580,11 +5665,11 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -5597,11 +5682,11 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -5614,11 +5699,11 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -5631,11 +5716,11 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -5648,11 +5733,11 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -5665,11 +5750,11 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -5682,11 +5767,11 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -5699,11 +5784,11 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -5716,11 +5801,11 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -5733,11 +5818,11 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -5750,11 +5835,11 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -5767,11 +5852,11 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -5784,11 +5869,11 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -5801,11 +5886,11 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -5818,11 +5903,11 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -5835,11 +5920,11 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -5852,11 +5937,11 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -5869,11 +5954,11 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -5886,11 +5971,11 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -5903,11 +5988,11 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -5920,11 +6005,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6795"/>
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Reference" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -29,9 +30,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Type</t>
   </si>
@@ -252,12 +253,118 @@
       <t>Khi submit lên có thể sẽ phát sinh lỗi vì có dấu phẩy ở đó. Cần có xử lý ở client trước khi submit lên server</t>
     </r>
   </si>
+  <si>
+    <t>Assign DM</t>
+  </si>
+  <si>
+    <t>ThinhNTY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Format Delivery men ở màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">assign </t>
+    </r>
+  </si>
+  <si>
+    <t>Nút back ở màn hình số 2 sai, plan &lt;=4 thì nút back và next sẽ ko có tác dụng</t>
+  </si>
+  <si>
+    <t>remove product, giá vẫn còn tồn tại</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remove </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nhưng total price ko thay đổi</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ward </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chưa bỏ dấu * (not required)
+- address thiếu dấu * (required)
+- type of delivery : out of format</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -394,6 +501,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -493,7 +624,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -516,8 +647,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -566,6 +700,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,19 +721,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Closed Color" xfId="4"/>
     <cellStyle name="Date" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Input" xfId="6" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input Labels" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -600,7 +741,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -611,7 +752,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -694,7 +835,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -711,6 +862,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -860,11 +1012,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83140608"/>
-        <c:axId val="83142144"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="90059904"/>
+        <c:axId val="90061440"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1120,38 +1281,39 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1448,6 +1610,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1494,7 +1657,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1651,128 +1820,129 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.08</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.08</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.08</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1819,7 +1989,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1847,141 +2023,149 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.08</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="83140608"/>
-        <c:axId val="83142144"/>
+        <c:smooth val="0"/>
+        <c:axId val="90059904"/>
+        <c:axId val="90061440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83140608"/>
+        <c:axId val="90059904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1997,6 +2181,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2023,13 +2209,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83142144"/>
+        <c:crossAx val="90061440"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83142144"/>
+        <c:axId val="90061440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,8 +2224,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83140608"/>
+        <c:crossAx val="90059904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,6 +2250,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2828,11 +3017,128 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>608767</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="323850"/>
+          <a:ext cx="6666667" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265125</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="12609525" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218453</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="9229725"/>
+          <a:ext cx="4980953" cy="5133334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:K108" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B16:K108">
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="B16:K108"/>
   <tableColumns count="10">
     <tableColumn id="10" name="#"/>
     <tableColumn id="1" name="ISSUE" dataDxfId="2"/>
@@ -3049,25 +3355,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3082,15 +3388,15 @@
     <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:11" ht="30" customHeight="1">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3100,16 +3406,16 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.25" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+    <row r="3" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
@@ -3119,11 +3425,11 @@
       <c r="I3" s="7">
         <v>41363</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="17">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1">
+    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3148,14 +3454,14 @@
       <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="44.25" customHeight="1">
+    <row r="17" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3181,7 +3487,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="69.75" customHeight="1">
+    <row r="18" spans="2:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3211,7 +3517,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="48.75" customHeight="1">
+    <row r="19" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3241,7 +3547,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="128.25" customHeight="1">
+    <row r="20" spans="2:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3271,7 +3577,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="33.75" customHeight="1">
+    <row r="21" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3301,7 +3607,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="91.5" customHeight="1">
+    <row r="22" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3331,7 +3637,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="62.25" customHeight="1">
+    <row r="23" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3359,7 +3665,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="75" customHeight="1">
+    <row r="24" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3384,7 +3690,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="78" customHeight="1">
+    <row r="25" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3412,7 +3718,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="54" customHeight="1">
+    <row r="26" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3437,7 +3743,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1">
+    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3463,47 +3769,95 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1">
-      <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="30" customHeight="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1">
-      <c r="B30" s="2"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="30" customHeight="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="2:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="30" customHeight="1">
+    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="13"/>
       <c r="D32" s="2"/>
@@ -3513,7 +3867,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1">
+    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="13"/>
       <c r="D33" s="2"/>
@@ -3523,7 +3877,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1">
+    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="13"/>
       <c r="D34" s="2"/>
@@ -3533,7 +3887,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1">
+    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2"/>
@@ -3543,7 +3897,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1">
+    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="13"/>
       <c r="D36" s="2"/>
@@ -3553,7 +3907,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1">
+    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2"/>
@@ -3563,7 +3917,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1">
+    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="13"/>
       <c r="D38" s="2"/>
@@ -3573,7 +3927,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1">
+    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="13"/>
       <c r="D39" s="2"/>
@@ -3583,7 +3937,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1">
+    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
@@ -3593,7 +3947,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1">
+    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="13"/>
       <c r="D41" s="2"/>
@@ -3603,7 +3957,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1">
+    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="13"/>
       <c r="D42" s="2"/>
@@ -3613,7 +3967,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1">
+    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="13"/>
       <c r="D43" s="2"/>
@@ -3623,7 +3977,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1">
+    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="13"/>
       <c r="D44" s="2"/>
@@ -3633,7 +3987,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1">
+    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
       <c r="D45" s="2"/>
@@ -3643,7 +3997,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1">
+    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
       <c r="D46" s="2"/>
@@ -3653,7 +4007,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1">
+    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
       <c r="D47" s="2"/>
@@ -3663,7 +4017,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:9" ht="30" customHeight="1">
+    <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
       <c r="D48" s="2"/>
@@ -3673,7 +4027,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1">
+    <row r="49" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="13"/>
       <c r="D49" s="2"/>
@@ -3683,7 +4037,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1">
+    <row r="50" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="13"/>
       <c r="D50" s="2"/>
@@ -3693,7 +4047,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1">
+    <row r="51" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
       <c r="D51" s="2"/>
@@ -3703,7 +4057,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1">
+    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
       <c r="D52" s="2"/>
@@ -3713,7 +4067,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1">
+    <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
       <c r="D53" s="2"/>
@@ -3723,7 +4077,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1">
+    <row r="54" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
       <c r="D54" s="2"/>
@@ -3733,7 +4087,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:9" ht="30" customHeight="1">
+    <row r="55" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
       <c r="D55" s="2"/>
@@ -3743,7 +4097,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:9" ht="30" customHeight="1">
+    <row r="56" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
@@ -3753,7 +4107,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" ht="30" customHeight="1">
+    <row r="57" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
@@ -3763,7 +4117,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9" ht="30" customHeight="1">
+    <row r="58" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -3773,7 +4127,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:9" ht="30" customHeight="1">
+    <row r="59" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -3783,7 +4137,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" ht="30" customHeight="1">
+    <row r="60" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -3793,7 +4147,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" ht="30" customHeight="1">
+    <row r="61" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -3803,7 +4157,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1">
+    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -3813,7 +4167,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" ht="30" customHeight="1">
+    <row r="63" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -3823,7 +4177,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" ht="30" customHeight="1">
+    <row r="64" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -3833,7 +4187,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1">
+    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -3843,7 +4197,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1">
+    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -3853,7 +4207,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -3863,7 +4217,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -3873,7 +4227,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -3883,7 +4237,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1">
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -3893,7 +4247,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1">
+    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -3903,7 +4257,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1">
+    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -3913,7 +4267,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1">
+    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -3923,7 +4277,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1">
+    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -3933,7 +4287,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
+    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -3943,7 +4297,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1">
+    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -3953,7 +4307,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1">
+    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -3963,7 +4317,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
+    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -3973,7 +4327,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1">
+    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -3983,7 +4337,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1">
+    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -3993,7 +4347,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1">
+    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4003,7 +4357,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4013,7 +4367,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1">
+    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4023,7 +4377,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1">
+    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4033,7 +4387,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1">
+    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4043,7 +4397,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1">
+    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4053,7 +4407,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1">
+    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4063,7 +4417,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1">
+    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4073,7 +4427,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1">
+    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4083,7 +4437,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1">
+    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4093,7 +4447,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1">
+    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4103,7 +4457,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1">
+    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4113,7 +4467,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1">
+    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4123,7 +4477,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1">
+    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4133,7 +4487,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1">
+    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4143,7 +4497,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1">
+    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4153,7 +4507,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1">
+    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4163,7 +4517,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1">
+    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4173,7 +4527,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1">
+    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4183,7 +4537,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1">
+    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4193,7 +4547,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1">
+    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4203,7 +4557,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1">
+    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4213,7 +4567,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1">
+    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4223,7 +4577,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1">
+    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4233,7 +4587,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1">
+    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4243,7 +4597,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4253,7 +4607,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1">
+    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4263,7 +4617,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1">
+    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4273,10 +4627,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G3">
-      <formula1>types</formula1>
-    </dataValidation>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="You need to select an option from the list in order for the chart to work correctly. " sqref="H3">
       <formula1>priorities</formula1>
     </dataValidation>
@@ -4284,10 +4635,24 @@
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>mindate</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"Buyer, Hub, Customer, Plan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"High, Normal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G1:G1048576">
+      <formula1>"KhanhNHV, VuongND, ThinhNTY, AnhAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>"KhanhNHV, VuongND, ThinhNTY, AnhAN"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C28" location="Reference!A1" display="Format Delivery men ở màn hình assign "/>
+    <hyperlink ref="C30" location="Reference!A20" display="remove product, nhưng total price ko thay đổi"/>
+    <hyperlink ref="C31" location="Reference!A46" display="Reference!A46"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4298,25 +4663,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4324,13 +4689,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4352,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4726,7 @@
         <v>Buyer</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4370,7 +4735,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4380,7 +4745,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>4</v>
@@ -4396,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4427,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4460,7 +4825,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4493,7 +4858,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4526,7 +4891,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -4559,7 +4924,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -4592,7 +4957,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -4625,7 +4990,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -4658,7 +5023,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -4691,7 +5056,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -4724,7 +5089,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -4757,7 +5122,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -4790,7 +5155,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -4823,7 +5188,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -4856,7 +5221,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -4889,7 +5254,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -4922,7 +5287,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -4955,7 +5320,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -4988,7 +5353,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5021,7 +5386,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5054,7 +5419,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5087,7 +5452,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5120,7 +5485,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5153,7 +5518,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5186,7 +5551,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5219,7 +5584,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5252,7 +5617,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5285,7 +5650,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5318,7 +5683,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5351,7 +5716,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5384,7 +5749,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5417,7 +5782,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5427,14 +5792,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:20">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5444,14 +5809,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:20">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5461,14 +5826,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5478,14 +5843,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:10">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5495,14 +5860,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5512,14 +5877,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -5529,14 +5894,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -5546,14 +5911,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:10">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -5563,14 +5928,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -5580,14 +5945,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -5597,14 +5962,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -5614,14 +5979,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -5631,14 +5996,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -5648,14 +6013,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -5665,14 +6030,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -5682,14 +6047,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:10">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -5699,14 +6064,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -5716,14 +6081,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:10">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -5733,14 +6098,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:10">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -5750,14 +6115,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -5767,14 +6132,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -5784,14 +6149,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:10">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -5801,14 +6166,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -5818,14 +6183,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:10">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -5835,14 +6200,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -5852,14 +6217,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:10">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -5869,14 +6234,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:10">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -5886,14 +6251,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:10">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -5903,14 +6268,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:10">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -5920,14 +6285,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:10">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -5937,14 +6302,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:10">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -5954,14 +6319,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -5971,14 +6336,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -5988,14 +6353,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6005,7 +6370,7 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6015,6 +6380,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6795"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Reference" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -22,7 +26,7 @@
     <definedName name="mindate">calculations!$J$4</definedName>
     <definedName name="opened">OFFSET(calculations!$I$16,,,days)</definedName>
     <definedName name="opened_labels">opened+label_offset</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Issue Tracker'!$A$1:$K$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Issue Tracker'!$A$1:$L$15</definedName>
     <definedName name="priorities">OFFSET(calculations!$T$16,,,calculations!$O$13+1)</definedName>
     <definedName name="prioritiesUnsorted">OFFSET(calculations!$O$15,,,calculations!$O$13+1)</definedName>
     <definedName name="priority">calculations!$J$10</definedName>
@@ -30,7 +34,7 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>Type</t>
   </si>
@@ -254,117 +258,54 @@
     </r>
   </si>
   <si>
-    <t>Assign DM</t>
+    <t>Sửa link cho màn hình layout -&gt; các link có thể click được</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Map của Buyer chưa hiển thị lên full màn hình</t>
+  </si>
+  <si>
+    <t>Bỏ 3 số .000 ở sau trong màn hình của Hub</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Màn hình group của DeliveryPlan đang có vấn đề.</t>
+  </si>
+  <si>
+    <t>Nút back ở màn hình số 2 sai, plan &lt;=4 thì nút back và next sẽ ko có tác dụng</t>
   </si>
   <si>
     <t>ThinhNTY</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Format Delivery men ở màn hình </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">assign </t>
-    </r>
+    <t>remove product, nhưng total price ko thay đổi</t>
   </si>
   <si>
-    <t>Nút back ở màn hình số 2 sai, plan &lt;=4 thì nút back và next sẽ ko có tác dụng</t>
+    <t>- ward chưa bỏ dấu * (not required)_x000D_
+- address thiếu dấu * (required)_x000D_
+- type of delivery : out of format</t>
   </si>
   <si>
-    <t>remove product, giá vẫn còn tồn tại</t>
+    <t>Thay đổi chức năng:
+Nếu người dùng chọn Direct Delivery: WardId  + District Id là của người dùng. 
+Chọn Hub Delivery: Disable 2 cái DistrictId và WardId. Cho phép chọn Hub. Khi chọn Hub sẽ thay đổi ddl tương ứng</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">remove </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, nhưng total price ko thay đổi</t>
-    </r>
-  </si>
-  <si>
-    <t>Customer info</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ward </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chưa bỏ dấu * (not required)
-- address thiếu dấu * (required)
-- type of delivery : out of format</t>
-    </r>
+    <t>Assigned To</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -501,30 +442,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -624,7 +541,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -646,9 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="25">
@@ -709,6 +623,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,17 +641,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
     <cellStyle name="Date" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Input" xfId="6" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Input Labels" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -739,7 +652,10 @@
     <cellStyle name="Table Header" xfId="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -817,9 +733,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Project Issue Tracker" defaultPivotStyle="PivotStyleDark1">
     <tableStyle name="Project Issue Tracker" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -973,40 +889,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,8 +936,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90059904"/>
-        <c:axId val="90061440"/>
+        <c:axId val="302837888"/>
+        <c:axId val="302838448"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1275,40 +1191,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,40 +1488,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,124 +1736,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.16</c:v>
+                  <c:v>11.72</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.16</c:v>
+                  <c:v>11.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.16</c:v>
+                  <c:v>16.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.16</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,124 +1939,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.16</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.16</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.16</c:v>
+                  <c:v>6.72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16</c:v>
+                  <c:v>7.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.16</c:v>
+                  <c:v>8.7200000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,11 +2073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90059904"/>
-        <c:axId val="90061440"/>
+        <c:axId val="302837888"/>
+        <c:axId val="302838448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90059904"/>
+        <c:axId val="302837888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,14 +2125,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90061440"/>
+        <c:crossAx val="302838448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90061440"/>
+        <c:axId val="302838448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="90059904"/>
+        <c:crossAx val="302837888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2836,7 +2752,7 @@
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>5565</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120317</xdr:rowOff>
@@ -2992,7 +2908,7 @@
       <xdr:rowOff>250658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>60158</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>49506</xdr:rowOff>
@@ -3017,138 +2933,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>608767</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9139</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="323850"/>
-          <a:ext cx="6666667" cy="3085714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>265125</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>151806</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4000500"/>
-          <a:ext cx="12609525" cy="4752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>218453</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>161284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="9229725"/>
-          <a:ext cx="4980953" cy="5133334"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:K108" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B16:K108"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B16:L108"/>
+  <tableColumns count="11">
     <tableColumn id="10" name="#"/>
-    <tableColumn id="1" name="ISSUE" dataDxfId="2"/>
+    <tableColumn id="1" name="ISSUE" dataDxfId="3"/>
     <tableColumn id="2" name="TYPE"/>
-    <tableColumn id="3" name="PRIORITY" dataDxfId="1"/>
+    <tableColumn id="3" name="PRIORITY" dataDxfId="2"/>
     <tableColumn id="4" name="OPENED ON" dataCellStyle="Date"/>
     <tableColumn id="5" name="OPENED BY"/>
     <tableColumn id="7" name="CLOSED ON" dataCellStyle="Date"/>
     <tableColumn id="8" name="CLOSED BY"/>
-    <tableColumn id="9" name="NOTES" dataDxfId="0"/>
+    <tableColumn id="9" name="NOTES" dataDxfId="1"/>
+    <tableColumn id="11" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="6" name="DUE DATE"/>
   </tableColumns>
   <tableStyleInfo name="Project Issue Tracker" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3355,7 +3153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3367,36 +3165,36 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K108"/>
+  <dimension ref="B1:L108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="10" max="11" width="27.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3409,15 +3207,16 @@
       <c r="J2" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>26</v>
@@ -3428,8 +3227,9 @@
       <c r="J3" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="20"/>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3457,11 +3257,14 @@
       <c r="J16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3480,14 +3283,19 @@
       <c r="G17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="3">
+        <v>41354</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="1">
+      <c r="K17" s="13"/>
+      <c r="L17" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3513,11 +3321,12 @@
         <v>42</v>
       </c>
       <c r="J18" s="13"/>
-      <c r="K18" s="1">
+      <c r="K18" s="13"/>
+      <c r="L18" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3543,11 +3352,12 @@
         <v>42</v>
       </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="1">
+      <c r="K19" s="13"/>
+      <c r="L19" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3573,11 +3383,12 @@
         <v>42</v>
       </c>
       <c r="J20" s="13"/>
-      <c r="K20" s="1">
+      <c r="K20" s="13"/>
+      <c r="L20" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3603,11 +3414,12 @@
         <v>42</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="1">
+      <c r="K21" s="13"/>
+      <c r="L21" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3633,11 +3445,12 @@
         <v>42</v>
       </c>
       <c r="J22" s="13"/>
-      <c r="K22" s="1">
+      <c r="K22" s="13"/>
+      <c r="L22" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3661,11 +3474,11 @@
       <c r="J23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3686,11 +3499,11 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3714,11 +3527,11 @@
       <c r="J25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3739,11 +3552,11 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3769,29 +3582,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="F28" s="3">
         <v>41354</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3799,7 +3612,7 @@
         <v>48</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>26</v>
@@ -3808,20 +3621,24 @@
         <v>41354</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
+        <v>41355</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
@@ -3830,70 +3647,118 @@
         <v>41354</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>52</v>
+      <c r="C31" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="3">
-        <v>41354</v>
+        <v>41355</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
+      <c r="B33" s="2">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
+      <c r="B34" s="2">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="3">
+        <v>41354</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="2:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3">
+        <v>41355</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
@@ -4627,32 +4492,21 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G3">
+      <formula1>types</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops" error="You need to select an option from the list in order for the chart to work correctly. " sqref="H3">
       <formula1>priorities</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K3">
       <formula1>1</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"Buyer, Hub, Customer, Plan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"High, Normal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G1:G1048576">
-      <formula1>"KhanhNHV, VuongND, ThinhNTY, AnhAN"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>"KhanhNHV, VuongND, ThinhNTY, AnhAN"</formula1>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+      <formula1>mindate</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C28" location="Reference!A1" display="Format Delivery men ở màn hình assign "/>
-    <hyperlink ref="C30" location="Reference!A20" display="remove product, nhưng total price ko thay đổi"/>
-    <hyperlink ref="C31" location="Reference!A46" display="Reference!A46"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4723,7 +4577,7 @@
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>Buyer</v>
+        <v>*</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4748,11 +4602,11 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="s">
         <v>13</v>
@@ -4845,9 +4699,9 @@
         <f t="array" ref="N17">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N16, issues[TYPE]),0))</f>
         <v>Customer</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="str">
         <f t="array" ref="O17">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O16,issues[PRIORITY]),0))</f>
-        <v>0</v>
+        <v>Medium</v>
       </c>
       <c r="S17" t="str">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(2:2)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -4878,9 +4732,9 @@
         <f t="array" ref="N18">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N17, issues[TYPE]),0))</f>
         <v>Buyer</v>
       </c>
-      <c r="O18" t="e">
+      <c r="O18">
         <f t="array" ref="O18">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -4907,9 +4761,9 @@
         <f>J18+COUNTIFS(issues[CLOSED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="str">
         <f t="array" ref="N19">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N18, issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>Layout</v>
       </c>
       <c r="O19" t="e">
         <f t="array" ref="O19">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,issues[PRIORITY]),0))</f>
@@ -4919,9 +4773,9 @@
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
         <v>Customer</v>
       </c>
-      <c r="T19" t="e">
+      <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.25">
@@ -4940,9 +4794,9 @@
         <f>J19+COUNTIFS(issues[CLOSED ON],H20,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N20" t="e">
+      <c r="N20" t="str">
         <f t="array" ref="N20">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N19, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>Hub</v>
       </c>
       <c r="O20" t="e">
         <f t="array" ref="O20">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O19,issues[PRIORITY]),0))</f>
@@ -4950,7 +4804,7 @@
       </c>
       <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Plan</v>
+        <v>Hub</v>
       </c>
       <c r="T20" t="e">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4973,17 +4827,17 @@
         <f>J20+COUNTIFS(issues[CLOSED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21">
         <f t="array" ref="N21">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N20, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S21" t="e">
+      <c r="S21" t="str">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Layout</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5014,9 +4868,9 @@
         <f t="array" ref="O22">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S22" t="e">
+      <c r="S22" t="str">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Plan</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5726,11 +5580,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5759,11 +5613,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5792,11 +5646,11 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.25">
@@ -5809,11 +5663,11 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.25">
@@ -5826,11 +5680,11 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -5843,11 +5697,11 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -5860,11 +5714,11 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -5877,11 +5731,11 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -5894,11 +5748,11 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -5911,11 +5765,11 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -5928,11 +5782,11 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -5945,11 +5799,11 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -5962,11 +5816,11 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -5979,11 +5833,11 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
@@ -5996,11 +5850,11 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
@@ -6013,11 +5867,11 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
@@ -6030,11 +5884,11 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -6047,11 +5901,11 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -6064,11 +5918,11 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
@@ -6081,11 +5935,11 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
@@ -6098,11 +5952,11 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
@@ -6115,11 +5969,11 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
@@ -6132,11 +5986,11 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
@@ -6149,11 +6003,11 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
@@ -6166,11 +6020,11 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
@@ -6183,11 +6037,11 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
@@ -6200,11 +6054,11 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
@@ -6217,11 +6071,11 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
@@ -6234,11 +6088,11 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
@@ -6251,11 +6105,11 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
@@ -6268,11 +6122,11 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
@@ -6285,11 +6139,11 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
@@ -6302,11 +6156,11 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
@@ -6319,11 +6173,11 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
@@ -6336,11 +6190,11 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
@@ -6353,11 +6207,11 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
@@ -6365,52 +6219,21 @@
         <v>65</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ref="H80" si="2">keydate-days+G80</f>
+        <f>keydate-days+G80</f>
         <v>41388</v>
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>Type</t>
   </si>
@@ -300,12 +300,55 @@
   <si>
     <t>Assigned To</t>
   </si>
+  <si>
+    <t>Tạo màn hình index của plan</t>
+  </si>
+  <si>
+    <t>Nút prev + next của màn hình Buyer nhảy lên nhảy xuống khi bấm next - prev</t>
+  </si>
+  <si>
+    <t>AnhAN</t>
+  </si>
+  <si>
+    <t>Sửa statuses của các màn hình index plan v..v không hiển thị number nữa mà phải hiển thị value</t>
+  </si>
+  <si>
+    <t>Vào trang index =&gt; hienr thị tất cả các plan =&gt; click on details để view plans hiển thị map bị sai.</t>
+  </si>
+  <si>
+    <t>Sau khi click "Save" ở màn hình View Plan, hiển thị màn hình Plan management</t>
+  </si>
+  <si>
+    <t>- Solve button để lên trên request area
+- Save button để lên trên map &amp; plan detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click vào plan đã assign -&gt; bỏ chọn hết assign không chuyển về đã hết assign -&gt; vẫn còn click được mark as finished. </t>
+  </si>
+  <si>
+    <t>Đã tạo xong chờ recommend của thầy</t>
+  </si>
+  <si>
+    <t>Cái này để debate với thầy. Việc chuyển qua cái view Index nhảm shit</t>
+  </si>
+  <si>
+    <t>Chưa xử lý. Đang group theo Ward Id nhưng như vậy thì hiển thị address ntn ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifications chưa làm gì cả. Chuẩn bị intergrate phần notifications vào </t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeliveryPlan vẫn chưa save xuống DB được. Mới làm xong hiển thị lên plan thôi. =&gt; thêm chức năng này. Ngoài ra có thay đổi ở cách thức hoạt động của view cần phải update lại </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -442,6 +485,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -565,7 +615,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -640,6 +690,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -904,25 +972,25 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,8 +1004,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302837888"/>
-        <c:axId val="302838448"/>
+        <c:axId val="308448544"/>
+        <c:axId val="308451904"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1191,40 +1259,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,25 +1571,25 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,124 +1804,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.72</c:v>
+                  <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.72</c:v>
+                  <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.72</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.72</c:v>
+                  <c:v>10.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.72</c:v>
+                  <c:v>10.64</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.72</c:v>
+                  <c:v>16.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,124 +2007,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.72</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.72</c:v>
+                  <c:v>6.64</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.72</c:v>
+                  <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,11 +2141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302837888"/>
-        <c:axId val="302838448"/>
+        <c:axId val="308448544"/>
+        <c:axId val="308451904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="302837888"/>
+        <c:axId val="308448544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,14 +2193,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302838448"/>
+        <c:crossAx val="308451904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302838448"/>
+        <c:axId val="308451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2210,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="302837888"/>
+        <c:crossAx val="308448544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,7 +3003,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B16:L108"/>
+  <autoFilter ref="B16:L108">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Plan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="10" name="#"/>
     <tableColumn id="1" name="ISSUE" dataDxfId="3"/>
@@ -3167,8 +3241,8 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3216,7 +3290,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>26</v>
@@ -3290,7 +3364,9 @@
         <v>42</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="1">
         <v>41354</v>
       </c>
@@ -3321,7 +3397,9 @@
         <v>42</v>
       </c>
       <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="1">
         <v>41354</v>
       </c>
@@ -3352,7 +3430,9 @@
         <v>42</v>
       </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L19" s="1">
         <v>41354</v>
       </c>
@@ -3383,7 +3463,9 @@
         <v>42</v>
       </c>
       <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L20" s="1">
         <v>41354</v>
       </c>
@@ -3414,7 +3496,9 @@
         <v>42</v>
       </c>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L21" s="1">
         <v>41354</v>
       </c>
@@ -3445,12 +3529,14 @@
         <v>42</v>
       </c>
       <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="L22" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3478,7 +3564,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3503,7 +3589,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3531,7 +3617,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3582,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3601,10 +3687,14 @@
       <c r="G28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>41355</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3630,7 +3720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3652,7 +3742,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3673,6 +3763,9 @@
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
+      <c r="J31" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
@@ -3693,10 +3786,17 @@
       <c r="G32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>41355</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3718,7 +3818,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3740,7 +3840,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3762,97 +3862,253 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>20</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="3">
+        <v>41355</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="3">
+        <v>41357</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>21</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3">
+        <v>41356</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
+      <c r="K37" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>22</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="3">
+        <v>41357</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>23</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="3">
+        <v>41357</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="30" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
+        <v>24</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="28">
+        <v>41357</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="28"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>25</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
+      <c r="K41" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="2"/>
+      <c r="K42" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
+      <c r="L43" s="1">
+        <v>41363</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>28</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="3">
+        <v>41357</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="1">
+        <v>41358</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="13"/>
       <c r="D45" s="2"/>
@@ -3862,7 +4118,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="13"/>
       <c r="D46" s="2"/>
@@ -3872,7 +4128,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="13"/>
       <c r="D47" s="2"/>
@@ -3882,7 +4138,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
       <c r="D48" s="2"/>
@@ -4577,7 +4833,7 @@
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>*</v>
+        <v>Plan</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4602,7 +4858,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -4827,9 +5083,9 @@
         <f>J20+COUNTIFS(issues[CLOSED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="str">
         <f t="array" ref="N21">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N20, issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>Notifications</v>
       </c>
       <c r="O21" t="e">
         <f t="array" ref="O21">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O20,issues[PRIORITY]),0))</f>
@@ -4860,9 +5116,9 @@
         <f>J21+COUNTIFS(issues[CLOSED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N22" t="e">
+      <c r="N22">
         <f t="array" ref="N22">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N21, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O22" t="e">
         <f t="array" ref="O22">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,issues[PRIORITY]),0))</f>
@@ -4870,7 +5126,7 @@
       </c>
       <c r="S22" t="str">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Plan</v>
+        <v>Notifications</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -4901,9 +5157,9 @@
         <f t="array" ref="O23">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S23" t="e">
+      <c r="S23" t="str">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Plan</v>
       </c>
       <c r="T23" t="e">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5580,7 +5836,7 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5613,7 +5869,7 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5646,7 +5902,7 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5663,7 +5919,7 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5680,7 +5936,7 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5697,11 +5953,11 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -5714,11 +5970,11 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -5731,11 +5987,11 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -5748,11 +6004,11 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -5765,11 +6021,11 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -5782,11 +6038,11 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -5799,11 +6055,11 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -5816,11 +6072,11 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -5833,11 +6089,11 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
@@ -5850,11 +6106,11 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
@@ -5867,11 +6123,11 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
@@ -5884,11 +6140,11 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -5901,11 +6157,11 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -5918,11 +6174,11 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
@@ -5935,11 +6191,11 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
@@ -5952,11 +6208,11 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
@@ -5969,11 +6225,11 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
@@ -5986,11 +6242,11 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
@@ -6003,11 +6259,11 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
@@ -6020,11 +6276,11 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
@@ -6037,11 +6293,11 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
@@ -6054,11 +6310,11 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
@@ -6071,11 +6327,11 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
@@ -6088,11 +6344,11 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
@@ -6105,11 +6361,11 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
@@ -6122,11 +6378,11 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
@@ -6139,11 +6395,11 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
@@ -6156,11 +6412,11 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
@@ -6173,11 +6429,11 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
@@ -6190,11 +6446,11 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
@@ -6207,11 +6463,11 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
@@ -6224,11 +6480,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -966,31 +966,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,40 +1259,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,31 +1565,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,124 +1804,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.64</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.64</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.64</c:v>
+                  <c:v>17.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.64</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.64</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.64</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,124 +2007,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.64</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.64</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.64</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.64</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.64</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,8 +3241,8 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3290,7 +3290,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>26</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>Plan</v>
+        <v>*</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.25">
@@ -5936,11 +5936,11 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -5953,11 +5953,11 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -5970,11 +5970,11 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -5987,11 +5987,11 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -6004,11 +6004,11 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -6021,11 +6021,11 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -6038,11 +6038,11 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -6072,11 +6072,11 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -6089,11 +6089,11 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
@@ -6106,11 +6106,11 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
@@ -6123,11 +6123,11 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
@@ -6140,11 +6140,11 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -6157,11 +6157,11 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -6174,11 +6174,11 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
@@ -6191,11 +6191,11 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
@@ -6208,11 +6208,11 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
@@ -6225,11 +6225,11 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
@@ -6242,11 +6242,11 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
@@ -6259,11 +6259,11 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
@@ -6276,11 +6276,11 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
@@ -6293,11 +6293,11 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
@@ -6310,11 +6310,11 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
@@ -6327,11 +6327,11 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
@@ -6344,11 +6344,11 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
@@ -6361,11 +6361,11 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
@@ -6378,11 +6378,11 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
@@ -6395,11 +6395,11 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
@@ -6412,11 +6412,11 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
@@ -6429,11 +6429,11 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
@@ -6446,11 +6446,11 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
@@ -6463,11 +6463,11 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
@@ -6480,11 +6480,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="MilesStone" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -34,9 +30,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
   <si>
     <t>Type</t>
   </si>
@@ -332,9 +328,6 @@
     <t>Cái này để debate với thầy. Việc chuyển qua cái view Index nhảm shit</t>
   </si>
   <si>
-    <t>Chưa xử lý. Đang group theo Ward Id nhưng như vậy thì hiển thị address ntn ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notifications chưa làm gì cả. Chuẩn bị intergrate phần notifications vào </t>
   </si>
   <si>
@@ -342,13 +335,70 @@
   </si>
   <si>
     <t xml:space="preserve">DeliveryPlan vẫn chưa save xuống DB được. Mới làm xong hiển thị lên plan thôi. =&gt; thêm chức năng này. Ngoài ra có thay đổi ở cách thức hoạt động của view cần phải update lại </t>
+  </si>
+  <si>
+    <t>Module Tạo mới Order
+    - Cho phép Customer nhập bằng tay
+    - Cho phép Customer import từ file excel theo mẫu có sẵn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chưa xử lý. Đang group theo Ward Id nhưng như vậy thì hiển thị address ntn ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đang group theo districtId</t>
+    </r>
+  </si>
+  <si>
+    <t>Sửa các view của request và order bên Tiktak hiện tại không thể hiển thị lên được.</t>
+  </si>
+  <si>
+    <t>Tiktak</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Delivery Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số các item trong từng status ở màn hình Dashboard của Customer phải được cập nhật liên tục </t>
+  </si>
+  <si>
+    <t>Tiktak Staff: 
+       Xem được request và order
+       Xong màn hình dasboard của tiktak staff
+       Xong chức năng pricing bên phía tiktak staff
+       Được inform mỗi khi customer reject price? 
+Customer:
+       Import được order từ file excel theo một mẫu nào đó       
+       Cho phép customer approve + reject Request price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan:
+      Màn hình plan index
+      Update phần Delivery Plan tương ứng theo CollectionPlan (View)
+      Save DeliveryPlan xuống được DB
+Customer:
+      Xong layout chính (Dashboard) View được các Order và requests     
+      Cập nhật được số layout ở trạng thái nào đó một cách tự động
+      Customer tạo được order mới bằng tay
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -518,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -590,6 +640,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -615,7 +680,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -679,18 +744,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -709,6 +762,27 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -722,7 +796,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -736,7 +810,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -819,17 +893,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -841,12 +905,11 @@
           <c:x val="1.6377158938091042E-2"/>
           <c:y val="0"/>
           <c:w val="0.97886606699030954"/>
-          <c:h val="0.9494492563429574"/>
+          <c:h val="0.94944925634295751"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -966,50 +1029,42 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="308448544"/>
-        <c:axId val="308451904"/>
+        <c:dLbls/>
+        <c:axId val="80152832"/>
+        <c:axId val="80166912"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1265,39 +1320,38 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1565,36 +1619,35 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1641,13 +1694,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -1804,129 +1851,128 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.08</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.08</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>18.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>21.24</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.08</c:v>
+                  <c:v>22.24</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.08</c:v>
+                  <c:v>29.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.08</c:v>
+                  <c:v>32.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1973,13 +2019,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2007,149 +2047,141 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.08</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.08</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.08</c:v>
+                  <c:v>7.24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.08</c:v>
+                  <c:v>8.24</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.08</c:v>
+                  <c:v>11.24</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.08</c:v>
+                  <c:v>11.24</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>13.08</c:v>
+                  <c:v>15.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="308448544"/>
-        <c:axId val="308451904"/>
+        <c:axId val="80152832"/>
+        <c:axId val="80166912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="308448544"/>
+        <c:axId val="80152832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2165,8 +2197,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2193,14 +2223,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308451904"/>
+        <c:crossAx val="80166912"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="308451904"/>
+        <c:axId val="80166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,9 +2237,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="308448544"/>
+        <c:crossAx val="80152832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,7 +2262,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2256,7 +2283,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3005,7 +3032,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B16:L108">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="Plan"/>
       </filters>
     </filterColumn>
@@ -3227,25 +3254,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3260,15 +3287,15 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3283,17 +3310,17 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I3" s="7">
         <v>41363</v>
@@ -3303,7 +3330,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3404,7 +3431,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3437,7 +3464,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3470,7 +3497,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3503,7 +3530,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3536,7 +3563,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3564,7 +3591,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3589,7 +3616,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3617,7 +3644,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3642,7 +3669,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3667,8 +3694,11 @@
       <c r="I27" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3694,7 +3724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3720,7 +3750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3742,7 +3772,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3761,13 +3791,20 @@
       <c r="G31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="3">
+        <v>41357</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="J31" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="57" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3796,7 +3833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3818,7 +3855,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3840,7 +3877,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3862,7 +3899,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3894,7 +3931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3919,7 +3956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3948,7 +3985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3977,39 +4014,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="30" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+      <c r="B40" s="22">
         <v>24</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="24">
         <v>41357</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="29" t="s">
+      <c r="H40" s="24"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K40" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4030,7 +4067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="30" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -4055,15 +4092,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="30" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>26</v>
@@ -4080,12 +4117,12 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="30" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>33</v>
@@ -4108,37 +4145,88 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="2:12" ht="73.5" customHeight="1">
+      <c r="B45" s="2">
+        <v>29</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="3">
+        <v>41358</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="2"/>
+      <c r="K45" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="54.75" customHeight="1">
+      <c r="B46" s="2">
+        <v>30</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3">
+        <v>41358</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="2"/>
+      <c r="K46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="51" customHeight="1">
+      <c r="B47" s="2">
+        <v>31</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41358</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="1">
+        <v>41359</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="30" customHeight="1">
       <c r="B48" s="2"/>
       <c r="C48" s="13"/>
       <c r="D48" s="2"/>
@@ -4148,7 +4236,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="30" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="13"/>
       <c r="D49" s="2"/>
@@ -4158,7 +4246,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="30" customHeight="1">
       <c r="B50" s="2"/>
       <c r="C50" s="13"/>
       <c r="D50" s="2"/>
@@ -4168,7 +4256,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="30" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="13"/>
       <c r="D51" s="2"/>
@@ -4178,7 +4266,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="30" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="13"/>
       <c r="D52" s="2"/>
@@ -4188,7 +4276,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="30" customHeight="1">
       <c r="B53" s="2"/>
       <c r="C53" s="13"/>
       <c r="D53" s="2"/>
@@ -4198,7 +4286,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="30" customHeight="1">
       <c r="B54" s="2"/>
       <c r="C54" s="13"/>
       <c r="D54" s="2"/>
@@ -4208,7 +4296,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="30" customHeight="1">
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
       <c r="D55" s="2"/>
@@ -4218,7 +4306,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="30" customHeight="1">
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
@@ -4228,7 +4316,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="30" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
@@ -4238,7 +4326,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="30" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -4248,7 +4336,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="30" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -4258,7 +4346,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="30" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -4268,7 +4356,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="30" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -4278,7 +4366,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="30" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -4288,7 +4376,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="30" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -4298,7 +4386,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="30" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -4308,7 +4396,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="30" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -4318,7 +4406,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="30" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -4328,7 +4416,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="30" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -4338,7 +4426,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="30" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -4348,7 +4436,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="30" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -4358,7 +4446,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="30" customHeight="1">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -4368,7 +4456,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="30" customHeight="1">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -4378,7 +4466,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="30" customHeight="1">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -4388,7 +4476,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="30" customHeight="1">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -4398,7 +4486,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="30" customHeight="1">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -4408,7 +4496,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="30" customHeight="1">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -4418,7 +4506,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="30" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -4428,7 +4516,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="30" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -4438,7 +4526,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="30" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -4448,7 +4536,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="30" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -4458,7 +4546,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="30" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -4468,7 +4556,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="30" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4478,7 +4566,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="30" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4488,7 +4576,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="30" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4498,7 +4586,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="30" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4508,7 +4596,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="30" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4518,7 +4606,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="30" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4528,7 +4616,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="30" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4538,7 +4626,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="30" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4548,7 +4636,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="30" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4558,7 +4646,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="30" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4568,7 +4656,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="30" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4578,7 +4666,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="30" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4588,7 +4676,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="30" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4598,7 +4686,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="30" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4608,7 +4696,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="30" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4618,7 +4706,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="30" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4628,7 +4716,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="30" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4638,7 +4726,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="30" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4648,7 +4736,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="30" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4658,7 +4746,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="30" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4668,7 +4756,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="30" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4678,7 +4766,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="30" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4688,7 +4776,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="30" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4698,7 +4786,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="30" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4708,7 +4796,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="30" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4718,7 +4806,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="30" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4728,7 +4816,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="30" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4738,7 +4826,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="30" customHeight="1">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4773,25 +4861,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4799,13 +4887,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4814,7 +4902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4827,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4836,16 +4924,16 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
       <c r="J10" t="str">
         <f>'Issue Tracker'!H3</f>
-        <v>High</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>*</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4855,10 +4943,10 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -4871,7 +4959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4894,7 +4982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4935,7 +5023,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4968,7 +5056,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -5001,7 +5089,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -5034,7 +5122,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -5067,7 +5155,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5100,7 +5188,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5116,9 +5204,9 @@
         <f>J21+COUNTIFS(issues[CLOSED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="str">
         <f t="array" ref="N22">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N21, issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>Tiktak</v>
       </c>
       <c r="O22" t="e">
         <f t="array" ref="O22">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O21,issues[PRIORITY]),0))</f>
@@ -5133,7 +5221,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5149,9 +5237,9 @@
         <f>J22+COUNTIFS(issues[CLOSED ON],H23,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>0</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23">
         <f t="array" ref="N23">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N22, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O23" t="e">
         <f t="array" ref="O23">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,issues[PRIORITY]),0))</f>
@@ -5166,7 +5254,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -5190,16 +5278,16 @@
         <f t="array" ref="O24">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S24" t="e">
+      <c r="S24" t="str">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Tiktak</v>
       </c>
       <c r="T24" t="e">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -5232,7 +5320,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -5265,7 +5353,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -5298,7 +5386,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -5331,7 +5419,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -5364,7 +5452,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -5397,7 +5485,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -5430,7 +5518,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -5463,7 +5551,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5496,7 +5584,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5529,7 +5617,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5562,7 +5650,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5595,7 +5683,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5628,7 +5716,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5661,7 +5749,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5694,7 +5782,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5727,7 +5815,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5760,7 +5848,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5793,7 +5881,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5826,7 +5914,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5859,7 +5947,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5892,7 +5980,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5902,14 +5990,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5919,14 +6007,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5936,14 +6024,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5953,14 +6041,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5970,14 +6058,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5987,14 +6075,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -6004,14 +6092,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -6021,14 +6109,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -6038,14 +6126,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -6055,14 +6143,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -6072,14 +6160,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -6089,14 +6177,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -6106,14 +6194,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -6123,14 +6211,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -6140,14 +6228,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -6157,14 +6245,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -6174,14 +6262,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -6191,14 +6279,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -6208,14 +6296,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -6225,14 +6313,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -6242,14 +6330,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -6259,14 +6347,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -6276,14 +6364,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -6293,14 +6381,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -6310,14 +6398,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -6327,14 +6415,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -6344,14 +6432,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -6361,14 +6449,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -6378,14 +6466,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -6395,14 +6483,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -6412,14 +6500,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -6429,14 +6517,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -6446,14 +6534,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -6463,14 +6551,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6480,16 +6568,67 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="255" customHeight="1">
+      <c r="A2" s="31">
+        <v>41359</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+      <c r="A5" s="31">
+        <v>41362</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>Type</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Đã tạo xong chờ recommend của thầy</t>
   </si>
   <si>
-    <t>Cái này để debate với thầy. Việc chuyển qua cái view Index nhảm shit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notifications chưa làm gì cả. Chuẩn bị intergrate phần notifications vào </t>
   </si>
   <si>
@@ -373,32 +370,144 @@
     <t xml:space="preserve">Số các item trong từng status ở màn hình Dashboard của Customer phải được cập nhật liên tục </t>
   </si>
   <si>
-    <t>Tiktak Staff: 
-       Xem được request và order
-       Xong màn hình dasboard của tiktak staff
-       Xong chức năng pricing bên phía tiktak staff
-       Được inform mỗi khi customer reject price? 
-Customer:
-       Import được order từ file excel theo một mẫu nào đó       
-       Cho phép customer approve + reject Request price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan:
+    <t>ở màn hình Index , thêm date picker from để filter theo date. Không load hết data xuống</t>
+  </si>
+  <si>
+    <t>Màn hình Assign: 
+- validate khi click Assign button nhưng chưa chọn Delivery men</t>
+  </si>
+  <si>
+    <t>Thầy Phương</t>
+  </si>
+  <si>
+    <t>Màn hình Assign:
+- Nếu assign DM lần đầu : chỉ có button Assign
+- Nếu edit DM: button Assign đổi tên thành Reassign, và thêm button UnAssign</t>
+  </si>
+  <si>
+    <t>Màn hình View Plan Detail:
+- chỉnh sửa lại thông tin của plan như sau:
+   + plan no: 32  -   Distance: 30 km          [date] [button close]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm nút ra trang index trong màn hình này </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix xong . Có degrade bug </t>
+  </si>
+  <si>
+    <t>Màn hình Dashboard:
+- Order để lên phía trên Request</t>
+  </si>
+  <si>
+    <t>Màn hình Edit Delivery Plan / Edit Collection Plan phần hiển thị số distance đang bị sai và bể ở màn hình 1024 x 768</t>
+  </si>
+  <si>
+    <t>Save lat and long của waypoints cũng như lat long của Waypoints và segments xuống db :)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan:
       Màn hình plan index
       Update phần Delivery Plan tương ứng theo CollectionPlan (View)
       Save DeliveryPlan xuống được DB
 Customer:
       Xong layout chính (Dashboard) View được các Order và requests     
-      Cập nhật được số layout ở trạng thái nào đó một cách tự động
-      Customer tạo được order mới bằng tay
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cập nhật được số layout ở trạng thái nào đó một cách tự động</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customer tạo được order mới bằng tay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tiktak Staff: 
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Xem được request và order
+       Xong màn hình dasboard của tiktak staff
+       Xong chức năng pricing bên phía tiktak staff
+       Được inform mỗi khi customer reject price? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Customer:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Import được order từ file excel theo một mẫu nào đó       
+       Cho phép customer approve + reject Request price</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -542,6 +651,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -680,7 +811,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -762,6 +893,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -774,14 +914,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -905,7 +1054,7 @@
           <c:x val="1.6377158938091042E-2"/>
           <c:y val="0"/>
           <c:w val="0.97886606699030954"/>
-          <c:h val="0.94944925634295751"/>
+          <c:h val="0.94944925634295763"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -934,7 +1083,7 @@
               <c:f>[0]!closed</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -960,108 +1109,47 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80152832"/>
-        <c:axId val="80166912"/>
+        <c:axId val="79690752"/>
+        <c:axId val="79577856"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1099,125 +1187,65 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41324</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41325</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41326</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41327</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41328</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41329</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41330</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41331</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41332</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41333</c:v>
+                  <c:v>41353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41334</c:v>
+                  <c:v>41354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41335</c:v>
+                  <c:v>41355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41336</c:v>
+                  <c:v>41356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41337</c:v>
+                  <c:v>41357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41338</c:v>
+                  <c:v>41358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41339</c:v>
+                  <c:v>41359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41340</c:v>
+                  <c:v>41360</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41341</c:v>
+                  <c:v>41361</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41342</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41344</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41345</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41347</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41349</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41351</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41352</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41354</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41355</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41356</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41357</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41358</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41359</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41360</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41361</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41362</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
@@ -1228,7 +1256,7 @@
               <c:f>[0]!opened</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1254,100 +1282,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,125 +1363,65 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41324</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41325</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41326</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41327</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41328</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41329</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41330</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41331</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41332</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41333</c:v>
+                  <c:v>41353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41334</c:v>
+                  <c:v>41354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41335</c:v>
+                  <c:v>41355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41336</c:v>
+                  <c:v>41356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41337</c:v>
+                  <c:v>41357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41338</c:v>
+                  <c:v>41358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41339</c:v>
+                  <c:v>41359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41340</c:v>
+                  <c:v>41360</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41341</c:v>
+                  <c:v>41361</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41342</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41344</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41345</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41347</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41349</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41351</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41352</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41354</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41355</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41356</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41357</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41358</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41359</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41360</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41361</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41362</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
@@ -1524,7 +1432,7 @@
               <c:f>[0]!closed</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1550,100 +1458,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,125 +1568,65 @@
               <c:f>[0]!dates</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41324</c:v>
+                  <c:v>41344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41325</c:v>
+                  <c:v>41345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41326</c:v>
+                  <c:v>41346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41327</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41328</c:v>
+                  <c:v>41348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41329</c:v>
+                  <c:v>41349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41330</c:v>
+                  <c:v>41350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41331</c:v>
+                  <c:v>41351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41332</c:v>
+                  <c:v>41352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41333</c:v>
+                  <c:v>41353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41334</c:v>
+                  <c:v>41354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41335</c:v>
+                  <c:v>41355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41336</c:v>
+                  <c:v>41356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41337</c:v>
+                  <c:v>41357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41338</c:v>
+                  <c:v>41358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41339</c:v>
+                  <c:v>41359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41340</c:v>
+                  <c:v>41360</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41341</c:v>
+                  <c:v>41361</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41342</c:v>
+                  <c:v>41362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41343</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41344</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41345</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41346</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41347</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41348</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41349</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41350</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41351</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41352</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41353</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41354</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41355</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41356</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41357</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41358</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41359</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41360</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41361</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41362</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>41363</c:v>
                 </c:pt>
               </c:numCache>
@@ -1849,126 +1637,66 @@
               <c:f>[0]!opened_labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.24</c:v>
+                  <c:v>12.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.24</c:v>
+                  <c:v>12.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.24</c:v>
+                  <c:v>18.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.24</c:v>
+                  <c:v>21.52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.24</c:v>
+                  <c:v>22.52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.24</c:v>
+                  <c:v>29.52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.24</c:v>
+                  <c:v>32.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.24</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.24</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.24</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.24</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.24</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.24</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.24</c:v>
+                  <c:v>39.520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,126 +1773,66 @@
               <c:f>[0]!closed_labels</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.24</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.24</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.24</c:v>
+                  <c:v>7.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.24</c:v>
+                  <c:v>8.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.24</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.24</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.24</c:v>
+                  <c:v>15.52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.24</c:v>
+                  <c:v>17.52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.24</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.24</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.24</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.24</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>15.24</c:v>
+                  <c:v>20.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,11 +1842,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80152832"/>
-        <c:axId val="80166912"/>
+        <c:axId val="79690752"/>
+        <c:axId val="79577856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80152832"/>
+        <c:axId val="79690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,13 +1891,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80166912"/>
+        <c:crossAx val="79577856"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80166912"/>
+        <c:axId val="79577856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +1906,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80152832"/>
+        <c:crossAx val="79690752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,7 +1951,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3254,7 +2922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3268,8 +2936,8 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView showGridLines="0" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3289,13 +2957,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
     <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3311,11 +2979,11 @@
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +2994,7 @@
         <v>41363</v>
       </c>
       <c r="J3" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K3" s="20"/>
     </row>
@@ -3671,7 +3339,7 @@
     </row>
     <row r="27" spans="2:12" ht="48.75" customHeight="1">
       <c r="B27" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>41</v>
@@ -3774,7 +3442,7 @@
     </row>
     <row r="31" spans="2:12" ht="77.25" customHeight="1">
       <c r="B31" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>51</v>
@@ -3798,7 +3466,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>27</v>
@@ -3806,7 +3474,7 @@
     </row>
     <row r="32" spans="2:12" ht="57" customHeight="1">
       <c r="B32" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>52</v>
@@ -3901,7 +3569,7 @@
     </row>
     <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>58</v>
@@ -3958,7 +3626,7 @@
     </row>
     <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>61</v>
@@ -3987,7 +3655,7 @@
     </row>
     <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>62</v>
@@ -4016,7 +3684,7 @@
     </row>
     <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
       <c r="B40" s="22">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>63</v>
@@ -4033,10 +3701,14 @@
       <c r="G40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="22"/>
+      <c r="H40" s="24">
+        <v>41358</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="25" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>27</v>
@@ -4044,7 +3716,7 @@
     </row>
     <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>64</v>
@@ -4061,15 +3733,19 @@
       <c r="G41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2"/>
+      <c r="H41" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K41" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="30" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1">
       <c r="B42" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>65</v>
@@ -4086,43 +3762,52 @@
       <c r="G42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="K42" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="30" customHeight="1">
-      <c r="B43" s="2">
+    <row r="43" spans="2:12" s="39" customFormat="1" ht="51" customHeight="1">
+      <c r="B43" s="34">
+        <v>16</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="36">
+        <v>41357</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="H43" s="36"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="38">
+        <v>41363</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="48.75" customHeight="1">
+      <c r="B44" s="2">
+        <v>17</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="3">
-        <v>41357</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="2"/>
-      <c r="L43" s="1">
-        <v>41363</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="30" customHeight="1">
-      <c r="B44" s="2">
-        <v>28</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>33</v>
@@ -4136,8 +3821,12 @@
       <c r="G44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="2"/>
+      <c r="H44" s="3">
+        <v>41358</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K44" s="14" t="s">
         <v>27</v>
       </c>
@@ -4145,40 +3834,44 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="73.5" customHeight="1">
-      <c r="B45" s="2">
-        <v>29</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="11" t="s">
+    <row r="45" spans="2:12" s="39" customFormat="1" ht="73.5" customHeight="1">
+      <c r="B45" s="34">
+        <v>18</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="36">
         <v>41358</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2"/>
-      <c r="K45" s="14" t="s">
+      <c r="H45" s="36"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37" t="s">
         <v>42</v>
+      </c>
+      <c r="L45" s="38">
+        <v>41361</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="54.75" customHeight="1">
       <c r="B46" s="2">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>26</v>
@@ -4189,8 +3882,12 @@
       <c r="G46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="2"/>
+      <c r="H46" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K46" s="14" t="s">
         <v>27</v>
       </c>
@@ -4198,105 +3895,232 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="51" customHeight="1">
-      <c r="B47" s="2">
-        <v>31</v>
-      </c>
-      <c r="C47" s="12" t="s">
+    <row r="47" spans="2:12" s="39" customFormat="1" ht="51" customHeight="1">
+      <c r="B47" s="34">
+        <v>20</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="36">
+        <v>41358</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="36"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="38">
+        <v>41359</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="30" customHeight="1">
+      <c r="B48" s="2">
+        <v>21</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="3">
-        <v>41358</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2"/>
-      <c r="K47" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="F48" s="3">
         <v>41359</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1">
-      <c r="B48" s="2"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" ht="30" customHeight="1">
-      <c r="B49" s="2"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="2"/>
+      <c r="K48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="62.25" customHeight="1">
+      <c r="B49" s="2">
+        <v>22</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" ht="30" customHeight="1">
-      <c r="B50" s="2"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="2"/>
+      <c r="K49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="71.25" customHeight="1">
+      <c r="B50" s="2">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" ht="30" customHeight="1">
-      <c r="B51" s="2"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
+      <c r="K50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="66" customHeight="1">
+      <c r="B51" s="2">
+        <v>24</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" ht="30" customHeight="1">
-      <c r="B52" s="2"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
+      <c r="K51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="51" customHeight="1">
+      <c r="B52" s="2">
+        <v>25</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" ht="30" customHeight="1">
-      <c r="B53" s="2"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="2"/>
+      <c r="K52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="56.25" customHeight="1">
+      <c r="B53" s="2">
+        <v>26</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="2:9" ht="30" customHeight="1">
-      <c r="B54" s="2"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="2"/>
+      <c r="K53" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="43.5" customHeight="1">
+      <c r="B54" s="2">
+        <v>27</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="3">
+        <v>41359</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" ht="30" customHeight="1">
+      <c r="K54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="30" customHeight="1">
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
       <c r="D55" s="2"/>
@@ -4306,7 +4130,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:9" ht="30" customHeight="1">
+    <row r="56" spans="2:12" ht="30" customHeight="1">
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
@@ -4316,7 +4140,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" ht="30" customHeight="1">
+    <row r="57" spans="2:12" ht="30" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
@@ -4326,7 +4150,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9" ht="30" customHeight="1">
+    <row r="58" spans="2:12" ht="30" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -4336,7 +4160,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:9" ht="30" customHeight="1">
+    <row r="59" spans="2:12" ht="30" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -4346,7 +4170,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" ht="30" customHeight="1">
+    <row r="60" spans="2:12" ht="30" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -4356,7 +4180,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" ht="30" customHeight="1">
+    <row r="61" spans="2:12" ht="30" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -4366,7 +4190,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" ht="30" customHeight="1">
+    <row r="62" spans="2:12" ht="30" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -4376,7 +4200,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" ht="30" customHeight="1">
+    <row r="63" spans="2:12" ht="30" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -4386,7 +4210,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" ht="30" customHeight="1">
+    <row r="64" spans="2:12" ht="30" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -4899,7 +4723,7 @@
       </c>
       <c r="J7">
         <f>'Issue Tracker'!J3</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4996,7 +4820,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ref="H16:H47" si="0">keydate-days+G16</f>
-        <v>41324</v>
+        <v>41344</v>
       </c>
       <c r="I16">
         <f>I15+COUNTIFS(issues[OPENED ON],H16,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5029,7 +4853,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>41325</v>
+        <v>41345</v>
       </c>
       <c r="I17">
         <f>I16+COUNTIFS(issues[OPENED ON],H17,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5062,7 +4886,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>41326</v>
+        <v>41346</v>
       </c>
       <c r="I18">
         <f>I17+COUNTIFS(issues[OPENED ON],H18,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5095,7 +4919,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>41327</v>
+        <v>41347</v>
       </c>
       <c r="I19">
         <f>I18+COUNTIFS(issues[OPENED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5128,7 +4952,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>41328</v>
+        <v>41348</v>
       </c>
       <c r="I20">
         <f>I19+COUNTIFS(issues[OPENED ON],H20,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5161,7 +4985,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>41329</v>
+        <v>41349</v>
       </c>
       <c r="I21">
         <f>I20+COUNTIFS(issues[OPENED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5194,7 +5018,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>41330</v>
+        <v>41350</v>
       </c>
       <c r="I22">
         <f>I21+COUNTIFS(issues[OPENED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5227,7 +5051,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>41331</v>
+        <v>41351</v>
       </c>
       <c r="I23">
         <f>I22+COUNTIFS(issues[OPENED ON],H23,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5260,15 +5084,15 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>41332</v>
+        <v>41352</v>
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f>J23+COUNTIFS(issues[CLOSED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="e">
         <f t="array" ref="N24">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N23, issues[TYPE]),0))</f>
@@ -5293,15 +5117,15 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>41333</v>
+        <v>41353</v>
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <f>J24+COUNTIFS(issues[CLOSED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N25" t="e">
         <f t="array" ref="N25">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N24, issues[TYPE]),0))</f>
@@ -5326,15 +5150,15 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>41334</v>
+        <v>41354</v>
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N25, issues[TYPE]),0))</f>
@@ -5359,15 +5183,15 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>41335</v>
+        <v>41355</v>
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -5392,15 +5216,15 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>41336</v>
+        <v>41356</v>
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -5425,15 +5249,15 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>41337</v>
+        <v>41357</v>
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -5458,15 +5282,15 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>41338</v>
+        <v>41358</v>
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -5491,15 +5315,15 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>41339</v>
+        <v>41359</v>
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -5524,15 +5348,15 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>41360</v>
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -5557,15 +5381,15 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>41341</v>
+        <v>41361</v>
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5590,15 +5414,15 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>41342</v>
+        <v>41362</v>
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5623,15 +5447,15 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>41343</v>
+        <v>41363</v>
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5656,15 +5480,15 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>41344</v>
+        <v>41364</v>
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -5689,15 +5513,15 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>41345</v>
+        <v>41365</v>
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5722,15 +5546,15 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>41346</v>
+        <v>41366</v>
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -5755,15 +5579,15 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>41347</v>
+        <v>41367</v>
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -5788,15 +5612,15 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>41348</v>
+        <v>41368</v>
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -5821,15 +5645,15 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>41349</v>
+        <v>41369</v>
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -5854,15 +5678,15 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>41350</v>
+        <v>41370</v>
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -5887,15 +5711,15 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>41351</v>
+        <v>41371</v>
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -5920,15 +5744,15 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>41352</v>
+        <v>41372</v>
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5953,15 +5777,15 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>41353</v>
+        <v>41373</v>
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5986,15 +5810,15 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>41354</v>
+        <v>41374</v>
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="7:20">
@@ -6003,15 +5827,15 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>41355</v>
+        <v>41375</v>
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="7:20">
@@ -6020,15 +5844,15 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:H79" si="1">keydate-days+G48</f>
-        <v>41356</v>
+        <v>41376</v>
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -6037,15 +5861,15 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>41357</v>
+        <v>41377</v>
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -6054,15 +5878,15 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>41358</v>
+        <v>41378</v>
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -6071,15 +5895,15 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>41359</v>
+        <v>41379</v>
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -6088,15 +5912,15 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>41360</v>
+        <v>41380</v>
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -6105,15 +5929,15 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>41361</v>
+        <v>41381</v>
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -6122,15 +5946,15 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>41362</v>
+        <v>41382</v>
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -6139,15 +5963,15 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>41363</v>
+        <v>41383</v>
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -6156,15 +5980,15 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>41364</v>
+        <v>41384</v>
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -6173,15 +5997,15 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>41365</v>
+        <v>41385</v>
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -6190,15 +6014,15 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="1"/>
-        <v>41366</v>
+        <v>41386</v>
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -6207,15 +6031,15 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="1"/>
-        <v>41367</v>
+        <v>41387</v>
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -6224,15 +6048,15 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="1"/>
-        <v>41368</v>
+        <v>41388</v>
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -6241,15 +6065,15 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="1"/>
-        <v>41369</v>
+        <v>41389</v>
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -6258,15 +6082,15 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="1"/>
-        <v>41370</v>
+        <v>41390</v>
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -6275,15 +6099,15 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" si="1"/>
-        <v>41371</v>
+        <v>41391</v>
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -6292,15 +6116,15 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" si="1"/>
-        <v>41372</v>
+        <v>41392</v>
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -6309,15 +6133,15 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="1"/>
-        <v>41373</v>
+        <v>41393</v>
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -6326,15 +6150,15 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="1"/>
-        <v>41374</v>
+        <v>41394</v>
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -6343,15 +6167,15 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" si="1"/>
-        <v>41375</v>
+        <v>41395</v>
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -6360,15 +6184,15 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" si="1"/>
-        <v>41376</v>
+        <v>41396</v>
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -6377,15 +6201,15 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" si="1"/>
-        <v>41377</v>
+        <v>41397</v>
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -6394,15 +6218,15 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="1"/>
-        <v>41378</v>
+        <v>41398</v>
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -6411,15 +6235,15 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" si="1"/>
-        <v>41379</v>
+        <v>41399</v>
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -6428,15 +6252,15 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" si="1"/>
-        <v>41380</v>
+        <v>41400</v>
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -6445,15 +6269,15 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" si="1"/>
-        <v>41381</v>
+        <v>41401</v>
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -6462,15 +6286,15 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>41382</v>
+        <v>41402</v>
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -6479,15 +6303,15 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" si="1"/>
-        <v>41383</v>
+        <v>41403</v>
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -6496,15 +6320,15 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" si="1"/>
-        <v>41384</v>
+        <v>41404</v>
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -6513,15 +6337,15 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" si="1"/>
-        <v>41385</v>
+        <v>41405</v>
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -6530,15 +6354,15 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" si="1"/>
-        <v>41386</v>
+        <v>41406</v>
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -6547,15 +6371,15 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" si="1"/>
-        <v>41387</v>
+        <v>41407</v>
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -6564,15 +6388,15 @@
       </c>
       <c r="H80" s="1">
         <f>keydate-days+G80</f>
-        <v>41388</v>
+        <v>41408</v>
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6585,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6596,35 +6420,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="255" customHeight="1">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>41359</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>79</v>
+      <c r="B2" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:2" ht="209.25" customHeight="1">
-      <c r="A5" s="31">
+      <c r="A5" s="27">
         <v>41362</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>78</v>
+      <c r="B5" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -30,9 +35,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>Type</t>
   </si>
@@ -502,12 +507,15 @@
        Cho phép customer approve + reject Request price</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Đã xong </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -902,18 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -932,6 +928,18 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -945,7 +953,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -959,7 +967,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1042,7 +1050,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1059,6 +1077,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1130,29 +1149,38 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79690752"/>
-        <c:axId val="79577856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265161984"/>
+        <c:axId val="265162544"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1320,6 +1348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1479,23 +1508,24 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1542,10 +1572,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1701,6 +1736,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1747,10 +1783,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1820,36 +1861,44 @@
                   <c:v>17.52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.52</c:v>
+                  <c:v>23.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.52</c:v>
+                  <c:v>23.52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.52</c:v>
+                  <c:v>23.52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.52</c:v>
+                  <c:v>23.52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.52</c:v>
+                  <c:v>23.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79690752"/>
-        <c:axId val="79577856"/>
+        <c:smooth val="0"/>
+        <c:axId val="265161984"/>
+        <c:axId val="265162544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79690752"/>
+        <c:axId val="265161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1865,6 +1914,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1891,13 +1942,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79577856"/>
+        <c:crossAx val="265162544"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79577856"/>
+        <c:axId val="265162544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,8 +1957,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="79690752"/>
+        <c:crossAx val="265161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,6 +1983,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2922,25 +2976,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2955,15 +3009,15 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2978,12 +3032,12 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +3052,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3033,7 +3087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3066,7 +3120,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3099,7 +3153,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3132,7 +3186,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3165,7 +3219,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3198,7 +3252,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3231,7 +3285,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3259,7 +3313,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3284,7 +3338,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1">
+    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3312,7 +3366,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1">
+    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3337,7 +3391,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>7</v>
       </c>
@@ -3366,7 +3420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3392,7 +3446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3418,7 +3472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3440,7 +3494,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>8</v>
       </c>
@@ -3472,7 +3526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1">
+    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>9</v>
       </c>
@@ -3501,7 +3555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3523,7 +3577,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3545,7 +3599,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3567,7 +3621,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>10</v>
       </c>
@@ -3599,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3624,7 +3678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>11</v>
       </c>
@@ -3653,7 +3707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>12</v>
       </c>
@@ -3682,7 +3736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="22">
         <v>13</v>
       </c>
@@ -3714,7 +3768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>14</v>
       </c>
@@ -3743,7 +3797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>15</v>
       </c>
@@ -3775,34 +3829,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="39" customFormat="1" ht="51" customHeight="1">
-      <c r="B43" s="34">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="30">
         <v>16</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="32">
         <v>41357</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38">
+      <c r="H43" s="32"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34">
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>17</v>
       </c>
@@ -3834,36 +3888,36 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="39" customFormat="1" ht="73.5" customHeight="1">
-      <c r="B45" s="34">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="30">
         <v>18</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="32">
         <v>41358</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37" t="s">
+      <c r="H45" s="32"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="34">
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>19</v>
       </c>
@@ -3895,36 +3949,36 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="39" customFormat="1" ht="51" customHeight="1">
-      <c r="B47" s="34">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="30">
         <v>20</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="32">
         <v>41358</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37" t="s">
+      <c r="H47" s="32"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="34">
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1">
+    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>21</v>
       </c>
@@ -3946,13 +4000,13 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
       <c r="K48" s="14" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="L48" s="1">
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="62.25" customHeight="1">
+    <row r="49" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>22</v>
       </c>
@@ -3980,7 +4034,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="71.25" customHeight="1">
+    <row r="50" spans="2:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>23</v>
       </c>
@@ -4008,7 +4062,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1">
+    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>24</v>
       </c>
@@ -4036,7 +4090,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1">
+    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>25</v>
       </c>
@@ -4055,8 +4109,12 @@
       <c r="G52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="2"/>
+      <c r="H52" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K52" s="14" t="s">
         <v>42</v>
       </c>
@@ -4064,7 +4122,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>26</v>
       </c>
@@ -4083,8 +4141,12 @@
       <c r="G53" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2"/>
+      <c r="H53" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K53" s="14" t="s">
         <v>42</v>
       </c>
@@ -4092,7 +4154,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>27</v>
       </c>
@@ -4111,8 +4173,15 @@
       <c r="G54" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2"/>
+      <c r="H54" s="3">
+        <v>41359</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="K54" s="14" t="s">
         <v>27</v>
       </c>
@@ -4120,7 +4189,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1">
+    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="13"/>
       <c r="D55" s="2"/>
@@ -4130,7 +4199,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1">
+    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
@@ -4140,7 +4209,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1">
+    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
@@ -4150,7 +4219,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1">
+    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -4160,7 +4229,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1">
+    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -4170,7 +4239,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1">
+    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -4180,7 +4249,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1">
+    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -4190,7 +4259,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1">
+    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -4200,7 +4269,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1">
+    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -4210,7 +4279,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1">
+    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -4220,7 +4289,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1">
+    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -4230,7 +4299,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1">
+    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -4240,7 +4309,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -4250,7 +4319,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -4260,7 +4329,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -4270,7 +4339,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1">
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -4280,7 +4349,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1">
+    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -4290,7 +4359,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1">
+    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -4300,7 +4369,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1">
+    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -4310,7 +4379,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1">
+    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -4320,7 +4389,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
+    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -4330,7 +4399,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1">
+    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -4340,7 +4409,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1">
+    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -4350,7 +4419,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
+    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -4360,7 +4429,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1">
+    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -4370,7 +4439,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1">
+    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -4380,7 +4449,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1">
+    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4390,7 +4459,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4400,7 +4469,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1">
+    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4410,7 +4479,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1">
+    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4420,7 +4489,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1">
+    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4430,7 +4499,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1">
+    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4440,7 +4509,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1">
+    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4450,7 +4519,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1">
+    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4460,7 +4529,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1">
+    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4470,7 +4539,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1">
+    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4480,7 +4549,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1">
+    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4490,7 +4559,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1">
+    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4500,7 +4569,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1">
+    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4510,7 +4579,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1">
+    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4520,7 +4589,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1">
+    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4530,7 +4599,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1">
+    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4540,7 +4609,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1">
+    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4550,7 +4619,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1">
+    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4560,7 +4629,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1">
+    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4570,7 +4639,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1">
+    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4580,7 +4649,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1">
+    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4590,7 +4659,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1">
+    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4600,7 +4669,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1">
+    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4610,7 +4679,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1">
+    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4620,7 +4689,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1">
+    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4630,7 +4699,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4640,7 +4709,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1">
+    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4650,7 +4719,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1">
+    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4685,25 +4754,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4711,13 +4780,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4726,7 +4795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4739,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4748,7 +4817,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4757,7 +4826,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4767,7 +4836,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
@@ -4783,7 +4852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4806,7 +4875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4814,7 +4883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4847,7 +4916,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4880,7 +4949,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4913,7 +4982,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -4946,7 +5015,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -4979,7 +5048,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5012,7 +5081,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5045,7 +5114,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5078,7 +5147,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -5111,7 +5180,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -5144,7 +5213,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -5177,7 +5246,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -5210,7 +5279,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -5243,7 +5312,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -5276,7 +5345,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -5309,7 +5378,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -5323,7 +5392,7 @@
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -5342,7 +5411,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -5356,7 +5425,7 @@
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -5375,7 +5444,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5389,7 +5458,7 @@
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5408,7 +5477,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5422,7 +5491,7 @@
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5441,7 +5510,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5455,7 +5524,7 @@
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5474,7 +5543,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5488,7 +5557,7 @@
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -5507,7 +5576,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5521,7 +5590,7 @@
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5540,7 +5609,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5554,7 +5623,7 @@
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -5573,7 +5642,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5587,7 +5656,7 @@
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -5606,7 +5675,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5620,7 +5689,7 @@
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -5639,7 +5708,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5653,7 +5722,7 @@
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -5672,7 +5741,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5686,7 +5755,7 @@
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -5705,7 +5774,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5719,7 +5788,7 @@
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -5738,7 +5807,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5752,7 +5821,7 @@
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5771,7 +5840,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5785,7 +5854,7 @@
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5804,7 +5873,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5818,10 +5887,10 @@
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5835,10 +5904,10 @@
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5852,10 +5921,10 @@
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5869,10 +5938,10 @@
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5886,10 +5955,10 @@
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5903,10 +5972,10 @@
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -5920,10 +5989,10 @@
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -5937,10 +6006,10 @@
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -5954,10 +6023,10 @@
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -5971,10 +6040,10 @@
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -5988,10 +6057,10 @@
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -6005,10 +6074,10 @@
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -6022,10 +6091,10 @@
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -6039,10 +6108,10 @@
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -6056,10 +6125,10 @@
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -6073,10 +6142,10 @@
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -6090,10 +6159,10 @@
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -6107,10 +6176,10 @@
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -6124,10 +6193,10 @@
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -6141,10 +6210,10 @@
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -6158,10 +6227,10 @@
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -6175,10 +6244,10 @@
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -6192,10 +6261,10 @@
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -6209,10 +6278,10 @@
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -6226,10 +6295,10 @@
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -6243,10 +6312,10 @@
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -6260,10 +6329,10 @@
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -6277,10 +6346,10 @@
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -6294,10 +6363,10 @@
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -6311,10 +6380,10 @@
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -6328,10 +6397,10 @@
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -6345,10 +6414,10 @@
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -6362,10 +6431,10 @@
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -6379,10 +6448,10 @@
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6396,7 +6465,7 @@
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6406,20 +6475,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -6427,7 +6496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1">
+    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -6435,15 +6504,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>41362</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -35,9 +30,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>Type</t>
   </si>
@@ -510,12 +505,18 @@
   <si>
     <t xml:space="preserve">Đã xong </t>
   </si>
+  <si>
+    <t>Xử lý hiển thị giao diện cho màn hình view Request và Orders</t>
+  </si>
+  <si>
+    <t>Xử lý phần Add Item vào Order cho màn hình của Customer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -819,7 +820,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -940,6 +941,24 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -953,7 +972,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -967,7 +986,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1050,17 +1069,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1077,7 +1086,6 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1128,59 +1136,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="265161984"/>
-        <c:axId val="265162544"/>
+        <c:dLbls/>
+        <c:axId val="78061568"/>
+        <c:axId val="78062720"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1310,45 +1310,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1487,45 +1486,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1572,13 +1570,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1674,69 +1666,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.52</c:v>
+                  <c:v>2.2800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.52</c:v>
+                  <c:v>2.2800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.52</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.52</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.52</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.52</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.520000000000003</c:v>
+                  <c:v>7.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1783,13 +1774,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1816,89 +1801,81 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.52</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.52</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="265161984"/>
-        <c:axId val="265162544"/>
+        <c:axId val="78061568"/>
+        <c:axId val="78062720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265161984"/>
+        <c:axId val="78061568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1914,8 +1891,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1942,14 +1917,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265162544"/>
+        <c:crossAx val="78062720"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="265162544"/>
+        <c:axId val="78062720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,9 +1931,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="265161984"/>
+        <c:crossAx val="78061568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +1956,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2005,7 +1977,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2753,11 +2725,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B16:L108">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Plan"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="11">
     <tableColumn id="10" name="#"/>
@@ -2976,25 +2944,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3009,8 +2977,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
@@ -3032,14 +3000,14 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>5</v>
@@ -3052,7 +3020,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3087,7 +3055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3120,7 +3088,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3153,7 +3121,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3186,7 +3154,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3219,7 +3187,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3252,7 +3220,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3285,7 +3253,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3313,7 +3281,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3338,7 +3306,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="78" customHeight="1">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3366,7 +3334,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="54" customHeight="1">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3391,9 +3359,9 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1">
       <c r="B27" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>41</v>
@@ -3420,7 +3388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3446,7 +3414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3472,7 +3440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3494,9 +3462,9 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1">
       <c r="B31" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>51</v>
@@ -3526,9 +3494,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="57" customHeight="1">
       <c r="B32" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>52</v>
@@ -3555,7 +3523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="30" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3577,7 +3545,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3599,7 +3567,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3621,9 +3589,9 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>58</v>
@@ -3653,7 +3621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3678,9 +3646,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>61</v>
@@ -3707,9 +3675,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>62</v>
@@ -3736,9 +3704,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22">
-        <v>13</v>
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+      <c r="B40" s="2">
+        <v>24</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>63</v>
@@ -3768,9 +3736,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>64</v>
@@ -3797,9 +3765,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1">
       <c r="B42" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>65</v>
@@ -3829,9 +3797,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30">
-        <v>16</v>
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+      <c r="B43" s="2">
+        <v>27</v>
       </c>
       <c r="C43" s="31" t="s">
         <v>67</v>
@@ -3856,9 +3824,9 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1">
       <c r="B44" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>69</v>
@@ -3888,9 +3856,9 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30">
-        <v>18</v>
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
+      <c r="B45" s="2">
+        <v>29</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>70</v>
@@ -3917,9 +3885,9 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1">
       <c r="B46" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>72</v>
@@ -3949,9 +3917,9 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30">
-        <v>20</v>
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+      <c r="B47" s="2">
+        <v>31</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>76</v>
@@ -3978,93 +3946,96 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="45" customFormat="1" ht="48.75" customHeight="1">
       <c r="B48" s="2">
-        <v>21</v>
-      </c>
-      <c r="C48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="42">
         <v>41359</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="2"/>
-      <c r="K48" s="14" t="s">
+      <c r="H48" s="42"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="44">
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="45" customFormat="1" ht="62.25" customHeight="1">
       <c r="B49" s="2">
-        <v>22</v>
-      </c>
-      <c r="C49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="42">
         <v>41359</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
-      <c r="K49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L49" s="1">
+      <c r="H49" s="42"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="44">
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="45" customFormat="1" ht="106.5" customHeight="1">
       <c r="B50" s="2">
-        <v>23</v>
-      </c>
-      <c r="C50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="42">
         <v>41359</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="2"/>
-      <c r="K50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="H50" s="42"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="44">
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="66" customHeight="1">
       <c r="B51" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>81</v>
@@ -4090,9 +4061,9 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="51" customHeight="1">
       <c r="B52" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>85</v>
@@ -4122,9 +4093,9 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1">
       <c r="B53" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>84</v>
@@ -4154,9 +4125,9 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1">
       <c r="B54" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>86</v>
@@ -4189,28 +4160,66 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="2"/>
+    <row r="55" spans="2:12" ht="47.25" customHeight="1">
+      <c r="B55" s="2">
+        <v>39</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="3">
+        <v>41360</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="2"/>
+      <c r="K55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="42.75" customHeight="1">
+      <c r="B56" s="2">
+        <v>40</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="3">
+        <v>41360</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+      <c r="K56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="1">
+        <v>41360</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="30" customHeight="1">
+      <c r="B57" s="2">
+        <v>41</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
       <c r="E57" s="11"/>
@@ -4219,7 +4228,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="30" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -4229,7 +4238,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="30" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -4239,7 +4248,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="30" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -4249,7 +4258,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="30" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -4259,7 +4268,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="30" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -4269,7 +4278,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="30" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -4279,7 +4288,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="30" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -4289,7 +4298,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="30" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -4299,7 +4308,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="30" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -4309,7 +4318,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="30" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -4319,7 +4328,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="30" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -4329,7 +4338,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="30" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -4339,7 +4348,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="30" customHeight="1">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -4349,7 +4358,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="30" customHeight="1">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -4359,7 +4368,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="30" customHeight="1">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -4369,7 +4378,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="30" customHeight="1">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -4379,7 +4388,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="30" customHeight="1">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -4389,7 +4398,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="30" customHeight="1">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -4399,7 +4408,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="30" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -4409,7 +4418,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="30" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -4419,7 +4428,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="30" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -4429,7 +4438,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="30" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -4439,7 +4448,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="30" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -4449,7 +4458,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="30" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4459,7 +4468,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="30" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4469,7 +4478,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="30" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4479,7 +4488,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="30" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4489,7 +4498,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="30" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4499,7 +4508,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="30" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4509,7 +4518,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="30" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4519,7 +4528,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="30" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4529,7 +4538,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="30" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4539,7 +4548,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="30" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4549,7 +4558,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="30" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4559,7 +4568,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="30" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4569,7 +4578,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="30" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4579,7 +4588,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="30" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4589,7 +4598,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="30" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4599,7 +4608,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="30" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4609,7 +4618,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="30" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4619,7 +4628,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="30" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4629,7 +4638,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="30" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4639,7 +4648,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="30" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4649,7 +4658,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="30" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4659,7 +4668,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="30" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4669,7 +4678,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="30" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4679,7 +4688,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="30" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4689,7 +4698,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="30" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4699,7 +4708,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="30" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4709,7 +4718,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="30" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4719,7 +4728,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="30" customHeight="1">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4754,25 +4763,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4780,13 +4789,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4808,16 +4817,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Buyer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4836,7 +4845,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
@@ -4852,7 +4861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4875,7 +4884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4916,7 +4925,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4949,7 +4958,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -5015,7 +5024,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -5048,7 +5057,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -5157,11 +5166,11 @@
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <f>J23+COUNTIFS(issues[CLOSED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="e">
         <f t="array" ref="N24">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N23, issues[TYPE]),0))</f>
@@ -5180,7 +5189,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -5190,11 +5199,11 @@
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <f>J24+COUNTIFS(issues[CLOSED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N25" t="e">
         <f t="array" ref="N25">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N24, issues[TYPE]),0))</f>
@@ -5213,7 +5222,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -5223,11 +5232,11 @@
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N25, issues[TYPE]),0))</f>
@@ -5246,7 +5255,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -5256,11 +5265,11 @@
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -5279,7 +5288,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -5289,11 +5298,11 @@
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -5312,7 +5321,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -5322,11 +5331,11 @@
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -5345,7 +5354,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -5355,11 +5364,11 @@
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -5378,7 +5387,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -5388,11 +5397,11 @@
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -5411,7 +5420,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -5421,11 +5430,11 @@
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -5444,7 +5453,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5454,11 +5463,11 @@
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5477,7 +5486,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5487,11 +5496,11 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5510,7 +5519,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5520,11 +5529,11 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5543,7 +5552,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5553,11 +5562,11 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -5576,7 +5585,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5586,11 +5595,11 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5609,7 +5618,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5619,11 +5628,11 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -5642,7 +5651,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5652,11 +5661,11 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -5675,7 +5684,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5685,11 +5694,11 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -5708,7 +5717,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5718,11 +5727,11 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -5741,7 +5750,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5751,11 +5760,11 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -5774,7 +5783,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5784,11 +5793,11 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -5807,7 +5816,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5817,11 +5826,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5840,7 +5849,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5850,11 +5859,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5873,7 +5882,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5883,14 +5892,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5900,14 +5909,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5917,14 +5926,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5934,14 +5943,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5951,14 +5960,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5968,14 +5977,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -5985,14 +5994,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -6002,14 +6011,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -6019,14 +6028,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -6036,14 +6045,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -6053,14 +6062,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -6070,14 +6079,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -6087,14 +6096,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -6104,14 +6113,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -6121,14 +6130,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -6138,14 +6147,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -6155,14 +6164,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -6172,14 +6181,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -6189,14 +6198,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -6206,14 +6215,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -6223,14 +6232,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -6240,14 +6249,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -6257,14 +6266,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -6274,14 +6283,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -6291,14 +6300,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -6308,14 +6317,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -6325,14 +6334,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -6342,14 +6351,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -6359,14 +6368,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -6376,14 +6385,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -6393,14 +6402,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -6410,14 +6419,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -6427,14 +6436,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -6444,14 +6453,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6461,11 +6470,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6475,20 +6484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="255" customHeight="1">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -6504,15 +6513,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
       <c r="A5" s="27">
         <v>41362</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -30,9 +35,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
   <si>
     <t>Type</t>
   </si>
@@ -511,12 +516,15 @@
   <si>
     <t>Xử lý phần Add Item vào Order cho màn hình của Customer</t>
   </si>
+  <si>
+    <t>Co date picker nhung van chua chay duoc on dinh.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -929,18 +937,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -959,6 +955,18 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -972,7 +980,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -986,7 +994,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1069,7 +1077,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1086,6 +1104,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1175,12 +1194,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="78061568"/>
-        <c:axId val="78062720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="270486384"/>
+        <c:axId val="270486944"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1348,6 +1375,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1524,6 +1552,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1570,7 +1599,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1728,6 +1763,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1774,7 +1810,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1863,19 +1905,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78061568"/>
-        <c:axId val="78062720"/>
+        <c:smooth val="0"/>
+        <c:axId val="270486384"/>
+        <c:axId val="270486944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78061568"/>
+        <c:axId val="270486384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1891,6 +1941,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1917,13 +1969,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78062720"/>
+        <c:crossAx val="270486944"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78062720"/>
+        <c:axId val="270486944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,8 +1984,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78061568"/>
+        <c:crossAx val="270486384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1956,6 +2010,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1981,554 +2036,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9575">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="13"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2724,9 +2231,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B16:L108">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="B16:L108"/>
   <tableColumns count="11">
     <tableColumn id="10" name="#"/>
     <tableColumn id="1" name="ISSUE" dataDxfId="3"/>
@@ -2944,25 +2449,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2977,15 +2482,15 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3000,12 +2505,12 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
@@ -3020,7 +2525,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +2560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3088,7 +2593,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3121,7 +2626,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3154,7 +2659,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3187,7 +2692,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3220,7 +2725,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3253,7 +2758,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3281,7 +2786,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1">
+    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3306,7 +2811,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" customHeight="1">
+    <row r="25" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -3334,7 +2839,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" customHeight="1">
+    <row r="26" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -3359,7 +2864,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3388,7 +2893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3414,7 +2919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3440,7 +2945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3462,7 +2967,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3494,7 +2999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1">
+    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3523,7 +3028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1">
+    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3545,7 +3050,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3567,7 +3072,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3589,7 +3094,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3621,7 +3126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3646,7 +3151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3675,7 +3180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3704,7 +3209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3736,7 +3241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -3765,7 +3270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -3797,7 +3302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -3824,7 +3329,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -3856,7 +3361,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -3885,7 +3390,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -3917,7 +3422,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -3946,94 +3451,106 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="45" customFormat="1" ht="48.75" customHeight="1">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>32</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="38">
         <v>41359</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43" t="s">
+      <c r="H48" s="38"/>
+      <c r="I48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="L48" s="44">
+      <c r="J48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="40">
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="45" customFormat="1" ht="62.25" customHeight="1">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>33</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="3">
         <v>41359</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43" t="s">
+      <c r="H49" s="3">
+        <v>41361</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="44">
+      <c r="J49" s="39"/>
+      <c r="K49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="40">
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="45" customFormat="1" ht="106.5" customHeight="1">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>34</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="3">
         <v>41359</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="42"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43" t="s">
+      <c r="H50" s="3">
+        <v>41361</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L50" s="44">
+      <c r="J50" s="39"/>
+      <c r="K50" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="40">
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1">
+    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4052,8 +3569,12 @@
       <c r="G51" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2"/>
+      <c r="H51" s="3">
+        <v>41361</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K51" s="14" t="s">
         <v>42</v>
       </c>
@@ -4061,7 +3582,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1">
+    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4093,7 +3614,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4125,7 +3646,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4160,7 +3681,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" customHeight="1">
+    <row r="55" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4188,7 +3709,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" customHeight="1">
+    <row r="56" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4216,7 +3737,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1">
+    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4228,7 +3749,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1">
+    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -4238,7 +3759,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1">
+    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -4248,7 +3769,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1">
+    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -4258,7 +3779,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1">
+    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -4268,7 +3789,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1">
+    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -4278,7 +3799,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1">
+    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -4288,7 +3809,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1">
+    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -4298,7 +3819,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1">
+    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -4308,7 +3829,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1">
+    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -4318,7 +3839,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1">
+    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -4328,7 +3849,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1">
+    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -4338,7 +3859,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1">
+    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -4348,7 +3869,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1">
+    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -4358,7 +3879,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1">
+    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -4368,7 +3889,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1">
+    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -4378,7 +3899,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1">
+    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -4388,7 +3909,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1">
+    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -4398,7 +3919,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
+    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -4408,7 +3929,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1">
+    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -4418,7 +3939,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1">
+    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -4428,7 +3949,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
+    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -4438,7 +3959,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1">
+    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -4448,7 +3969,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1">
+    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -4458,7 +3979,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1">
+    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4468,7 +3989,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4478,7 +3999,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1">
+    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4488,7 +4009,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1">
+    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4498,7 +4019,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1">
+    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4508,7 +4029,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1">
+    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4518,7 +4039,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1">
+    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4528,7 +4049,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1">
+    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4538,7 +4059,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1">
+    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4548,7 +4069,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1">
+    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4558,7 +4079,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1">
+    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4568,7 +4089,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1">
+    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4578,7 +4099,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1">
+    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4588,7 +4109,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1">
+    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4598,7 +4119,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1">
+    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4608,7 +4129,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1">
+    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4618,7 +4139,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1">
+    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4628,7 +4149,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1">
+    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4638,7 +4159,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1">
+    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4648,7 +4169,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1">
+    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4658,7 +4179,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1">
+    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4668,7 +4189,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1">
+    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4678,7 +4199,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1">
+    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4688,7 +4209,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1">
+    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4698,7 +4219,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1">
+    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4708,7 +4229,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4718,7 +4239,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1">
+    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4728,7 +4249,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1">
+    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4763,25 +4284,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4789,13 +4310,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4804,7 +4325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4817,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +4347,7 @@
         <v>Buyer</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4835,7 +4356,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4845,7 +4366,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
@@ -4861,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4884,7 +4405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4892,7 +4413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4925,7 +4446,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4958,7 +4479,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4991,7 +4512,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -5024,7 +4545,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -5057,7 +4578,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5090,7 +4611,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5123,7 +4644,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5156,7 +4677,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -5189,7 +4710,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -5222,7 +4743,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -5255,7 +4776,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -5288,7 +4809,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -5321,7 +4842,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -5354,7 +4875,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -5387,7 +4908,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -5420,7 +4941,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -5453,7 +4974,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5486,7 +5007,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5519,7 +5040,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5552,7 +5073,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5585,7 +5106,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5618,7 +5139,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5651,7 +5172,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5684,7 +5205,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5717,7 +5238,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5750,7 +5271,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5783,7 +5304,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5816,7 +5337,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5849,7 +5370,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5882,7 +5403,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5899,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:20">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5916,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:20">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5933,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5950,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="7:10">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5967,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5984,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -6001,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -6018,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="7:10">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -6035,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -6052,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -6069,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -6086,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -6103,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -6120,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -6137,7 +5658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -6154,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="7:10">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -6171,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -6188,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="7:10">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -6205,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="7:10">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -6222,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -6239,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -6256,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="7:10">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -6273,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -6290,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="7:10">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -6307,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -6324,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="7:10">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -6341,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="7:10">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -6358,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="7:10">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -6375,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="7:10">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -6392,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="7:10">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -6409,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="7:10">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -6426,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -6443,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -6460,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6484,20 +6005,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -6505,7 +6026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1">
+    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -6513,15 +6034,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>41362</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -35,9 +30,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
   <si>
     <t>Type</t>
   </si>
@@ -519,12 +514,18 @@
   <si>
     <t>Co date picker nhung van chua chay duoc on dinh.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Chưa ổn định . Đang còn lỗi ở hiển thị tên cty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout của Order và Item chưa chạy được bên cả Tiktak + </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -980,7 +981,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -994,7 +995,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1077,17 +1078,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1104,7 +1095,6 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1155,59 +1145,51 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="270486384"/>
-        <c:axId val="270486944"/>
+        <c:dLbls/>
+        <c:axId val="80215040"/>
+        <c:axId val="80098048"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1337,45 +1319,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1514,45 +1495,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1599,13 +1579,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1701,69 +1675,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>12.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2800000000000002</c:v>
+                  <c:v>12.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.28</c:v>
+                  <c:v>18.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.28</c:v>
+                  <c:v>21.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.28</c:v>
+                  <c:v>22.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.28</c:v>
+                  <c:v>29.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.28</c:v>
+                  <c:v>32.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.28</c:v>
+                  <c:v>39.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.28</c:v>
+                  <c:v>41.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.28</c:v>
+                  <c:v>42.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.28</c:v>
+                  <c:v>42.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.28</c:v>
+                  <c:v>42.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1810,13 +1783,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1843,89 +1810,81 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>2.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>7.6400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>8.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.28</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.28</c:v>
+                  <c:v>11.64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.28</c:v>
+                  <c:v>15.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.28</c:v>
+                  <c:v>17.64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.28</c:v>
+                  <c:v>23.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.28</c:v>
+                  <c:v>23.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.28</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.28</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.28</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="270486384"/>
-        <c:axId val="270486944"/>
+        <c:axId val="80215040"/>
+        <c:axId val="80098048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="270486384"/>
+        <c:axId val="80215040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1941,8 +1900,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1969,14 +1926,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270486944"/>
+        <c:crossAx val="80098048"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="270486944"/>
+        <c:axId val="80098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,9 +1940,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="270486384"/>
+        <c:crossAx val="80215040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2010,7 +1965,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2032,7 +1986,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2449,25 +2403,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2482,8 +2436,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="42" t="s">
         <v>24</v>
       </c>
@@ -2505,14 +2459,14 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>5</v>
@@ -2525,7 +2479,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2593,7 +2547,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -2626,7 +2580,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -2659,7 +2613,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -2692,7 +2646,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -2725,7 +2679,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -2758,7 +2712,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -2786,7 +2740,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -2811,7 +2765,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="78" customHeight="1">
       <c r="B25" s="2">
         <v>9</v>
       </c>
@@ -2839,7 +2793,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="54" customHeight="1">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -2864,7 +2818,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -2893,7 +2847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -2919,7 +2873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -2945,7 +2899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -2967,7 +2921,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -2999,7 +2953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="57" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3028,7 +2982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="30" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3050,7 +3004,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3072,7 +3026,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3094,7 +3048,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3126,7 +3080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3151,7 +3105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3180,7 +3134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3209,7 +3163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3241,7 +3195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -3270,7 +3224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -3302,7 +3256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -3329,7 +3283,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -3361,7 +3315,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -3390,7 +3344,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -3422,7 +3376,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -3451,7 +3405,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -3484,7 +3438,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -3517,7 +3471,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -3550,7 +3504,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="66" customHeight="1">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -3582,7 +3536,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="51" customHeight="1">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -3614,7 +3568,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -3646,7 +3600,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -3681,7 +3635,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="47.25" customHeight="1">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -3700,8 +3654,15 @@
       <c r="G55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2"/>
+      <c r="H55" s="3">
+        <v>41361</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="K55" s="14" t="s">
         <v>27</v>
       </c>
@@ -3709,7 +3670,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="42.75" customHeight="1">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -3728,8 +3689,12 @@
       <c r="G56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2"/>
+      <c r="H56" s="3">
+        <v>41361</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K56" s="14" t="s">
         <v>27</v>
       </c>
@@ -3737,19 +3702,32 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="48.75" customHeight="1">
       <c r="B57" s="2">
         <v>41</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="2"/>
+      <c r="C57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="3">
+        <v>41361</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="11"/>
+      <c r="K57" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="30" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
@@ -3759,7 +3737,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="30" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
@@ -3769,7 +3747,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="30" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
@@ -3779,7 +3757,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="30" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
@@ -3789,7 +3767,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="30" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
@@ -3799,7 +3777,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="30" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
@@ -3809,7 +3787,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="30" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
@@ -3819,7 +3797,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="30" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="13"/>
       <c r="D65" s="2"/>
@@ -3829,7 +3807,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="30" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="13"/>
       <c r="D66" s="2"/>
@@ -3839,7 +3817,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="30" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="13"/>
       <c r="D67" s="2"/>
@@ -3849,7 +3827,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="30" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="13"/>
       <c r="D68" s="2"/>
@@ -3859,7 +3837,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="30" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -3869,7 +3847,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="30" customHeight="1">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -3879,7 +3857,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="30" customHeight="1">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -3889,7 +3867,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="30" customHeight="1">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -3899,7 +3877,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="30" customHeight="1">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -3909,7 +3887,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="30" customHeight="1">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -3919,7 +3897,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="30" customHeight="1">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -3929,7 +3907,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="30" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -3939,7 +3917,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="30" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -3949,7 +3927,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="30" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -3959,7 +3937,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="30" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -3969,7 +3947,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="30" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -3979,7 +3957,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="30" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -3989,7 +3967,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="30" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -3999,7 +3977,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="30" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4009,7 +3987,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="30" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4019,7 +3997,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="30" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4029,7 +4007,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="30" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4039,7 +4017,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="30" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4049,7 +4027,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="30" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4059,7 +4037,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="30" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4069,7 +4047,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="30" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4079,7 +4057,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="30" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4089,7 +4067,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="30" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4099,7 +4077,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="30" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4109,7 +4087,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="30" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4119,7 +4097,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="30" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4129,7 +4107,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="30" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4139,7 +4117,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="30" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4149,7 +4127,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="30" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4159,7 +4137,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="30" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4169,7 +4147,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="30" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4179,7 +4157,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="30" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4189,7 +4167,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="30" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4199,7 +4177,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="30" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4209,7 +4187,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="30" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4219,7 +4197,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="30" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4229,7 +4207,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="30" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4239,7 +4217,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="30" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4249,7 +4227,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="30" customHeight="1">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4259,7 +4237,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G3">
       <formula1>types</formula1>
     </dataValidation>
@@ -4284,25 +4262,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4310,13 +4288,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4325,7 +4303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4338,16 +4316,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>Buyer</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>*</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4356,7 +4334,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4366,7 +4344,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
@@ -4382,7 +4360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4405,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4413,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4446,7 +4424,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4479,7 +4457,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4512,7 +4490,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -4545,7 +4523,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -4578,7 +4556,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -4611,7 +4589,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -4644,7 +4622,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -4677,7 +4655,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -4687,11 +4665,11 @@
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f>J23+COUNTIFS(issues[CLOSED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="e">
         <f t="array" ref="N24">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N23, issues[TYPE]),0))</f>
@@ -4710,7 +4688,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -4720,11 +4698,11 @@
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <f>J24+COUNTIFS(issues[CLOSED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N25" t="e">
         <f t="array" ref="N25">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N24, issues[TYPE]),0))</f>
@@ -4743,7 +4721,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -4753,11 +4731,11 @@
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N25, issues[TYPE]),0))</f>
@@ -4776,7 +4754,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -4786,11 +4764,11 @@
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -4809,7 +4787,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -4819,11 +4797,11 @@
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -4842,7 +4820,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -4852,11 +4830,11 @@
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -4875,7 +4853,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -4885,11 +4863,11 @@
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -4908,7 +4886,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -4918,11 +4896,11 @@
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -4941,7 +4919,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -4951,11 +4929,11 @@
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -4974,7 +4952,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -4984,11 +4962,11 @@
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5007,7 +4985,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5017,11 +4995,11 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5040,7 +5018,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5050,11 +5028,11 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5073,7 +5051,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5083,11 +5061,11 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -5106,7 +5084,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5116,11 +5094,11 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5139,7 +5117,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5149,11 +5127,11 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -5172,7 +5150,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5182,11 +5160,11 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -5205,7 +5183,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5215,11 +5193,11 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -5238,7 +5216,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5248,11 +5226,11 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -5271,7 +5249,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5281,11 +5259,11 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -5304,7 +5282,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5314,11 +5292,11 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -5337,7 +5315,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5347,11 +5325,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5370,7 +5348,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5380,11 +5358,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5403,7 +5381,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5413,14 +5391,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5430,14 +5408,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5447,14 +5425,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5464,14 +5442,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5481,14 +5459,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5498,14 +5476,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -5515,14 +5493,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -5532,14 +5510,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -5549,14 +5527,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -5566,14 +5544,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -5583,14 +5561,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -5600,14 +5578,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -5617,14 +5595,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -5634,14 +5612,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -5651,14 +5629,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -5668,14 +5646,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -5685,14 +5663,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -5702,14 +5680,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -5719,14 +5697,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -5736,14 +5714,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -5753,14 +5731,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -5770,14 +5748,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -5787,14 +5765,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -5804,14 +5782,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -5821,14 +5799,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -5838,14 +5816,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -5855,14 +5833,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -5872,14 +5850,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -5889,14 +5867,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -5906,14 +5884,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -5923,14 +5901,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -5940,14 +5918,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -5957,14 +5935,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -5974,14 +5952,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -5991,11 +5969,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6005,20 +5983,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
@@ -6026,7 +6004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="255" customHeight="1">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -6034,15 +6012,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
       <c r="A5" s="27">
         <v>41362</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
   <si>
     <t>Type</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t xml:space="preserve">Layout của Order và Item chưa chạy được bên cả Tiktak + </t>
+  </si>
+  <si>
+    <t>Thêm phần validate vào cho khi gọi lên trên server để get địa chỉ thì sẽ trả về là success hay không.nếu không success thì báo lỗi và bắt user nhập lại địa chỉ hoặc click lên map để get địa chỉ</t>
   </si>
 </sst>
 </file>
@@ -1184,9 +1187,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="80215040"/>
-        <c:axId val="80098048"/>
+        <c:axId val="70998656"/>
+        <c:axId val="71016832"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1349,10 +1351,10 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,64 +1677,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.64</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.64</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.64</c:v>
+                  <c:v>18.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.64</c:v>
+                  <c:v>21.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.64</c:v>
+                  <c:v>22.68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.64</c:v>
+                  <c:v>29.68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.64</c:v>
+                  <c:v>32.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.64</c:v>
+                  <c:v>39.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.64</c:v>
+                  <c:v>41.68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.64</c:v>
+                  <c:v>42.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.64</c:v>
+                  <c:v>43.68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.64</c:v>
+                  <c:v>43.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,64 +1812,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6400000000000001</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.64</c:v>
+                  <c:v>2.6799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6400000000000006</c:v>
+                  <c:v>7.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.64</c:v>
+                  <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.64</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.64</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.64</c:v>
+                  <c:v>15.68</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.64</c:v>
+                  <c:v>17.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.64</c:v>
+                  <c:v>23.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.64</c:v>
+                  <c:v>23.68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.64</c:v>
+                  <c:v>28.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.64</c:v>
+                  <c:v>28.68</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.64</c:v>
+                  <c:v>28.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,11 +1879,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80215040"/>
-        <c:axId val="80098048"/>
+        <c:axId val="70998656"/>
+        <c:axId val="71016832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80215040"/>
+        <c:axId val="70998656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,13 +1928,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80098048"/>
+        <c:crossAx val="71016832"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80098048"/>
+        <c:axId val="71016832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1943,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80215040"/>
+        <c:crossAx val="70998656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1988,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2418,7 +2420,7 @@
   <dimension ref="B1:L108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3727,18 +3729,38 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="30" customHeight="1">
-      <c r="B58" s="2"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="2:12" ht="93.75" customHeight="1">
+      <c r="B58" s="2">
+        <v>42</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="3">
+        <v>41362</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="2"/>
+      <c r="K58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="1">
+        <v>41363</v>
+      </c>
     </row>
     <row r="59" spans="2:12" ht="30" customHeight="1">
-      <c r="B59" s="2"/>
+      <c r="B59" s="2">
+        <v>43</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
       <c r="E59" s="11"/>
@@ -4995,7 +5017,7 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5028,7 +5050,7 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5061,7 +5083,7 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5094,7 +5116,7 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5127,7 +5149,7 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5160,7 +5182,7 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5193,7 +5215,7 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5226,7 +5248,7 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5259,7 +5281,7 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5292,7 +5314,7 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5325,7 +5347,7 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5358,7 +5380,7 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5391,7 +5413,7 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5408,7 +5430,7 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5425,7 +5447,7 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5442,7 +5464,7 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5459,7 +5481,7 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5476,7 +5498,7 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5493,7 +5515,7 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5510,7 +5532,7 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5527,7 +5549,7 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5544,7 +5566,7 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5561,7 +5583,7 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5578,7 +5600,7 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5595,7 +5617,7 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5612,7 +5634,7 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5629,7 +5651,7 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5646,7 +5668,7 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5663,7 +5685,7 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5680,7 +5702,7 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5697,7 +5719,7 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5714,7 +5736,7 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5731,7 +5753,7 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5748,7 +5770,7 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5765,7 +5787,7 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5782,7 +5804,7 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5799,7 +5821,7 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5816,7 +5838,7 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5833,7 +5855,7 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5850,7 +5872,7 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5867,7 +5889,7 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5884,7 +5906,7 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5901,7 +5923,7 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5918,7 +5940,7 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5935,7 +5957,7 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5952,7 +5974,7 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5969,7 +5991,7 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -30,9 +35,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
   <si>
     <t>Type</t>
   </si>
@@ -221,39 +226,6 @@
     <t>Sửa lại layout để hiển thị cho đúng theo comment của thầy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Risk:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Khi submit lên có thể sẽ phát sinh lỗi vì có dấu phẩy ở đó. Cần có xử lý ở client trước khi submit lên server</t>
-    </r>
-  </si>
-  <si>
     <t>Sửa link cho màn hình layout -&gt; các link có thể click được</t>
   </si>
   <si>
@@ -407,12 +379,225 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Tiktak Staff: 
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Xem được request và order
+       Xong màn hình dasboard của tiktak staff
+       Xong chức năng pricing bên phía tiktak staff
+       Được inform mỗi khi customer reject price? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Customer:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Import được order từ file excel theo một mẫu nào đó       
+       Cho phép customer approve + reject Request price</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã xong </t>
+  </si>
+  <si>
+    <t>Xử lý hiển thị giao diện cho màn hình view Request và Orders</t>
+  </si>
+  <si>
+    <t>Xử lý phần Add Item vào Order cho màn hình của Customer</t>
+  </si>
+  <si>
+    <t>Co date picker nhung van chua chay duoc on dinh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa ổn định . Đang còn lỗi ở hiển thị tên cty. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout của Order và Item chưa chạy được bên cả Tiktak + </t>
+  </si>
+  <si>
+    <t>Thêm phần validate vào cho khi gọi lên trên server để get địa chỉ thì sẽ trả về là success hay không.nếu không success thì báo lỗi và bắt user nhập lại địa chỉ hoặc click lên map để get địa chỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man hinh tao new product:
+- khong nhap value cho field nao ca
+- click Create button
+=&gt; create thanh cong
+Sua lai: validate, yeu cau nhap cac field require
+</t>
+  </si>
+  <si>
+    <t>Màn hình assign DM:
+- View plan đã finish: ko còn button nào trên màn hình assign
+(view only)</t>
+  </si>
+  <si>
+    <t>Màn hình view plan detail:
+- đổi field created date thành last modified date
+- plan đc order theo last modified date, descending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình plan management:
+- khi nào thì được delete 1 plan?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình Dashboard:
+- hiển thị logo của customer khi log in vào màn hình dashboard
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình Buyer Info: (Shopping Cart)
+- các field require bỏ message, chuyển thành dấu (*) để sau textbox
+</t>
+  </si>
+  <si>
+    <t>Màn hình Shopping Cart
+- có mennu bar phía trên (bước 1 : add product, bước 2: enter buyer info, bước 3: confirm message &amp; passcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình Shopping Cart
+- trong Cart Add box: Amount là tiền tạm tính (quantity * product price)
+</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Click lên plan đã finished thì không thấy những deliverymen đã được assigned vào plan đó nữa</t>
+  </si>
+  <si>
+    <t>Bo dieu kien check d.Status &lt;&gt; (int)PlanStatus.New</t>
+  </si>
+  <si>
+    <t>Popup của màn hình PlanIndex hiển thị quá thấp kéo lên cao tí</t>
+  </si>
+  <si>
+    <t>Chưa ngon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Risk:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Khi submit lên có thể sẽ phát sinh lỗi vì có dấu phẩy ở đó. Cần có xử lý ở client trước khi submit lên server</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan:
+      Thêm chức năng cancel plan
+      Thêm chức năng filter theo date ở màn hình plans/Index
+Tiktak:
+      Thêm chức năng pricing trong màn hình approve orders
+Customer:
+      Thêm chức năng approve orders.
+     Màn hình dashboard của customer tự động cập nhật số các orders + request cần thiết. </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Plan:
-      Màn hình plan index
-      Update phần Delivery Plan tương ứng theo CollectionPlan (View)
-      Save DeliveryPlan xuống được DB
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Màn hình plan index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update phần Delivery Plan tương ứng theo CollectionPlan (View)
+      Save DeliveryPlan xuống được DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Customer:
-      Xong layout chính (Dashboard) View được các Order và requests     
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xong layout chính (Dashboard) View được các Order và requests  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
       </t>
     </r>
     <r>
@@ -460,75 +645,12 @@
 </t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tiktak Staff: 
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Xem được request và order
-       Xong màn hình dasboard của tiktak staff
-       Xong chức năng pricing bên phía tiktak staff
-       Được inform mỗi khi customer reject price? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Customer:
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Import được order từ file excel theo một mẫu nào đó       
-       Cho phép customer approve + reject Request price</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã xong </t>
-  </si>
-  <si>
-    <t>Xử lý hiển thị giao diện cho màn hình view Request và Orders</t>
-  </si>
-  <si>
-    <t>Xử lý phần Add Item vào Order cho màn hình của Customer</t>
-  </si>
-  <si>
-    <t>Co date picker nhung van chua chay duoc on dinh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chưa ổn định . Đang còn lỗi ở hiển thị tên cty. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout của Order và Item chưa chạy được bên cả Tiktak + </t>
-  </si>
-  <si>
-    <t>Thêm phần validate vào cho khi gọi lên trên server để get địa chỉ thì sẽ trả về là success hay không.nếu không success thì báo lỗi và bắt user nhập lại địa chỉ hoặc click lên map để get địa chỉ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -651,14 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -690,6 +804,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,7 +961,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -899,6 +1028,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -911,52 +1064,46 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,7 +1131,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -998,7 +1145,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1081,7 +1228,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1098,6 +1255,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1157,41 +1315,50 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70998656"/>
-        <c:axId val="71016832"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297330752"/>
+        <c:axId val="297331312"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1321,44 +1488,45 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1506,35 +1674,36 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1581,7 +1750,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1677,68 +1852,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.68</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.68</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.68</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.68</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.68</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.68</c:v>
+                  <c:v>17.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.68</c:v>
+                  <c:v>17.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.68</c:v>
+                  <c:v>24.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.68</c:v>
+                  <c:v>24.08</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.68</c:v>
+                  <c:v>24.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.68</c:v>
+                  <c:v>26.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.68</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1785,7 +1961,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1812,81 +1994,89 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.68</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6799999999999997</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.68</c:v>
+                  <c:v>7.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.68</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.68</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.68</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.68</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.68</c:v>
+                  <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.68</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.68</c:v>
+                  <c:v>20.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.68</c:v>
+                  <c:v>23.08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.68</c:v>
+                  <c:v>23.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.68</c:v>
+                  <c:v>25.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="70998656"/>
-        <c:axId val="71016832"/>
+        <c:smooth val="0"/>
+        <c:axId val="297330752"/>
+        <c:axId val="297331312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70998656"/>
+        <c:axId val="297330752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1902,6 +2092,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1928,13 +2120,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71016832"/>
+        <c:crossAx val="297331312"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71016832"/>
+        <c:axId val="297331312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,8 +2135,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="70998656"/>
+        <c:crossAx val="297330752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,6 +2161,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2405,25 +2600,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2438,15 +2633,15 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2461,14 +2656,14 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>5</v>
@@ -2481,7 +2676,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2510,13 +2705,13 @@
         <v>21</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2549,7 +2744,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -2582,7 +2777,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -2615,7 +2810,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -2648,7 +2843,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -2681,7 +2876,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -2714,7 +2909,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -2733,8 +2928,12 @@
       <c r="G23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J23" s="14" t="s">
         <v>43</v>
       </c>
@@ -2742,7 +2941,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1">
+    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -2761,66 +2960,73 @@
       <c r="G24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="3">
+        <v>41353</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L24" s="1">
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78" customHeight="1">
-      <c r="B25" s="2">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="42">
         <v>9</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="44">
         <v>41352</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="G25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46">
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="54" customHeight="1">
-      <c r="B26" s="2">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="42">
         <v>10</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="44">
         <v>41352</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-      <c r="L26" s="1">
+      <c r="G26" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46">
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -2849,18 +3055,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="F28" s="3">
         <v>41354</v>
@@ -2875,12 +3081,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -2901,15 +3107,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>26</v>
@@ -2923,12 +3129,12 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -2949,18 +3155,18 @@
         <v>27</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1">
+    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>16</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -2972,7 +3178,7 @@
         <v>41354</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H32" s="3">
         <v>41355</v>
@@ -2984,12 +3190,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="30" customHeight="1">
+    <row r="33" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -3001,17 +3207,17 @@
         <v>41354</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>39</v>
@@ -3023,17 +3229,17 @@
         <v>41354</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>39</v>
@@ -3050,12 +3256,12 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>20</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -3076,18 +3282,18 @@
         <v>27</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -3104,15 +3310,15 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
       <c r="K37" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>22</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
@@ -3136,12 +3342,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>23</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>33</v>
@@ -3165,12 +3371,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>24</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>33</v>
@@ -3182,7 +3388,7 @@
         <v>41357</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="24">
         <v>41358</v>
@@ -3191,18 +3397,18 @@
         <v>27</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K40" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
+    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>25</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -3214,7 +3420,7 @@
         <v>41357</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="3">
         <v>41359</v>
@@ -3226,12 +3432,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>26</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>33</v>
@@ -3252,21 +3458,21 @@
         <v>27</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>27</v>
       </c>
       <c r="C43" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>67</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>68</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>26</v>
@@ -3285,12 +3491,12 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>28</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>33</v>
@@ -3317,12 +3523,12 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>29</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>34</v>
@@ -3346,15 +3552,15 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>30</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>26</v>
@@ -3378,12 +3584,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>31</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>34</v>
@@ -3407,12 +3613,12 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>32</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>33</v>
@@ -3424,14 +3630,14 @@
         <v>41359</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="38"/>
       <c r="I48" s="36" t="s">
         <v>42</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K48" s="39" t="s">
         <v>42</v>
@@ -3440,12 +3646,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>33</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>33</v>
@@ -3457,7 +3663,7 @@
         <v>41359</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H49" s="3">
         <v>41361</v>
@@ -3473,12 +3679,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>34</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>33</v>
@@ -3490,7 +3696,7 @@
         <v>41359</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" s="3">
         <v>41361</v>
@@ -3506,12 +3712,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1">
+    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>35</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>33</v>
@@ -3523,7 +3729,7 @@
         <v>41359</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="3">
         <v>41361</v>
@@ -3538,12 +3744,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1">
+    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>36</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>33</v>
@@ -3570,12 +3776,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>37</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>33</v>
@@ -3587,7 +3793,7 @@
         <v>41359</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" s="3">
         <v>41359</v>
@@ -3602,12 +3808,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>38</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>33</v>
@@ -3619,7 +3825,7 @@
         <v>41359</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" s="3">
         <v>41359</v>
@@ -3628,7 +3834,7 @@
         <v>27</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K54" s="14" t="s">
         <v>27</v>
@@ -3637,15 +3843,15 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" customHeight="1">
+    <row r="55" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>39</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>26</v>
@@ -3663,7 +3869,7 @@
         <v>27</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>27</v>
@@ -3672,12 +3878,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" customHeight="1">
+    <row r="56" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>40</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>34</v>
@@ -3704,12 +3910,12 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" customHeight="1">
+    <row r="57" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>41</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>34</v>
@@ -3723,18 +3929,25 @@
       <c r="G57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="11"/>
+      <c r="H57" s="3">
+        <v>41363</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="K57" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" customHeight="1">
+    <row r="58" spans="2:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>42</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>39</v>
@@ -3757,109 +3970,256 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="30" customHeight="1">
+    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>43</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="2"/>
+      <c r="C59" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="3">
+        <v>41362</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="30" customHeight="1">
-      <c r="B60" s="2"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="2:12" ht="30" customHeight="1">
-      <c r="B61" s="2"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="2:12" ht="30" customHeight="1">
-      <c r="B62" s="2"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="2:12" ht="30" customHeight="1">
-      <c r="B63" s="2"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="2"/>
+    <row r="60" spans="2:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>44</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="3">
+        <v>41362</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="3">
+        <v>41363</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>45</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="3">
+        <v>41362</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="3">
+        <v>41364</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>46</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="3">
+        <v>41364</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>47</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="2:12" ht="30" customHeight="1">
-      <c r="B64" s="2"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="2"/>
+      <c r="K63" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>48</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" ht="30" customHeight="1">
-      <c r="B65" s="2"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="2"/>
+    <row r="65" spans="2:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>49</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" ht="30" customHeight="1">
-      <c r="B66" s="2"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
+    <row r="66" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>50</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1">
-      <c r="B67" s="2"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1">
-      <c r="B68" s="2"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1">
+    <row r="67" spans="2:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>51</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="3">
+        <v>406605</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="3">
+        <v>41363</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>52</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="3">
+        <v>41363</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="3">
+        <v>41364</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="13"/>
       <c r="D69" s="2"/>
@@ -3869,7 +4229,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1">
+    <row r="70" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="13"/>
       <c r="D70" s="2"/>
@@ -3879,7 +4239,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1">
+    <row r="71" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="13"/>
       <c r="D71" s="2"/>
@@ -3889,7 +4249,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1">
+    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="13"/>
       <c r="D72" s="2"/>
@@ -3899,7 +4259,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1">
+    <row r="73" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="13"/>
       <c r="D73" s="2"/>
@@ -3909,7 +4269,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1">
+    <row r="74" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="13"/>
       <c r="D74" s="2"/>
@@ -3919,7 +4279,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="2:9" ht="30" customHeight="1">
+    <row r="75" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="13"/>
       <c r="D75" s="2"/>
@@ -3929,7 +4289,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="2:9" ht="30" customHeight="1">
+    <row r="76" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="13"/>
       <c r="D76" s="2"/>
@@ -3939,7 +4299,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="2:9" ht="30" customHeight="1">
+    <row r="77" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="13"/>
       <c r="D77" s="2"/>
@@ -3949,7 +4309,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="2:9" ht="30" customHeight="1">
+    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -3959,7 +4319,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" ht="30" customHeight="1">
+    <row r="79" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -3969,7 +4329,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" ht="30" customHeight="1">
+    <row r="80" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -3979,7 +4339,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1">
+    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -3989,7 +4349,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
+    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -3999,7 +4359,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1">
+    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4009,7 +4369,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1">
+    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4019,7 +4379,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1">
+    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4029,7 +4389,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1">
+    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4039,7 +4399,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1">
+    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4049,7 +4409,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1">
+    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4059,7 +4419,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1">
+    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4069,7 +4429,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1">
+    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4079,7 +4439,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1">
+    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4089,7 +4449,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1">
+    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4099,7 +4459,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1">
+    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4109,7 +4469,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1">
+    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4119,7 +4479,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1">
+    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4129,7 +4489,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1">
+    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4139,7 +4499,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1">
+    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4149,7 +4509,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1">
+    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4159,7 +4519,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1">
+    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4169,7 +4529,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1">
+    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4179,7 +4539,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1">
+    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4189,7 +4549,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1">
+    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4199,7 +4559,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1">
+    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4209,7 +4569,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1">
+    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4219,7 +4579,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1">
+    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4229,7 +4589,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4239,7 +4599,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1">
+    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4249,17 +4609,18 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1">
+    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="You need to select an option from the list in order for the chart to work correctly. " sqref="G3">
       <formula1>types</formula1>
     </dataValidation>
@@ -4284,25 +4645,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4310,13 +4671,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -4325,7 +4686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -4338,16 +4699,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>Plan</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -4356,7 +4717,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -4366,14 +4727,14 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s">
         <v>13</v>
@@ -4382,7 +4743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -4405,7 +4766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -4413,7 +4774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -4446,7 +4807,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -4479,7 +4840,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -4499,9 +4860,9 @@
         <f t="array" ref="N18">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N17, issues[TYPE]),0))</f>
         <v>Buyer</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="str">
         <f t="array" ref="O18">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O17,issues[PRIORITY]),0))</f>
-        <v>0</v>
+        <v>Low</v>
       </c>
       <c r="S18" t="str">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(3:3)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -4512,7 +4873,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -4532,9 +4893,9 @@
         <f t="array" ref="N19">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N18, issues[TYPE]),0))</f>
         <v>Layout</v>
       </c>
-      <c r="O19" t="e">
+      <c r="O19">
         <f t="array" ref="O19">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O18,issues[PRIORITY]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="S19" t="str">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(4:4)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
@@ -4542,10 +4903,10 @@
       </c>
       <c r="T19" t="str">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(4:4)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>Medium</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20">
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -4573,12 +4934,12 @@
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
         <v>Hub</v>
       </c>
-      <c r="T20" t="e">
+      <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20">
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -4611,7 +4972,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -4644,7 +5005,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -4677,7 +5038,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -4687,7 +5048,7 @@
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <f>J23+COUNTIFS(issues[CLOSED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4710,7 +5071,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -4720,7 +5081,7 @@
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <f>J24+COUNTIFS(issues[CLOSED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4743,7 +5104,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -4753,7 +5114,7 @@
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -4776,7 +5137,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -4786,11 +5147,11 @@
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -4809,7 +5170,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -4819,11 +5180,11 @@
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -4842,7 +5203,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -4852,11 +5213,11 @@
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -4875,7 +5236,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -4885,11 +5246,11 @@
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -4908,7 +5269,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -4918,11 +5279,11 @@
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -4941,7 +5302,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -4951,11 +5312,11 @@
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -4974,7 +5335,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -4984,11 +5345,11 @@
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5007,7 +5368,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5017,11 +5378,11 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5040,7 +5401,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5050,11 +5411,11 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5073,7 +5434,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5083,7 +5444,7 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5106,7 +5467,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5116,7 +5477,7 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5139,7 +5500,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5149,7 +5510,7 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5172,7 +5533,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5182,7 +5543,7 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5205,7 +5566,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5215,7 +5576,7 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5238,7 +5599,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5248,7 +5609,7 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5271,7 +5632,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5281,7 +5642,7 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5304,7 +5665,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -5314,7 +5675,7 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5337,7 +5698,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -5347,7 +5708,7 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5370,7 +5731,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -5380,7 +5741,7 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5403,7 +5764,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -5413,14 +5774,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="7:20">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -5430,14 +5791,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="7:20">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -5447,14 +5808,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -5464,14 +5825,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="7:10">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -5481,14 +5842,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -5498,14 +5859,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -5515,14 +5876,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -5532,14 +5893,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="7:10">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -5549,14 +5910,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -5566,14 +5927,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -5583,14 +5944,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -5600,14 +5961,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -5617,14 +5978,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -5634,14 +5995,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -5651,14 +6012,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -5668,14 +6029,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="7:10">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -5685,14 +6046,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -5702,14 +6063,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="7:10">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -5719,14 +6080,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="7:10">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -5736,14 +6097,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -5753,14 +6114,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -5770,14 +6131,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="7:10">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -5787,14 +6148,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -5804,14 +6165,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="7:10">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -5821,14 +6182,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -5838,14 +6199,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="7:10">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -5855,14 +6216,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="7:10">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -5872,14 +6233,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="7:10">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -5889,14 +6250,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="7:10">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -5906,14 +6267,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="7:10">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -5923,14 +6284,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="7:10">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -5940,14 +6301,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -5957,14 +6318,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -5974,14 +6335,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -5991,7 +6352,7 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6005,53 +6366,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1">
+    </row>
+    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>41366</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="MilesStone" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="123">
   <si>
     <t>Type</t>
   </si>
@@ -519,16 +520,6 @@
       </rPr>
       <t xml:space="preserve"> Khi submit lên có thể sẽ phát sinh lỗi vì có dấu phẩy ở đó. Cần có xử lý ở client trước khi submit lên server</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan:
-      Thêm chức năng cancel plan
-      Thêm chức năng filter theo date ở màn hình plans/Index
-Tiktak:
-      Thêm chức năng pricing trong màn hình approve orders
-Customer:
-      Thêm chức năng approve orders.
-     Màn hình dashboard của customer tự động cập nhật số các orders + request cần thiết. </t>
   </si>
   <si>
     <r>
@@ -644,6 +635,139 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>send CheckNotifications(userGUID)</t>
+  </si>
+  <si>
+    <t>get back list Orders va Items</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plan:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thêm chức năng cancel plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thêm chức năng filter theo date ở màn hình plans/Index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tiktak:
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thêm chức năng pricing trong màn hình approve orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Customer:
+      Thêm chức năng approve orders.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Màn hình dashboard của customer tự động cập nhật số các orders + request cần thiết. </t>
+    </r>
+  </si>
+  <si>
+    <t>tab Request:_x000D_
+- bỏ button Action (dropdown)_x000D_
+- sửa thành các icon như cũ</t>
+  </si>
+  <si>
+    <t>tab Request:_x000D_
+- thêm màu cho Status value</t>
+  </si>
+  <si>
+    <t>tab Request:_x000D_
+- bỏ Reject by order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình Add new price category_x000D_
+- hiển thị table giá để user add </t>
+  </si>
+  <si>
+    <t>Màn hình Assign DM:_x000D_
+- bỏ Popup sau khi click Cancel button</t>
+  </si>
+  <si>
+    <t>Màn hình Create Plan: (view các plan mới đc tạo, chưa save xuống db)_x000D_
+- thêm nút Back để trở về trang trước tạo plan</t>
+  </si>
+  <si>
+    <t>Màn hình Create Plan:_x000D_
+- thêm 1 dòng mô tả về cách chọn group như thế nào (ở giữa number of Plan &amp; group type</t>
+  </si>
+  <si>
+    <t>Màn hình Request_x000D_
+- bỏ Note field</t>
+  </si>
+  <si>
+    <t>thêm 1 màn hình:_x000D_
+ - textbox nhập số phone, button OK_x000D_
+-&gt; sau khi nhấn nút OK, show table có tất cả order thuộc số phone này_x000D_
+- click view trên detail -&gt; show pop up bắt nhập passcode (textbox), click button OK sẽ show detail của order đó</t>
   </si>
 </sst>
 </file>
@@ -1353,8 +1477,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297330752"/>
-        <c:axId val="297331312"/>
+        <c:axId val="302278048"/>
+        <c:axId val="302278608"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1759,6 +1883,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1970,6 +2095,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2068,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297330752"/>
-        <c:axId val="297331312"/>
+        <c:axId val="302278048"/>
+        <c:axId val="302278608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="297330752"/>
+        <c:axId val="302278048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,14 +2246,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297331312"/>
+        <c:crossAx val="302278608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="297331312"/>
+        <c:axId val="302278608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2263,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="297330752"/>
+        <c:crossAx val="302278048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,8 +2740,8 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3542,8 +3668,12 @@
       <c r="G45" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="30"/>
+      <c r="H45" s="32">
+        <v>41363</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="J45" s="33"/>
       <c r="K45" s="33" t="s">
         <v>42</v>
@@ -3632,9 +3762,11 @@
       <c r="G48" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="32">
+        <v>41365</v>
+      </c>
       <c r="I48" s="36" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>90</v>
@@ -4220,92 +4352,200 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
+      <c r="B69" s="2">
+        <v>53</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="2"/>
+      <c r="B70" s="2">
+        <v>54</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="2"/>
+      <c r="B71" s="2">
+        <v>55</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="2"/>
+      <c r="B72" s="2">
+        <v>56</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H72" s="3"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="2"/>
+      <c r="B73" s="2">
+        <v>57</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="2"/>
+      <c r="B74" s="2">
+        <v>58</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="2"/>
+      <c r="B75" s="2">
+        <v>59</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="2"/>
+      <c r="B76" s="2">
+        <v>60</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="2"/>
+      <c r="B77" s="2">
+        <v>61</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="3">
+        <v>41366</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
@@ -5481,7 +5721,7 @@
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5510,11 +5750,11 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -5543,11 +5783,11 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -5576,11 +5816,11 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -5609,11 +5849,11 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -5642,11 +5882,11 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -5675,11 +5915,11 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -5708,11 +5948,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -5741,11 +5981,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -5774,11 +6014,11 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.25">
@@ -5791,11 +6031,11 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.25">
@@ -5808,11 +6048,11 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -5825,11 +6065,11 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -5842,11 +6082,11 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -5859,11 +6099,11 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -5876,11 +6116,11 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -5893,11 +6133,11 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -5910,11 +6150,11 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -5927,11 +6167,11 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -5944,11 +6184,11 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -5961,11 +6201,11 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
@@ -5978,11 +6218,11 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
@@ -5995,11 +6235,11 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
@@ -6012,11 +6252,11 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -6029,11 +6269,11 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -6046,11 +6286,11 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
@@ -6063,11 +6303,11 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
@@ -6080,11 +6320,11 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
@@ -6097,11 +6337,11 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
@@ -6114,11 +6354,11 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
@@ -6131,11 +6371,11 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
@@ -6148,11 +6388,11 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
@@ -6165,11 +6405,11 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
@@ -6182,11 +6422,11 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
@@ -6199,11 +6439,11 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
@@ -6216,11 +6456,11 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
@@ -6233,11 +6473,11 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.25">
@@ -6250,11 +6490,11 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.25">
@@ -6267,11 +6507,11 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.25">
@@ -6284,11 +6524,11 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.25">
@@ -6301,11 +6541,11 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.25">
@@ -6318,11 +6558,11 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.25">
@@ -6335,11 +6575,11 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.25">
@@ -6352,11 +6592,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6369,8 +6609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6392,7 +6632,7 @@
         <v>41359</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,12 +6656,49 @@
         <v>41366</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
   <si>
     <t>Type</t>
   </si>
@@ -769,12 +769,31 @@
 -&gt; sau khi nhấn nút OK, show table có tất cả order thuộc số phone này_x000D_
 - click view trên detail -&gt; show pop up bắt nhập passcode (textbox), click button OK sẽ show detail của order đó</t>
   </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>Bể layout discuss với thầy bỏ vụ này</t>
+  </si>
+  <si>
+    <t>Plan:
+     Sửa chức năng filter theo date ở màn hình plans/Index     
+Tiktak:
+     Sửa lại màn hình Approve Requests. Có price Categories.
+Customer:
+    Requests của Customer hiển thị đúng format.
+    Customer có thể approve requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiktak: 
+     </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -947,6 +966,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1085,7 +1111,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1241,6 +1267,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1477,8 +1512,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302278048"/>
-        <c:axId val="302278608"/>
+        <c:axId val="305142688"/>
+        <c:axId val="305143248"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1883,7 +1918,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2095,7 +2129,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2194,11 +2227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302278048"/>
-        <c:axId val="302278608"/>
+        <c:axId val="305142688"/>
+        <c:axId val="305143248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="302278048"/>
+        <c:axId val="305142688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,14 +2279,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302278608"/>
+        <c:crossAx val="305143248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302278608"/>
+        <c:axId val="305143248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2296,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="302278048"/>
+        <c:crossAx val="305142688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,8 +2773,8 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4352,26 +4385,33 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="2">
+      <c r="B69" s="52">
         <v>53</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="54">
         <v>41366</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2"/>
+      <c r="H69" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="70" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
@@ -4392,8 +4432,12 @@
       <c r="G70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="2"/>
+      <c r="H70" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="71" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -4414,8 +4458,12 @@
       <c r="G71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
@@ -4436,10 +4484,14 @@
       <c r="G72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -4458,10 +4510,14 @@
       <c r="G73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -4480,10 +4536,14 @@
       <c r="G74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>59</v>
       </c>
@@ -4504,8 +4564,11 @@
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -4524,10 +4587,17 @@
       <c r="G76" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="3">
+        <v>41337</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -4548,6 +4618,9 @@
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
+      <c r="K77" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
@@ -6607,10 +6680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6657,6 +6730,22 @@
       </c>
       <c r="B7" s="14" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41369</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41372</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
   <si>
     <t>Type</t>
   </si>
@@ -776,17 +776,18 @@
     <t>Bể layout discuss với thầy bỏ vụ này</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiktak: 
+     Có chức năng report &amp; graph. Lọc tổng </t>
+  </si>
+  <si>
     <t>Plan:
      Sửa chức năng filter theo date ở màn hình plans/Index     
 Tiktak:
      Sửa lại màn hình Approve Requests. Có price Categories.
+    Thêm Phần quản lý Hub
 Customer:
     Requests của Customer hiển thị đúng format.
     Customer có thể approve requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiktak: 
-     </t>
   </si>
 </sst>
 </file>
@@ -1256,6 +1257,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1267,15 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1512,8 +1513,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305142688"/>
-        <c:axId val="305143248"/>
+        <c:axId val="302721648"/>
+        <c:axId val="302722208"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2227,11 +2228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305142688"/>
-        <c:axId val="305143248"/>
+        <c:axId val="302721648"/>
+        <c:axId val="302722208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="305142688"/>
+        <c:axId val="302721648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,14 +2280,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305143248"/>
+        <c:crossAx val="302722208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="305143248"/>
+        <c:axId val="302722208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2297,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="305142688"/>
+        <c:crossAx val="302721648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2774,7 +2775,7 @@
   <dimension ref="B1:L108"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2794,13 +2795,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2816,11 +2817,11 @@
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
@@ -4385,28 +4386,28 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="52">
+      <c r="B69" s="48">
         <v>53</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="52" t="s">
+      <c r="D69" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="54">
+      <c r="F69" s="50">
         <v>41366</v>
       </c>
-      <c r="G69" s="52" t="s">
+      <c r="G69" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="54" t="s">
+      <c r="H69" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="I69" s="52" t="s">
+      <c r="I69" s="48" t="s">
         <v>27</v>
       </c>
       <c r="J69" s="14" t="s">
@@ -4616,8 +4617,12 @@
       <c r="G77" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="2"/>
+      <c r="H77" s="3">
+        <v>41368</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="K77" s="14" t="s">
         <v>59</v>
       </c>
@@ -6682,7 +6687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -6732,12 +6737,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -6745,7 +6750,7 @@
         <v>41372</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -776,10 +776,6 @@
     <t>Bể layout discuss với thầy bỏ vụ này</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiktak: 
-     Có chức năng report &amp; graph. Lọc tổng </t>
-  </si>
-  <si>
     <t>Plan:
      Sửa chức năng filter theo date ở màn hình plans/Index     
 Tiktak:
@@ -788,6 +784,12 @@
 Customer:
     Requests của Customer hiển thị đúng format.
     Customer có thể approve requests</t>
+  </si>
+  <si>
+    <t>Tiktak: 
+   Chạy được toàn bộ flow theo như trong file excel
+   Sửa lại phần Pricing theo ý thầy.
+  Màn hình Buyer chạy tốt. Layout tốt</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1515,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302721648"/>
-        <c:axId val="302722208"/>
+        <c:axId val="345035616"/>
+        <c:axId val="345036176"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2228,11 +2230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302721648"/>
-        <c:axId val="302722208"/>
+        <c:axId val="345035616"/>
+        <c:axId val="345036176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="302721648"/>
+        <c:axId val="345035616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,14 +2282,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302722208"/>
+        <c:crossAx val="345036176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="302722208"/>
+        <c:axId val="345036176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2299,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="302721648"/>
+        <c:crossAx val="345035616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6687,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6742,7 +6744,7 @@
         <v>41369</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -6750,7 +6752,7 @@
         <v>41372</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="calculations" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="MilesStone" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Detail Design" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="closed">OFFSET(calculations!$J$16,,,days)</definedName>
@@ -36,9 +31,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="133">
   <si>
     <t>Type</t>
   </si>
@@ -637,18 +632,6 @@
     </r>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>send CheckNotifications(userGUID)</t>
-  </si>
-  <si>
-    <t>get back list Orders va Items</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Plan:
       </t>
@@ -791,12 +774,54 @@
    Sửa lại phần Pricing theo ý thầy.
   Màn hình Buyer chạy tốt. Layout tốt</t>
   </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Add New Order</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Process steps</t>
+  </si>
+  <si>
+    <t>Click on Add New Item Link</t>
+  </si>
+  <si>
+    <t>Click Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the item in to db . -
+Add this item to Cart Add region </t>
+  </si>
+  <si>
+    <t>Display Pop Up for add new item - Allow user for set a product whether is permanent or not</t>
+  </si>
+  <si>
+    <t>Customer:
+     Bo phan Add New Order khi tao request.
+     Them flow tao Order su dung lai man hinh cua Buyer khi tao flow. Cho phep Customer tao them product
+Buyer:
+     Sua thong tin se hien thi sau khi Customer mua hang xong. =&gt; Chon direct =&gt; hien thi ngay gio khach hang co the nhan hang. Tom tat mua hang. 
+    Neu chon o Hub thi thong bao nhan hang o dau. passcode la gi.  khi nao hang toi thi se inform qua email
+Tiktak Staff:
+  Man hinh edit order trong delivery plan 
+  Cho phep order voi trang thai return thi sua gia. 
+  Lam theo flow hien tai cua customer
+Hub Login :
+ Bat Hub Login  Display nhung order lien quan toi hub do thoi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -976,6 +1001,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1114,7 +1147,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1280,6 +1313,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Closed Color" xfId="4"/>
@@ -1293,7 +1329,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1307,7 +1343,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1390,17 +1426,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1417,7 +1443,6 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1507,20 +1532,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="345035616"/>
-        <c:axId val="345036176"/>
+        <c:dLbls/>
+        <c:axId val="71412352"/>
+        <c:axId val="71426432"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1688,7 +1705,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1865,7 +1881,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1912,13 +1927,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2076,7 +2085,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2123,13 +2131,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2218,27 +2220,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="345035616"/>
-        <c:axId val="345036176"/>
+        <c:axId val="71412352"/>
+        <c:axId val="71426432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="345035616"/>
+        <c:axId val="71412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2254,8 +2248,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2282,14 +2274,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345036176"/>
+        <c:crossAx val="71426432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="345036176"/>
+        <c:axId val="71426432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,9 +2288,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="345035616"/>
+        <c:crossAx val="71412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2323,7 +2313,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2345,7 +2334,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2537,6 +2526,167 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9391650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="542925"/>
+          <a:ext cx="12192000" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1006045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="4267200"/>
+          <a:ext cx="1006045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> New Item</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8486775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5924550" y="3333750"/>
+          <a:ext cx="5362575" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2762,14 +2912,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2780,7 +2930,7 @@
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -2795,8 +2945,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
@@ -2818,7 +2968,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
       <c r="B3" s="53"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -2838,7 +2988,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +3023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2906,7 +3056,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -2939,7 +3089,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -2972,7 +3122,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3005,7 +3155,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3038,7 +3188,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3071,7 +3221,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3103,7 +3253,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3132,7 +3282,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1">
       <c r="B25" s="42">
         <v>9</v>
       </c>
@@ -3161,7 +3311,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1">
       <c r="B26" s="42">
         <v>10</v>
       </c>
@@ -3188,7 +3338,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3217,7 +3367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3243,7 +3393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3269,7 +3419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3291,7 +3441,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3323,7 +3473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="57" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3352,7 +3502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="60" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3374,7 +3524,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3396,7 +3546,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3418,7 +3568,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3450,7 +3600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3475,7 +3625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3504,7 +3654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3533,7 +3683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3565,7 +3715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -3594,7 +3744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="57.75" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -3626,7 +3776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -3653,7 +3803,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="48.75" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -3685,7 +3835,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -3718,7 +3868,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="54.75" customHeight="1">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -3750,7 +3900,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -3779,7 +3929,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -3814,7 +3964,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -3847,7 +3997,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -3880,7 +4030,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="66" customHeight="1">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -3912,7 +4062,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="51" customHeight="1">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -3944,7 +4094,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="56.25" customHeight="1">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -3976,7 +4126,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="43.5" customHeight="1">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4011,7 +4161,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="47.25" customHeight="1">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4046,7 +4196,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="42.75" customHeight="1">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4078,7 +4228,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="48.75" customHeight="1">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4110,7 +4260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="93.75" customHeight="1">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4138,7 +4288,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="114" customHeight="1">
       <c r="B59" s="2">
         <v>43</v>
       </c>
@@ -4160,7 +4310,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="87.75" customHeight="1">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4186,7 +4336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="121.5" customHeight="1">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4212,7 +4362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="61.5" customHeight="1">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4238,7 +4388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="63.75" customHeight="1">
       <c r="B63" s="2">
         <v>47</v>
       </c>
@@ -4263,7 +4413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="99.75" customHeight="1">
       <c r="B64" s="2">
         <v>48</v>
       </c>
@@ -4285,7 +4435,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="90.75" customHeight="1">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4307,7 +4457,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="91.5" customHeight="1">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4329,7 +4479,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="97.5" customHeight="1">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4358,7 +4508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="30" customHeight="1">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4387,12 +4537,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="30" customHeight="1">
       <c r="B69" s="48">
         <v>53</v>
       </c>
       <c r="C69" s="49" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>33</v>
@@ -4407,21 +4557,21 @@
         <v>52</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I69" s="48" t="s">
         <v>27</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="30" customHeight="1">
       <c r="B70" s="2">
         <v>54</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>33</v>
@@ -4442,12 +4592,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="30" customHeight="1">
       <c r="B71" s="2">
         <v>55</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>33</v>
@@ -4468,12 +4618,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="30" customHeight="1">
       <c r="B72" s="2">
         <v>56</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>33</v>
@@ -4494,12 +4644,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="61.5" customHeight="1">
       <c r="B73" s="2">
         <v>57</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>33</v>
@@ -4520,12 +4670,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="65.25" customHeight="1">
       <c r="B74" s="2">
         <v>58</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>33</v>
@@ -4546,12 +4696,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="76.5" customHeight="1">
       <c r="B75" s="2">
         <v>59</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>33</v>
@@ -4571,12 +4721,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="50.25" customHeight="1">
       <c r="B76" s="2">
         <v>60</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>33</v>
@@ -4600,12 +4750,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="129" customHeight="1">
       <c r="B77" s="2">
         <v>61</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>39</v>
@@ -4629,7 +4779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="30" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="13"/>
       <c r="D78" s="2"/>
@@ -4639,7 +4789,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="30" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="13"/>
       <c r="D79" s="2"/>
@@ -4649,7 +4799,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="30" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="13"/>
       <c r="D80" s="2"/>
@@ -4659,7 +4809,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="30" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="13"/>
       <c r="D81" s="2"/>
@@ -4669,7 +4819,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="30" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="13"/>
       <c r="D82" s="2"/>
@@ -4679,7 +4829,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="30" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="13"/>
       <c r="D83" s="2"/>
@@ -4689,7 +4839,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="30" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="13"/>
       <c r="D84" s="2"/>
@@ -4699,7 +4849,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="30" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="13"/>
       <c r="D85" s="2"/>
@@ -4709,7 +4859,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="30" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="13"/>
       <c r="D86" s="2"/>
@@ -4719,7 +4869,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="30" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="13"/>
       <c r="D87" s="2"/>
@@ -4729,7 +4879,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="30" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="13"/>
       <c r="D88" s="2"/>
@@ -4739,7 +4889,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="30" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="13"/>
       <c r="D89" s="2"/>
@@ -4749,7 +4899,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="30" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="13"/>
       <c r="D90" s="2"/>
@@ -4759,7 +4909,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="30" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="13"/>
       <c r="D91" s="2"/>
@@ -4769,7 +4919,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="30" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="13"/>
       <c r="D92" s="2"/>
@@ -4779,7 +4929,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="30" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="13"/>
       <c r="D93" s="2"/>
@@ -4789,7 +4939,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="30" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="13"/>
       <c r="D94" s="2"/>
@@ -4799,7 +4949,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="30" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="13"/>
       <c r="D95" s="2"/>
@@ -4809,7 +4959,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="30" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="13"/>
       <c r="D96" s="2"/>
@@ -4819,7 +4969,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="30" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="13"/>
       <c r="D97" s="2"/>
@@ -4829,7 +4979,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="30" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="13"/>
       <c r="D98" s="2"/>
@@ -4839,7 +4989,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="30" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="13"/>
       <c r="D99" s="2"/>
@@ -4849,7 +4999,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="30" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="13"/>
       <c r="D100" s="2"/>
@@ -4859,7 +5009,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="30" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="13"/>
       <c r="D101" s="2"/>
@@ -4869,7 +5019,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" ht="30" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="13"/>
       <c r="D102" s="2"/>
@@ -4879,7 +5029,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="30" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="13"/>
       <c r="D103" s="2"/>
@@ -4889,7 +5039,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="30" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -4899,7 +5049,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="30" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -4909,7 +5059,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" ht="30" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -4919,7 +5069,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" ht="30" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -4929,7 +5079,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="30" customHeight="1">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -4965,25 +5115,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -4991,13 +5141,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -5006,7 +5156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -5019,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5178,7 @@
         <v>Plan</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -5037,7 +5187,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -5047,7 +5197,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>8</v>
@@ -5063,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -5094,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -5127,7 +5277,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -5160,7 +5310,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -5193,7 +5343,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -5226,7 +5376,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -5259,7 +5409,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -5292,7 +5442,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -5325,7 +5475,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -5358,7 +5508,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -5391,7 +5541,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -5424,7 +5574,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -5457,7 +5607,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -5490,7 +5640,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -5523,7 +5673,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -5556,7 +5706,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -5589,7 +5739,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -5622,7 +5772,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -5655,7 +5805,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -5688,7 +5838,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -5721,7 +5871,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -5754,7 +5904,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -5787,7 +5937,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -5820,7 +5970,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -5853,7 +6003,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -5886,7 +6036,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -5919,7 +6069,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -5952,7 +6102,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -5985,7 +6135,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -6018,7 +6168,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -6051,7 +6201,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -6084,7 +6234,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -6101,7 +6251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -6118,7 +6268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -6135,7 +6285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -6152,7 +6302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -6169,7 +6319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -6186,7 +6336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -6203,7 +6353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -6220,7 +6370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -6237,7 +6387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -6254,7 +6404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -6271,7 +6421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -6288,7 +6438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -6305,7 +6455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -6322,7 +6472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -6339,7 +6489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -6356,7 +6506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -6373,7 +6523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -6390,7 +6540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -6407,7 +6557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -6424,7 +6574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -6441,7 +6591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -6458,7 +6608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -6475,7 +6625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -6492,7 +6642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -6509,7 +6659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -6526,7 +6676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -6543,7 +6693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -6560,7 +6710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -6577,7 +6727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -6594,7 +6744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -6611,7 +6761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -6628,7 +6778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -6645,7 +6795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -6662,7 +6812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -6686,20 +6836,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -6707,7 +6857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="255" customHeight="1">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -6715,15 +6865,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
@@ -6731,28 +6881,36 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="219" customHeight="1">
       <c r="A7" s="1">
         <v>41366</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="141.75">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="96" customHeight="1">
       <c r="A10" s="1">
         <v>41372</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="284.25" customHeight="1">
+      <c r="A12" s="1">
+        <v>41376</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6762,39 +6920,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>112</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="31.5">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="162">
   <si>
     <t>Type</t>
   </si>
@@ -803,25 +803,216 @@
     <t>Display Pop Up for add new item - Allow user for set a product whether is permanent or not</t>
   </si>
   <si>
-    <t>Customer:
+    <t>Add price category screen: _x000D_
+- đưa column price lên sau price content, last modified user để cuối cùng, date sau price_x000D_
+- last modified user chỉ lấy username, ko lấy full name</t>
+  </si>
+  <si>
+    <t>Add price category screen:_x000D_
+_x000D_
+- button Create đổi thành Add</t>
+  </si>
+  <si>
+    <t>Request tab_x000D_
+- dòng chữ màu đỏ đổi thành màu khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request tab: _x000D_
+- thay nút Add bằng nút Detail_x000D_
+- bỏ table price, chỉ để total price_x000D_
+- khi click Detail, sẽ hiển thị price table gồm các price records thuộc total price đó_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request tab:_x000D_
+- thêm nút Remove ở mỗi record trong detail screen_x000D_
+stt = Approved thì button Remove bị disable_x000D_
+</t>
+  </si>
+  <si>
+    <t>- Nếu stt ở Hub = expired, =&gt; status Order ở tiktak = Returned_x000D_
++ cus có 2 lựa chọn: _x000D_
+   * Nếu gửi lại order -&gt; cho edit price_x000D_
+   * Nếu Cancel -&gt; finished</t>
+  </si>
+  <si>
+    <t>phía trên logo, để 1 dòng chữ để cho ng dùng biết mình đang ở màn hình nào (vd: đang ở plan: Plan Dashboard)</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Đổi dòng chữ "Some random text.." dưới Step bằng câu có ý nghĩa (theo ý nghĩa của từng step)_x000D_
+- step 1: chọn product muốn mua_x000D_
+- step 2: điền thông tin người mua hàng để nhận hàng_x000D_
+- step 3: nhận passcode</t>
+  </si>
+  <si>
+    <t>Đổi field Address thành Your address ở step 2</t>
+  </si>
+  <si>
+    <t>Step 3:_x000D_
+- nếu buyer chọn Direct Delivery:_x000D_
+Bạn đang order kiểu Direct Delivery._x000D_
+Chúng tôi sẽ giao hàng cho bạn trong vòng [3] ngày._x000D_
+- nếu buyer chọn Buffer Delivery:_x000D_
+Bạn đang order kiểu buffer delivery._x000D_
+Bạn có thời gian 3 ngày để đến Hub đã lựa chọn để lấy hàng kể từ ngày thông báo hàng đã đến Hub._x000D_
+Vui lòng đem passcode này đến cho nhân viên at Hub để lấy hàng</t>
+  </si>
+  <si>
+    <t>Sử dụng màn hình của Buyer để Cus tạo order: (chỉ order by Direct Delivery)_x000D_
+- bỏ step 3_x000D_
+- thêm button Add product, Search ở step 1_x000D_
+- ở step 1: trong Cart Add, field Amount cho Cus edit</t>
+  </si>
+  <si>
+    <t>Chuỗi passcode: HHmmss</t>
+  </si>
+  <si>
+    <t>Add order:_x000D_
+- step 1: khi add product xong,có check box isPermanent_x000D_
++ nếu check: sau khi add product to Cart add -&gt; nếu reload lại page, product mới add sẽ xuất hiện trong product list (show trên page)_x000D_
+_x000D_
++ nếu uncheck: add to Cart Add only</t>
+  </si>
+  <si>
+    <t>Assign DM_x000D_
+- 2 button Reassign, Assign để vào trong khung Assign luôn</t>
+  </si>
+  <si>
+    <t>Assign DM:_x000D_
+- button Mark as Finished để ngay dòng chữ Click to see Detail</t>
+  </si>
+  <si>
+    <t>tab Request_x000D_
+- thêm field Note khi reject price. để tiktak staff biết đc lí do reject</t>
+  </si>
+  <si>
+    <t>tab Request:_x000D_
+lưu field note bằng cách mỗi lần note sẽ enter xuống dòng</t>
+  </si>
+  <si>
+    <t>tab Request:_x000D_
+- kéo nhỏ field Total lại_x000D_
+- để chỗ cho Note</t>
+  </si>
+  <si>
+    <t>Add Product:_x000D_
+- Lỗi khi create product mà có Image (bỏ url vào Image)</t>
+  </si>
+  <si>
+    <t>Add new product:_x000D_
+sau khi add product, product mới được tạo phải nằm ở record đầu tiên</t>
+  </si>
+  <si>
+    <t>main page of Shopping Cart:_x000D_
+- nút Home chưa xài được</t>
+  </si>
+  <si>
+    <t>Màn hình Shopping cart:_x000D_
+- thêm button Search để buyer search product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">màn hình Shopping Cart:_x000D_
+_x000D_
+- step 2: nhập tất cả (trừ Delivery type, Payment type: 2 field này ko required) =&gt; quăng lỗi </t>
+  </si>
+  <si>
+    <t>màn hình shopping cart: step 2_x000D_
+- bỏ dấu * ở field Address or nếu ko nhập thì fải bắt validate</t>
+  </si>
+  <si>
+    <t>Create Order_x000D_
+- tạo nhiều order với các kiểu deliverytype và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu delivery type, payment type _x000D_
+=&gt; sửa lại, khi insert xuống database, user order theo delivery type và payment type nào thì insert đúng kiểu đó</t>
+  </si>
+  <si>
+    <t>Add existing order into request_x000D_
+- check các order muốn add để tạo request -&gt; button Add to Request chưa thực hiện gì cả</t>
+  </si>
+  <si>
+    <t>Not a bug</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Customer:
      Bo phan Add New Order khi tao request.
      Them flow tao Order su dung lai man hinh cua Buyer khi tao flow. Cho phep Customer tao them product
 Buyer:
      Sua thong tin se hien thi sau khi Customer mua hang xong. =&gt; Chon direct =&gt; hien thi ngay gio khach hang co the nhan hang. Tom tat mua hang. 
     Neu chon o Hub thi thong bao nhan hang o dau. passcode la gi.  khi nao hang toi thi se inform qua email
 Tiktak Staff:
-  Man hinh edit order trong delivery plan 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Man hinh edit order trong delivery plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
   Cho phep order voi trang thai return thi sua gia. 
-  Lam theo flow hien tai cua customer
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lam theo flow hien tai cua customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Hub Login :
- Bat Hub Login  Display nhung order lien quan toi hub do thoi</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bat Hub Login  Display nhung order lien quan toi hub do thoi</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer:
+Tiktak : 
+    Implement Return Plan.
+   Hệ thống tính toán expired khi nào 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -941,6 +1132,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,6 +1197,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1147,7 +1346,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1301,6 +1500,9 @@
     <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1313,8 +1515,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1469,72 +1674,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="71412352"/>
-        <c:axId val="71426432"/>
+        <c:axId val="50063616"/>
+        <c:axId val="49356800"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1574,64 +1778,64 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41344</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41345</c:v>
+                  <c:v>41366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41346</c:v>
+                  <c:v>41367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41347</c:v>
+                  <c:v>41368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41348</c:v>
+                  <c:v>41369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41349</c:v>
+                  <c:v>41370</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41350</c:v>
+                  <c:v>41371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41351</c:v>
+                  <c:v>41372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41352</c:v>
+                  <c:v>41373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41353</c:v>
+                  <c:v>41374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41354</c:v>
+                  <c:v>41375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41355</c:v>
+                  <c:v>41376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41356</c:v>
+                  <c:v>41377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41357</c:v>
+                  <c:v>41378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41358</c:v>
+                  <c:v>41379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41359</c:v>
+                  <c:v>41380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41360</c:v>
+                  <c:v>41381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41361</c:v>
+                  <c:v>41382</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41362</c:v>
+                  <c:v>41383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41363</c:v>
+                  <c:v>41384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,61 +1850,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,64 +1954,64 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41344</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41345</c:v>
+                  <c:v>41366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41346</c:v>
+                  <c:v>41367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41347</c:v>
+                  <c:v>41368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41348</c:v>
+                  <c:v>41369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41349</c:v>
+                  <c:v>41370</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41350</c:v>
+                  <c:v>41371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41351</c:v>
+                  <c:v>41372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41352</c:v>
+                  <c:v>41373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41353</c:v>
+                  <c:v>41374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41354</c:v>
+                  <c:v>41375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41355</c:v>
+                  <c:v>41376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41356</c:v>
+                  <c:v>41377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41357</c:v>
+                  <c:v>41378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41358</c:v>
+                  <c:v>41379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41359</c:v>
+                  <c:v>41380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41360</c:v>
+                  <c:v>41381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41361</c:v>
+                  <c:v>41382</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41362</c:v>
+                  <c:v>41383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41363</c:v>
+                  <c:v>41384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,64 +2023,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,64 +2158,64 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>41344</c:v>
+                  <c:v>41365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41345</c:v>
+                  <c:v>41366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41346</c:v>
+                  <c:v>41367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41347</c:v>
+                  <c:v>41368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41348</c:v>
+                  <c:v>41369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41349</c:v>
+                  <c:v>41370</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41350</c:v>
+                  <c:v>41371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41351</c:v>
+                  <c:v>41372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41352</c:v>
+                  <c:v>41373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41353</c:v>
+                  <c:v>41374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41354</c:v>
+                  <c:v>41375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41355</c:v>
+                  <c:v>41376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41356</c:v>
+                  <c:v>41377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41357</c:v>
+                  <c:v>41378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41358</c:v>
+                  <c:v>41379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41359</c:v>
+                  <c:v>41380</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41360</c:v>
+                  <c:v>41381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41361</c:v>
+                  <c:v>41382</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41362</c:v>
+                  <c:v>41383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41363</c:v>
+                  <c:v>41384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,64 +2227,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.08</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.08</c:v>
+                  <c:v>36.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,64 +2362,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.08</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.08</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.08</c:v>
+                  <c:v>3.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.08</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.08</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.08</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.08</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.08</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,11 +2429,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="71412352"/>
-        <c:axId val="71426432"/>
+        <c:axId val="50063616"/>
+        <c:axId val="49356800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71412352"/>
+        <c:axId val="50063616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,13 +2478,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71426432"/>
+        <c:crossAx val="49356800"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71426432"/>
+        <c:axId val="49356800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2493,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="71412352"/>
+        <c:crossAx val="50063616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2334,7 +2538,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2694,7 +2898,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B16:L108"/>
+  <autoFilter ref="B16:L108">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="10" name="#"/>
     <tableColumn id="1" name="ISSUE" dataDxfId="3"/>
@@ -2912,7 +3120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2926,15 +3134,15 @@
   </sheetPr>
   <dimension ref="B1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="3" max="3" width="64.5" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
@@ -2947,13 +3155,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
     <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2969,19 +3177,19 @@
       <c r="K2" s="19"/>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="7">
-        <v>41363</v>
+        <v>41384</v>
       </c>
       <c r="J3" s="17">
         <v>20</v>
@@ -3023,7 +3231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3056,7 +3264,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3089,7 +3297,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3122,7 +3330,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3155,7 +3363,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3188,7 +3396,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3221,7 +3429,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3253,7 +3461,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" customHeight="1">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3338,7 +3546,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3367,7 +3575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3393,7 +3601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" customHeight="1">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3441,7 +3649,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3473,7 +3681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" customHeight="1">
+    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3502,7 +3710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" customHeight="1">
+    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3521,8 +3729,12 @@
       <c r="G33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
@@ -3546,7 +3758,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3565,10 +3777,14 @@
       <c r="G35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:12" ht="30" customHeight="1">
+      <c r="H35" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3625,7 +3841,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" customHeight="1">
+    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3654,7 +3870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" customHeight="1">
+    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3683,7 +3899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3715,7 +3931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" customHeight="1">
+    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -3744,7 +3960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -3776,7 +3992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -3795,15 +4011,19 @@
       <c r="G43" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="32">
+        <v>41375</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
       <c r="L43" s="34">
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -3835,7 +4055,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" customHeight="1">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -3868,7 +4088,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -3900,7 +4120,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" customHeight="1">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -3919,8 +4139,12 @@
       <c r="G47" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="30"/>
+      <c r="H47" s="32">
+        <v>41375</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="J47" s="33"/>
       <c r="K47" s="33" t="s">
         <v>42</v>
@@ -3929,7 +4153,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" customHeight="1">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -3964,7 +4188,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" customHeight="1">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -3997,7 +4221,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" customHeight="1">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -4030,7 +4254,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" customHeight="1">
+    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4062,7 +4286,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" customHeight="1">
+    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4094,7 +4318,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4126,7 +4350,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4161,7 +4385,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" customHeight="1">
+    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4196,7 +4420,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" customHeight="1">
+    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4228,7 +4452,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" customHeight="1">
+    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4260,7 +4484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" customHeight="1">
+    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4279,8 +4503,12 @@
       <c r="G58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2"/>
+      <c r="H58" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="K58" s="14" t="s">
         <v>27</v>
       </c>
@@ -4310,7 +4538,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" customHeight="1">
+    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4336,7 +4564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" customHeight="1">
+    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4362,7 +4590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" customHeight="1">
+    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4435,7 +4663,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" customHeight="1">
+    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4454,10 +4682,14 @@
       <c r="G65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="2:11" ht="91.5" customHeight="1">
+      <c r="H65" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4476,10 +4708,14 @@
       <c r="G66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="2:11" ht="97.5" customHeight="1">
+      <c r="H66" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4508,7 +4744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" customHeight="1">
+    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4537,7 +4773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" customHeight="1">
+    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B69" s="48">
         <v>53</v>
       </c>
@@ -4566,7 +4802,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="30" customHeight="1">
+    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B70" s="2">
         <v>54</v>
       </c>
@@ -4592,7 +4828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" customHeight="1">
+    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B71" s="2">
         <v>55</v>
       </c>
@@ -4618,7 +4854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1">
+    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B72" s="2">
         <v>56</v>
       </c>
@@ -4644,7 +4880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" customHeight="1">
+    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -4670,7 +4906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" customHeight="1">
+    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -4721,7 +4957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" customHeight="1">
+    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -4750,7 +4986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" customHeight="1">
+    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -4779,267 +5015,653 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="30" customHeight="1">
-      <c r="B78" s="2"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="2"/>
+    <row r="78" spans="2:11" ht="84" customHeight="1">
+      <c r="B78" s="2">
+        <v>62</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="30" customHeight="1">
-      <c r="B79" s="2"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="2:11" ht="30" customHeight="1">
-      <c r="B80" s="2"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="2"/>
+    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1">
+      <c r="B79" s="2">
+        <v>63</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="62.25" customHeight="1">
+      <c r="B80" s="2">
+        <v>64</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:9" ht="30" customHeight="1">
-      <c r="B81" s="2"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="2:9" ht="30" customHeight="1">
-      <c r="B82" s="2"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="2:9" ht="30" customHeight="1">
-      <c r="B83" s="2"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="2:9" ht="30" customHeight="1">
-      <c r="B84" s="2"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="2"/>
+    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1">
+      <c r="B81" s="2">
+        <v>65</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1">
+      <c r="B82" s="2">
+        <v>66</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="3">
+        <v>41370</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1">
+      <c r="B83" s="2">
+        <v>67</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="57">
+        <v>41369</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="3">
+        <v>41370</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="67.5" customHeight="1">
+      <c r="B84" s="2">
+        <v>68</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:9" ht="30" customHeight="1">
-      <c r="B85" s="2"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="2"/>
+    <row r="85" spans="2:11" ht="96.75" customHeight="1">
+      <c r="B85" s="2">
+        <v>69</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H85" s="3"/>
       <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="2:9" ht="30" customHeight="1">
-      <c r="B86" s="2"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="2"/>
+      <c r="K85" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="58.5" customHeight="1">
+      <c r="B86" s="2">
+        <v>70</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="2:9" ht="30" customHeight="1">
-      <c r="B87" s="2"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="2"/>
+      <c r="K86" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="181.5" customHeight="1">
+      <c r="B87" s="2">
+        <v>71</v>
+      </c>
+      <c r="C87" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H87" s="3"/>
       <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="2:9" ht="30" customHeight="1">
-      <c r="B88" s="2"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="2:9" ht="30" customHeight="1">
-      <c r="B89" s="2"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="2"/>
+      <c r="K87" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1">
+      <c r="B88" s="2">
+        <v>72</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" s="3">
+        <v>41376</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="54.75" customHeight="1">
+      <c r="B89" s="2">
+        <v>73</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H89" s="3"/>
       <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="2:9" ht="30" customHeight="1">
-      <c r="B90" s="2"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="2"/>
+      <c r="K89" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="150" customHeight="1">
+      <c r="B90" s="2">
+        <v>74</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H90" s="3"/>
       <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="2:9" ht="30" customHeight="1">
-      <c r="B91" s="2"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="2"/>
+      <c r="K90" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="87.75" customHeight="1">
+      <c r="B91" s="2">
+        <v>75</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:9" ht="30" customHeight="1">
-      <c r="B92" s="2"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="2"/>
+    <row r="92" spans="2:11" ht="75" customHeight="1">
+      <c r="B92" s="2">
+        <v>76</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H92" s="3"/>
       <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="2:9" ht="30" customHeight="1">
-      <c r="B93" s="2"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="2:9" ht="30" customHeight="1">
-      <c r="B94" s="2"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="2:9" ht="30" customHeight="1">
-      <c r="B95" s="2"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="2"/>
+      <c r="K92" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1">
+      <c r="B93" s="2">
+        <v>77</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1">
+      <c r="B94" s="2">
+        <v>78</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" ht="78" customHeight="1">
+      <c r="B95" s="2">
+        <v>79</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:9" ht="30" customHeight="1">
-      <c r="B96" s="2"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="2"/>
+    <row r="96" spans="2:11" ht="61.5" customHeight="1">
+      <c r="B96" s="2">
+        <v>80</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H96" s="3"/>
       <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="2:9" ht="30" customHeight="1">
-      <c r="B97" s="2"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="2"/>
+      <c r="K96" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" ht="62.25" customHeight="1">
+      <c r="B97" s="2">
+        <v>81</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H97" s="3"/>
       <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="2:9" ht="30" customHeight="1">
-      <c r="B98" s="2"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="2"/>
+      <c r="K97" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" ht="50.25" customHeight="1">
+      <c r="B98" s="2">
+        <v>82</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H98" s="3"/>
       <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="2:9" ht="30" customHeight="1">
-      <c r="B99" s="2"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="2"/>
+      <c r="K98" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="48.75" customHeight="1">
+      <c r="B99" s="2">
+        <v>83</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="2:9" ht="30" customHeight="1">
-      <c r="B100" s="2"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="2"/>
+      <c r="K99" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" ht="97.5" customHeight="1">
+      <c r="B100" s="2">
+        <v>84</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="2:9" ht="30" customHeight="1">
-      <c r="B101" s="2"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="2"/>
+      <c r="K100" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="56.25" customHeight="1">
+      <c r="B101" s="2">
+        <v>85</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="2:9" ht="30" customHeight="1">
-      <c r="B102" s="2"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="2"/>
+      <c r="K101" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="108.75" customHeight="1">
+      <c r="B102" s="2">
+        <v>86</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="57">
+        <v>41373</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="H102" s="3"/>
       <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="2:9" ht="30" customHeight="1">
-      <c r="B103" s="2"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="2:9" ht="30" customHeight="1">
+      <c r="K102" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1">
+      <c r="B103" s="2">
+        <v>87</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="57">
+        <v>41374</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H103" s="3">
+        <v>41374</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="30" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="13"/>
       <c r="D104" s="2"/>
@@ -5049,7 +5671,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:9" ht="30" customHeight="1">
+    <row r="105" spans="2:11" ht="30" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="13"/>
       <c r="D105" s="2"/>
@@ -5059,7 +5681,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:9" ht="30" customHeight="1">
+    <row r="106" spans="2:11" ht="30" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="13"/>
       <c r="D106" s="2"/>
@@ -5069,7 +5691,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:9" ht="30" customHeight="1">
+    <row r="107" spans="2:11" ht="30" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="13"/>
       <c r="D107" s="2"/>
@@ -5079,7 +5701,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:9" ht="30" customHeight="1">
+    <row r="108" spans="2:11" ht="30" customHeight="1">
       <c r="C108" s="14"/>
       <c r="E108" s="11"/>
       <c r="F108" s="4"/>
@@ -5162,7 +5784,7 @@
       </c>
       <c r="J8" s="1">
         <f>'Issue Tracker'!I3</f>
-        <v>41363</v>
+        <v>41384</v>
       </c>
       <c r="N8">
         <f ca="1">COUNT(typesUnsorted)</f>
@@ -5175,7 +5797,7 @@
       </c>
       <c r="J9" t="str">
         <f>'Issue Tracker'!G3</f>
-        <v>Plan</v>
+        <v>*</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -5200,7 +5822,7 @@
     <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <f>COUNTA(O16:O45)-COUNTIF(O16:O45,NA())</f>
@@ -5250,7 +5872,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ref="H16:H47" si="0">keydate-days+G16</f>
-        <v>41344</v>
+        <v>41365</v>
       </c>
       <c r="I16">
         <f>I15+COUNTIFS(issues[OPENED ON],H16,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5258,7 +5880,7 @@
       </c>
       <c r="J16">
         <f>J15+COUNTIFS(issues[CLOSED ON],H16,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="str">
         <f t="array" ref="N16">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N15, issues[TYPE]),0))</f>
@@ -5283,15 +5905,15 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>41345</v>
+        <v>41366</v>
       </c>
       <c r="I17">
         <f>I16+COUNTIFS(issues[OPENED ON],H17,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <f>J16+COUNTIFS(issues[CLOSED ON],H17,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="str">
         <f t="array" ref="N17">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N16, issues[TYPE]),0))</f>
@@ -5316,15 +5938,15 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>41346</v>
+        <v>41367</v>
       </c>
       <c r="I18">
         <f>I17+COUNTIFS(issues[OPENED ON],H18,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <f>J17+COUNTIFS(issues[CLOSED ON],H18,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="str">
         <f t="array" ref="N18">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N17, issues[TYPE]),0))</f>
@@ -5349,15 +5971,15 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>41347</v>
+        <v>41368</v>
       </c>
       <c r="I19">
         <f>I18+COUNTIFS(issues[OPENED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <f>J18+COUNTIFS(issues[CLOSED ON],H19,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="str">
         <f t="array" ref="N19">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N18, issues[TYPE]),0))</f>
@@ -5382,15 +6004,15 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>41348</v>
+        <v>41369</v>
       </c>
       <c r="I20">
         <f>I19+COUNTIFS(issues[OPENED ON],H20,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <f>J19+COUNTIFS(issues[CLOSED ON],H20,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" t="str">
         <f t="array" ref="N20">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N19, issues[TYPE]),0))</f>
@@ -5402,7 +6024,7 @@
       </c>
       <c r="S20" t="str">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(5:5)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Hub</v>
+        <v>General</v>
       </c>
       <c r="T20" t="str">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(5:5)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5415,15 +6037,15 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>41349</v>
+        <v>41370</v>
       </c>
       <c r="I21">
         <f>I20+COUNTIFS(issues[OPENED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21">
         <f>J20+COUNTIFS(issues[CLOSED ON],H21,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="str">
         <f t="array" ref="N21">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N20, issues[TYPE]),0))</f>
@@ -5435,7 +6057,7 @@
       </c>
       <c r="S21" t="str">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(6:6)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Layout</v>
+        <v>Hub</v>
       </c>
       <c r="T21" t="e">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(6:6)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5448,15 +6070,15 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>41350</v>
+        <v>41371</v>
       </c>
       <c r="I22">
         <f>I21+COUNTIFS(issues[OPENED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J22">
         <f>J21+COUNTIFS(issues[CLOSED ON],H22,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" t="str">
         <f t="array" ref="N22">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N21, issues[TYPE]),0))</f>
@@ -5468,7 +6090,7 @@
       </c>
       <c r="S22" t="str">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(7:7)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Notifications</v>
+        <v>Layout</v>
       </c>
       <c r="T22" t="e">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(7:7)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5481,19 +6103,19 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>41351</v>
+        <v>41372</v>
       </c>
       <c r="I23">
         <f>I22+COUNTIFS(issues[OPENED ON],H23,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <f>J22+COUNTIFS(issues[CLOSED ON],H23,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="N23" t="str">
         <f t="array" ref="N23">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N22, issues[TYPE]),0))</f>
-        <v>0</v>
+        <v>General</v>
       </c>
       <c r="O23" t="e">
         <f t="array" ref="O23">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O22,issues[PRIORITY]),0))</f>
@@ -5501,7 +6123,7 @@
       </c>
       <c r="S23" t="str">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(8:8)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Plan</v>
+        <v>Notifications</v>
       </c>
       <c r="T23" t="e">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(8:8)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5514,19 +6136,19 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>41352</v>
+        <v>41373</v>
       </c>
       <c r="I24">
         <f>I23+COUNTIFS(issues[OPENED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J24">
         <f>J23+COUNTIFS(issues[CLOSED ON],H24,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>1</v>
-      </c>
-      <c r="N24" t="e">
+        <v>4</v>
+      </c>
+      <c r="N24">
         <f t="array" ref="N24">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N23, issues[TYPE]),0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="O24" t="e">
         <f t="array" ref="O24">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O23,issues[PRIORITY]),0))</f>
@@ -5534,7 +6156,7 @@
       </c>
       <c r="S24" t="str">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(9:9)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>Tiktak</v>
+        <v>Plan</v>
       </c>
       <c r="T24" t="e">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(9:9)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5547,15 +6169,15 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>41353</v>
+        <v>41374</v>
       </c>
       <c r="I25">
         <f>I24+COUNTIFS(issues[OPENED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J25">
         <f>J24+COUNTIFS(issues[CLOSED ON],H25,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N25" t="e">
         <f t="array" ref="N25">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N24, issues[TYPE]),0))</f>
@@ -5565,9 +6187,9 @@
         <f t="array" ref="O25">INDEX(issues[PRIORITY],MATCH(0,COUNTIF(O$15:O24,issues[PRIORITY]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="S25" t="e">
+      <c r="S25" t="str">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(typesUnsorted, MATCH(SMALL(COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), ROW(10:10)), COUNTIF(typesUnsorted, "&lt;"&amp;typesUnsorted), 0))</f>
-        <v>#NUM!</v>
+        <v>Tiktak</v>
       </c>
       <c r="T25" t="e">
         <f t="array" aca="1" ref="T25" ca="1">INDEX(prioritiesUnsorted, MATCH(SMALL(COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), ROW(10:10)), COUNTIF(prioritiesUnsorted, "&lt;"&amp;prioritiesUnsorted), 0))</f>
@@ -5580,15 +6202,15 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>41354</v>
+        <v>41375</v>
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N25, issues[TYPE]),0))</f>
@@ -5613,15 +6235,15 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>41355</v>
+        <v>41376</v>
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -5646,15 +6268,15 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>41356</v>
+        <v>41377</v>
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -5679,15 +6301,15 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>41357</v>
+        <v>41378</v>
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -5712,15 +6334,15 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>41358</v>
+        <v>41379</v>
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -5745,15 +6367,15 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>41359</v>
+        <v>41380</v>
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -5778,15 +6400,15 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>41360</v>
+        <v>41381</v>
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -5811,15 +6433,15 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>41361</v>
+        <v>41382</v>
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -5844,15 +6466,15 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>41362</v>
+        <v>41383</v>
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -5877,15 +6499,15 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>41363</v>
+        <v>41384</v>
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -5910,15 +6532,15 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>41364</v>
+        <v>41385</v>
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -5943,15 +6565,15 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>41365</v>
+        <v>41386</v>
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -5976,7 +6598,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>41366</v>
+        <v>41387</v>
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -5984,7 +6606,7 @@
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -6009,7 +6631,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>41367</v>
+        <v>41388</v>
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6017,7 +6639,7 @@
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -6042,7 +6664,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>41368</v>
+        <v>41389</v>
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6050,7 +6672,7 @@
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -6075,7 +6697,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>41369</v>
+        <v>41390</v>
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6083,7 +6705,7 @@
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -6108,7 +6730,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>41370</v>
+        <v>41391</v>
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6116,7 +6738,7 @@
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -6141,7 +6763,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>41371</v>
+        <v>41392</v>
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6149,7 +6771,7 @@
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -6174,7 +6796,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>41372</v>
+        <v>41393</v>
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6182,7 +6804,7 @@
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -6207,7 +6829,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>41373</v>
+        <v>41394</v>
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6215,7 +6837,7 @@
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -6240,7 +6862,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>41374</v>
+        <v>41395</v>
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6248,7 +6870,7 @@
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="7:20">
@@ -6257,7 +6879,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>41375</v>
+        <v>41396</v>
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6265,7 +6887,7 @@
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="7:20">
@@ -6274,7 +6896,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ref="H48:H79" si="1">keydate-days+G48</f>
-        <v>41376</v>
+        <v>41397</v>
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6282,7 +6904,7 @@
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -6291,7 +6913,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="1"/>
-        <v>41377</v>
+        <v>41398</v>
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6299,7 +6921,7 @@
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -6308,7 +6930,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="1"/>
-        <v>41378</v>
+        <v>41399</v>
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6316,7 +6938,7 @@
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -6325,7 +6947,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="1"/>
-        <v>41379</v>
+        <v>41400</v>
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6333,7 +6955,7 @@
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -6342,7 +6964,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="1"/>
-        <v>41380</v>
+        <v>41401</v>
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6350,7 +6972,7 @@
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -6359,7 +6981,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="1"/>
-        <v>41381</v>
+        <v>41402</v>
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6367,7 +6989,7 @@
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -6376,7 +6998,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="1"/>
-        <v>41382</v>
+        <v>41403</v>
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6384,7 +7006,7 @@
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -6393,7 +7015,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>41383</v>
+        <v>41404</v>
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6401,7 +7023,7 @@
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -6410,7 +7032,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="1"/>
-        <v>41384</v>
+        <v>41405</v>
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6418,7 +7040,7 @@
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -6427,7 +7049,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="1"/>
-        <v>41385</v>
+        <v>41406</v>
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6435,7 +7057,7 @@
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -6444,7 +7066,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="1"/>
-        <v>41386</v>
+        <v>41407</v>
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6452,7 +7074,7 @@
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -6461,7 +7083,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="1"/>
-        <v>41387</v>
+        <v>41408</v>
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6469,7 +7091,7 @@
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -6478,7 +7100,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="1"/>
-        <v>41388</v>
+        <v>41409</v>
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6486,7 +7108,7 @@
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -6495,7 +7117,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="1"/>
-        <v>41389</v>
+        <v>41410</v>
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6503,7 +7125,7 @@
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -6512,7 +7134,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="1"/>
-        <v>41390</v>
+        <v>41411</v>
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6520,7 +7142,7 @@
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -6529,7 +7151,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" si="1"/>
-        <v>41391</v>
+        <v>41412</v>
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6537,7 +7159,7 @@
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -6546,7 +7168,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" si="1"/>
-        <v>41392</v>
+        <v>41413</v>
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6554,7 +7176,7 @@
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -6563,7 +7185,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="1"/>
-        <v>41393</v>
+        <v>41414</v>
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6571,7 +7193,7 @@
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -6580,7 +7202,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="1"/>
-        <v>41394</v>
+        <v>41415</v>
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6588,7 +7210,7 @@
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -6597,7 +7219,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" si="1"/>
-        <v>41395</v>
+        <v>41416</v>
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6605,7 +7227,7 @@
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -6614,7 +7236,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" si="1"/>
-        <v>41396</v>
+        <v>41417</v>
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6622,7 +7244,7 @@
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -6631,7 +7253,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" si="1"/>
-        <v>41397</v>
+        <v>41418</v>
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6639,7 +7261,7 @@
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -6648,7 +7270,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="1"/>
-        <v>41398</v>
+        <v>41419</v>
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6656,7 +7278,7 @@
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -6665,7 +7287,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" si="1"/>
-        <v>41399</v>
+        <v>41420</v>
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6673,7 +7295,7 @@
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -6682,7 +7304,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" si="1"/>
-        <v>41400</v>
+        <v>41421</v>
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6690,7 +7312,7 @@
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -6699,7 +7321,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" si="1"/>
-        <v>41401</v>
+        <v>41422</v>
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6707,7 +7329,7 @@
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -6716,7 +7338,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" si="1"/>
-        <v>41402</v>
+        <v>41423</v>
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6724,7 +7346,7 @@
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -6733,7 +7355,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" si="1"/>
-        <v>41403</v>
+        <v>41424</v>
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6741,7 +7363,7 @@
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -6750,7 +7372,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" si="1"/>
-        <v>41404</v>
+        <v>41425</v>
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6758,7 +7380,7 @@
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -6767,7 +7389,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" si="1"/>
-        <v>41405</v>
+        <v>41426</v>
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6775,7 +7397,7 @@
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -6784,7 +7406,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" si="1"/>
-        <v>41406</v>
+        <v>41427</v>
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6792,7 +7414,7 @@
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -6801,7 +7423,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" si="1"/>
-        <v>41407</v>
+        <v>41428</v>
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6809,7 +7431,7 @@
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -6818,7 +7440,7 @@
       </c>
       <c r="H80" s="1">
         <f>keydate-days+G80</f>
-        <v>41408</v>
+        <v>41429</v>
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6826,7 +7448,7 @@
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6837,10 +7459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6910,7 +7532,15 @@
         <v>41376</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="276" customHeight="1">
+      <c r="A14" s="1">
+        <v>41380</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6950,7 +7580,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B54" t="s">

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -31,9 +36,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="175">
   <si>
     <t>Type</t>
   </si>
@@ -923,11 +928,6 @@
 - bỏ dấu * ở field Address or nếu ko nhập thì fải bắt validate</t>
   </si>
   <si>
-    <t>Create Order_x000D_
-- tạo nhiều order với các kiểu deliverytype và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu delivery type, payment type _x000D_
-=&gt; sửa lại, khi insert xuống database, user order theo delivery type và payment type nào thì insert đúng kiểu đó</t>
-  </si>
-  <si>
     <t>Add existing order into request_x000D_
 - check các order muốn add để tạo request -&gt; button Add to Request chưa thực hiện gì cả</t>
   </si>
@@ -1007,12 +1007,56 @@
    Hệ thống tính toán expired khi nào 
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Tạo Delivery Plan thì bị double plan ? </t>
+  </si>
+  <si>
+    <t>Create Order_x000D_
+- tạo nhiều order với các kiểu deliveryoption và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu deliveryoption, payment type _x000D_
+=&gt; sửa lại, khi insert xuống database, user order theo delivery option và payment type nào thì insert đúng kiểu đó</t>
+  </si>
+  <si>
+    <t>Create Product screen,on Enable column checkbox must check if Active checkbox in Create Product pop up screen was checked and vice versa</t>
+  </si>
+  <si>
+    <t>when click Edit button then click Save button and continue clicking Edit button again.Don't click Edit button again</t>
+  </si>
+  <si>
+    <t>In Create Product pop-up screen, uncheck Active checkbox.Then click Create.Create Product screen,on Enable column checkbox is check</t>
+  </si>
+  <si>
+    <t>When input so many value into fileds and click Save button .Create Product screen don't display well(be malformed)</t>
+  </si>
+  <si>
+    <t>validate Price field only interger.</t>
+  </si>
+  <si>
+    <t>In pop up screen , Require fields haven't added * yet.</t>
+  </si>
+  <si>
+    <t>pop up screen needn't scroll</t>
+  </si>
+  <si>
+    <t>haven't limited the characters yet which user input.</t>
+  </si>
+  <si>
+    <t>haven't formatted price on Menu table yet</t>
+  </si>
+  <si>
+    <t>haven't formatted price in Create Product screen yet</t>
+  </si>
+  <si>
+    <t>user can change price on browser</t>
+  </si>
+  <si>
+    <t>haven't formatted quantity on Cart Add table yet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -1503,6 +1547,12 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,12 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1534,7 +1578,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1548,7 +1592,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1631,7 +1675,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1648,6 +1702,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1704,44 +1759,53 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50063616"/>
-        <c:axId val="49356800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="269066864"/>
+        <c:axId val="269067424"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1877,38 +1941,39 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2053,38 +2118,39 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2131,9 +2197,16 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2227,68 +2300,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>1.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.4</c:v>
+                  <c:v>10.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.4</c:v>
+                  <c:v>10.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.4</c:v>
+                  <c:v>10.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.4</c:v>
+                  <c:v>35.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.4</c:v>
+                  <c:v>36.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.4</c:v>
+                  <c:v>49.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2335,9 +2409,16 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2362,81 +2443,89 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4</c:v>
+                  <c:v>5.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>23.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.399999999999999</c:v>
+                  <c:v>24.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="50063616"/>
-        <c:axId val="49356800"/>
+        <c:smooth val="0"/>
+        <c:axId val="269066864"/>
+        <c:axId val="269067424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50063616"/>
+        <c:axId val="269066864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2452,6 +2541,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2478,13 +2569,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49356800"/>
+        <c:crossAx val="269067424"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49356800"/>
+        <c:axId val="269067424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,8 +2584,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="50063616"/>
+        <c:crossAx val="269066864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2517,6 +2610,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2897,8 +2991,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L108" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B16:L108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="issues" displayName="issues" ref="B16:L123" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B16:L123">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
@@ -3120,25 +3214,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L108"/>
+  <dimension ref="B1:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3153,15 +3247,15 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -3176,12 +3270,12 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3290,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3231,7 +3325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3264,7 +3358,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3297,7 +3391,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3330,7 +3424,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3363,7 +3457,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3396,7 +3490,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3429,7 +3523,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3461,7 +3555,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3490,7 +3584,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42">
         <v>9</v>
       </c>
@@ -3519,7 +3613,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="42">
         <v>10</v>
       </c>
@@ -3546,7 +3640,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3575,7 +3669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3601,7 +3695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3627,7 +3721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3649,7 +3743,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3681,7 +3775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1">
+    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3710,7 +3804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1">
+    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3736,7 +3830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3758,7 +3852,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3784,7 +3878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3816,7 +3910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3841,7 +3935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3870,7 +3964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3899,7 +3993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3931,7 +4025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -3960,7 +4054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -3992,7 +4086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -4023,7 +4117,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -4055,7 +4149,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -4088,7 +4182,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -4120,7 +4214,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -4153,7 +4247,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -4188,7 +4282,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -4221,7 +4315,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -4254,7 +4348,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1">
+    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4286,7 +4380,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1">
+    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4318,7 +4412,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4350,7 +4444,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4385,7 +4479,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1">
+    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4420,7 +4514,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1">
+    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4452,7 +4546,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4484,7 +4578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1">
+    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4516,7 +4610,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="114" customHeight="1">
+    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>43</v>
       </c>
@@ -4538,7 +4632,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1">
+    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4564,7 +4658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1">
+    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4590,7 +4684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1">
+    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4616,7 +4710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="63.75" customHeight="1">
+    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>47</v>
       </c>
@@ -4641,7 +4735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="99.75" customHeight="1">
+    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>48</v>
       </c>
@@ -4663,7 +4757,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1">
+    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4689,7 +4783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1">
+    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4715,7 +4809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1">
+    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4744,7 +4838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4773,7 +4867,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48">
         <v>53</v>
       </c>
@@ -4802,7 +4896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>54</v>
       </c>
@@ -4828,7 +4922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>55</v>
       </c>
@@ -4854,7 +4948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>56</v>
       </c>
@@ -4880,7 +4974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1">
+    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -4906,7 +5000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1">
+    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -4932,7 +5026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="76.5" customHeight="1">
+    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>59</v>
       </c>
@@ -4957,7 +5051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1">
+    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -4986,7 +5080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1">
+    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -5015,7 +5109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="84" customHeight="1">
+    <row r="78" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>62</v>
       </c>
@@ -5028,7 +5122,7 @@
       <c r="E78" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="53">
         <v>41369</v>
       </c>
       <c r="G78" s="13" t="s">
@@ -5037,7 +5131,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1">
+    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>63</v>
       </c>
@@ -5050,7 +5144,7 @@
       <c r="E79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F79" s="57">
+      <c r="F79" s="53">
         <v>41369</v>
       </c>
       <c r="G79" s="13" t="s">
@@ -5063,7 +5157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="62.25" customHeight="1">
+    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>64</v>
       </c>
@@ -5076,7 +5170,7 @@
       <c r="E80" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="53">
         <v>41369</v>
       </c>
       <c r="G80" s="13" t="s">
@@ -5085,7 +5179,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1">
+    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>65</v>
       </c>
@@ -5098,7 +5192,7 @@
       <c r="E81" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F81" s="57">
+      <c r="F81" s="53">
         <v>41369</v>
       </c>
       <c r="G81" s="13" t="s">
@@ -5111,7 +5205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1">
+    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>66</v>
       </c>
@@ -5124,7 +5218,7 @@
       <c r="E82" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="57">
+      <c r="F82" s="53">
         <v>41369</v>
       </c>
       <c r="G82" s="13" t="s">
@@ -5137,7 +5231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1">
+    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>67</v>
       </c>
@@ -5150,7 +5244,7 @@
       <c r="E83" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="57">
+      <c r="F83" s="53">
         <v>41369</v>
       </c>
       <c r="G83" s="13" t="s">
@@ -5163,7 +5257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="67.5" customHeight="1">
+    <row r="84" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>68</v>
       </c>
@@ -5176,7 +5270,7 @@
       <c r="E84" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="57">
+      <c r="F84" s="53">
         <v>41373</v>
       </c>
       <c r="G84" s="13" t="s">
@@ -5185,7 +5279,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:11" ht="96.75" customHeight="1">
+    <row r="85" spans="2:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>69</v>
       </c>
@@ -5198,7 +5292,7 @@
       <c r="E85" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="57">
+      <c r="F85" s="53">
         <v>41373</v>
       </c>
       <c r="G85" s="13" t="s">
@@ -5210,7 +5304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="58.5" customHeight="1">
+    <row r="86" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>70</v>
       </c>
@@ -5223,7 +5317,7 @@
       <c r="E86" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F86" s="57">
+      <c r="F86" s="53">
         <v>41373</v>
       </c>
       <c r="G86" s="13" t="s">
@@ -5235,11 +5329,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="181.5" customHeight="1">
+    <row r="87" spans="2:11" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>71</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="52" t="s">
         <v>142</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -5248,7 +5342,7 @@
       <c r="E87" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="57">
+      <c r="F87" s="53">
         <v>41373</v>
       </c>
       <c r="G87" s="13" t="s">
@@ -5260,7 +5354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1">
+    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>72</v>
       </c>
@@ -5273,7 +5367,7 @@
       <c r="E88" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="57">
+      <c r="F88" s="53">
         <v>41373</v>
       </c>
       <c r="G88" s="13" t="s">
@@ -5286,7 +5380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="54.75" customHeight="1">
+    <row r="89" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>73</v>
       </c>
@@ -5299,7 +5393,7 @@
       <c r="E89" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="57">
+      <c r="F89" s="53">
         <v>41373</v>
       </c>
       <c r="G89" s="13" t="s">
@@ -5311,7 +5405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="150" customHeight="1">
+    <row r="90" spans="2:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>74</v>
       </c>
@@ -5324,7 +5418,7 @@
       <c r="E90" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="53">
         <v>41373</v>
       </c>
       <c r="G90" s="13" t="s">
@@ -5336,7 +5430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="87.75" customHeight="1">
+    <row r="91" spans="2:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>75</v>
       </c>
@@ -5349,7 +5443,7 @@
       <c r="E91" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="53">
         <v>41373</v>
       </c>
       <c r="G91" s="13" t="s">
@@ -5358,7 +5452,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="75" customHeight="1">
+    <row r="92" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>76</v>
       </c>
@@ -5371,7 +5465,7 @@
       <c r="E92" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="53">
         <v>41373</v>
       </c>
       <c r="G92" s="13" t="s">
@@ -5383,7 +5477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1">
+    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>77</v>
       </c>
@@ -5396,7 +5490,7 @@
       <c r="E93" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="57">
+      <c r="F93" s="53">
         <v>41373</v>
       </c>
       <c r="G93" s="13" t="s">
@@ -5409,7 +5503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1">
+    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>78</v>
       </c>
@@ -5422,7 +5516,7 @@
       <c r="E94" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F94" s="57">
+      <c r="F94" s="53">
         <v>41373</v>
       </c>
       <c r="G94" s="13" t="s">
@@ -5435,7 +5529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="78" customHeight="1">
+    <row r="95" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>79</v>
       </c>
@@ -5448,7 +5542,7 @@
       <c r="E95" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F95" s="57">
+      <c r="F95" s="53">
         <v>41373</v>
       </c>
       <c r="G95" s="13" t="s">
@@ -5457,7 +5551,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="61.5" customHeight="1">
+    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>80</v>
       </c>
@@ -5470,19 +5564,23 @@
       <c r="E96" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F96" s="57">
+      <c r="F96" s="53">
         <v>41373</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="2"/>
+      <c r="H96" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K96" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="62.25" customHeight="1">
+    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>81</v>
       </c>
@@ -5495,19 +5593,23 @@
       <c r="E97" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F97" s="57">
+      <c r="F97" s="53">
         <v>41373</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="2"/>
+      <c r="H97" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K97" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="50.25" customHeight="1">
+    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>82</v>
       </c>
@@ -5520,19 +5622,23 @@
       <c r="E98" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F98" s="57">
+      <c r="F98" s="53">
         <v>41373</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="2"/>
+      <c r="H98" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K98" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="48.75" customHeight="1">
+    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>83</v>
       </c>
@@ -5545,19 +5651,23 @@
       <c r="E99" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="57">
+      <c r="F99" s="53">
         <v>41373</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="2"/>
+      <c r="H99" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K99" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="97.5" customHeight="1">
+    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>84</v>
       </c>
@@ -5570,19 +5680,23 @@
       <c r="E100" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="57">
+      <c r="F100" s="53">
         <v>41373</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="2"/>
+      <c r="H100" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K100" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="56.25" customHeight="1">
+    <row r="101" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>85</v>
       </c>
@@ -5595,7 +5709,7 @@
       <c r="E101" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F101" s="57">
+      <c r="F101" s="53">
         <v>41373</v>
       </c>
       <c r="G101" s="13" t="s">
@@ -5607,12 +5721,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="108.75" customHeight="1">
+    <row r="102" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>86</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>39</v>
@@ -5620,7 +5734,7 @@
       <c r="E102" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F102" s="57">
+      <c r="F102" s="53">
         <v>41373</v>
       </c>
       <c r="G102" s="13" t="s">
@@ -5632,12 +5746,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1">
+    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>87</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>34</v>
@@ -5645,7 +5759,7 @@
       <c r="E103" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F103" s="57">
+      <c r="F103" s="53">
         <v>41374</v>
       </c>
       <c r="G103" s="13" t="s">
@@ -5658,55 +5772,375 @@
         <v>27</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" ht="30" customHeight="1">
-      <c r="B104" s="2"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="2:11" ht="30" customHeight="1">
-      <c r="B105" s="2"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="2"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>87</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="3">
+        <v>41375</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>87</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:11" ht="30" customHeight="1">
-      <c r="B106" s="2"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="2"/>
+    <row r="106" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>88</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:11" ht="30" customHeight="1">
-      <c r="B107" s="2"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="2"/>
+    <row r="107" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>89</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:11" ht="30" customHeight="1">
-      <c r="C108" s="14"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="4"/>
+    <row r="108" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2">
+        <v>90</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
+        <v>91</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>92</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>93</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>94</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>95</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <v>96</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>97</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>98</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="14"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="14"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5737,25 +6171,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -5763,13 +6197,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -5778,7 +6212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -5791,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -5800,7 +6234,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -5809,7 +6243,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -5819,7 +6253,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>9</v>
@@ -5835,7 +6269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -5858,7 +6292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -5866,7 +6300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -5899,7 +6333,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -5932,7 +6366,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -5965,7 +6399,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -5998,7 +6432,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -6031,7 +6465,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -6064,7 +6498,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -6097,7 +6531,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -6130,7 +6564,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -6163,7 +6597,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -6196,7 +6630,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -6206,11 +6640,11 @@
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N26" t="e">
         <f t="array" ref="N26">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N25, issues[TYPE]),0))</f>
@@ -6229,7 +6663,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -6239,11 +6673,11 @@
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -6262,7 +6696,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -6272,11 +6706,11 @@
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -6295,7 +6729,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -6305,11 +6739,11 @@
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -6328,7 +6762,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -6338,11 +6772,11 @@
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -6361,7 +6795,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -6371,11 +6805,11 @@
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -6394,7 +6828,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -6404,11 +6838,11 @@
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -6427,7 +6861,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -6437,11 +6871,11 @@
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -6460,7 +6894,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -6470,11 +6904,11 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -6493,7 +6927,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -6503,11 +6937,11 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -6526,7 +6960,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -6536,11 +6970,11 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -6559,7 +6993,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -6569,11 +7003,11 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -6592,7 +7026,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -6602,11 +7036,11 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -6625,7 +7059,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -6635,11 +7069,11 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -6658,7 +7092,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -6668,11 +7102,11 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -6691,7 +7125,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -6701,11 +7135,11 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -6724,7 +7158,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -6734,11 +7168,11 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -6757,7 +7191,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -6767,11 +7201,11 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -6790,7 +7224,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -6800,11 +7234,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -6823,7 +7257,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -6833,11 +7267,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -6856,7 +7290,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -6866,14 +7300,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -6883,14 +7317,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -6900,14 +7334,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -6917,14 +7351,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -6934,14 +7368,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -6951,14 +7385,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -6968,14 +7402,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -6985,14 +7419,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -7002,14 +7436,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -7019,14 +7453,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -7036,14 +7470,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -7053,14 +7487,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -7070,14 +7504,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -7087,14 +7521,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -7104,14 +7538,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -7121,14 +7555,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -7138,14 +7572,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -7155,14 +7589,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -7172,14 +7606,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -7189,14 +7623,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -7206,14 +7640,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -7223,14 +7657,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -7240,14 +7674,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -7257,14 +7691,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -7274,14 +7708,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -7291,14 +7725,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -7308,14 +7742,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -7325,14 +7759,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -7342,14 +7776,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -7359,14 +7793,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -7376,14 +7810,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -7393,14 +7827,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -7410,14 +7844,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -7427,14 +7861,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -7444,11 +7878,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7458,20 +7892,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -7479,7 +7913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1">
+    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -7487,15 +7921,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
@@ -7503,7 +7937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="219" customHeight="1">
+    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41366</v>
       </c>
@@ -7511,7 +7945,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141.75">
+    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
@@ -7519,7 +7953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="96" customHeight="1">
+    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41372</v>
       </c>
@@ -7527,20 +7961,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="284.25" customHeight="1">
+    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41376</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="276" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41380</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7550,20 +7984,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -7571,7 +8005,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -7579,7 +8013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
         <v>126</v>
       </c>
@@ -7587,7 +8021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -7595,7 +8029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5">
+    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -36,9 +31,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="176">
   <si>
     <t>Type</t>
   </si>
@@ -1001,62 +996,66 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Tạo Delivery Plan thì bị double plan ? </t>
+  </si>
+  <si>
+    <t>Create Order_x000D_
+- tạo nhiều order với các kiểu deliveryoption và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu deliveryoption, payment type _x000D_
+=&gt; sửa lại, khi insert xuống database, user order theo delivery option và payment type nào thì insert đúng kiểu đó</t>
+  </si>
+  <si>
+    <t>Create Product screen,on Enable column checkbox must check if Active checkbox in Create Product pop up screen was checked and vice versa</t>
+  </si>
+  <si>
+    <t>when click Edit button then click Save button and continue clicking Edit button again.Don't click Edit button again</t>
+  </si>
+  <si>
+    <t>In Create Product pop-up screen, uncheck Active checkbox.Then click Create.Create Product screen,on Enable column checkbox is check</t>
+  </si>
+  <si>
+    <t>When input so many value into fileds and click Save button .Create Product screen don't display well(be malformed)</t>
+  </si>
+  <si>
+    <t>validate Price field only interger.</t>
+  </si>
+  <si>
+    <t>In pop up screen , Require fields haven't added * yet.</t>
+  </si>
+  <si>
+    <t>pop up screen needn't scroll</t>
+  </si>
+  <si>
+    <t>haven't limited the characters yet which user input.</t>
+  </si>
+  <si>
+    <t>haven't formatted price on Menu table yet</t>
+  </si>
+  <si>
+    <t>haven't formatted price in Create Product screen yet</t>
+  </si>
+  <si>
+    <t>user can change price on browser</t>
+  </si>
+  <si>
+    <t>haven't formatted quantity on Cart Add table yet</t>
+  </si>
+  <si>
     <t xml:space="preserve">Customer:
 Tiktak : 
     Implement Return Plan.
    Hệ thống tính toán expired khi nào 
+   H
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tạo Delivery Plan thì bị double plan ? </t>
-  </si>
-  <si>
-    <t>Create Order_x000D_
-- tạo nhiều order với các kiểu deliveryoption và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu deliveryoption, payment type _x000D_
-=&gt; sửa lại, khi insert xuống database, user order theo delivery option và payment type nào thì insert đúng kiểu đó</t>
-  </si>
-  <si>
-    <t>Create Product screen,on Enable column checkbox must check if Active checkbox in Create Product pop up screen was checked and vice versa</t>
-  </si>
-  <si>
-    <t>when click Edit button then click Save button and continue clicking Edit button again.Don't click Edit button again</t>
-  </si>
-  <si>
-    <t>In Create Product pop-up screen, uncheck Active checkbox.Then click Create.Create Product screen,on Enable column checkbox is check</t>
-  </si>
-  <si>
-    <t>When input so many value into fileds and click Save button .Create Product screen don't display well(be malformed)</t>
-  </si>
-  <si>
-    <t>validate Price field only interger.</t>
-  </si>
-  <si>
-    <t>In pop up screen , Require fields haven't added * yet.</t>
-  </si>
-  <si>
-    <t>pop up screen needn't scroll</t>
-  </si>
-  <si>
-    <t>haven't limited the characters yet which user input.</t>
-  </si>
-  <si>
-    <t>haven't formatted price on Menu table yet</t>
-  </si>
-  <si>
-    <t>haven't formatted price in Create Product screen yet</t>
-  </si>
-  <si>
-    <t>user can change price on browser</t>
-  </si>
-  <si>
-    <t>haven't formatted quantity on Cart Add table yet</t>
+    <t>Khi tao request -&gt; Tao Order -&gt; thi khi refresh lai page order chua hien thi ra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -1578,7 +1577,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1592,7 +1591,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1675,17 +1674,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1702,7 +1691,6 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1792,20 +1780,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="269066864"/>
-        <c:axId val="269067424"/>
+        <c:dLbls/>
+        <c:axId val="69118592"/>
+        <c:axId val="69128576"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1973,7 +1953,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2150,7 +2129,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2197,13 +2175,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2362,7 +2334,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2409,13 +2380,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -2505,27 +2470,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="269066864"/>
-        <c:axId val="269067424"/>
+        <c:axId val="69118592"/>
+        <c:axId val="69128576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="269066864"/>
+        <c:axId val="69118592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2541,8 +2498,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2569,14 +2524,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269067424"/>
+        <c:crossAx val="69128576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="269067424"/>
+        <c:axId val="69128576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,9 +2538,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="269066864"/>
+        <c:crossAx val="69118592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,7 +2563,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2632,7 +2584,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3214,14 +3166,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3229,10 +3181,10 @@
   <dimension ref="B1:L124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3247,8 +3199,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
@@ -3270,7 +3222,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -3290,7 +3242,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3325,7 +3277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3358,7 +3310,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3391,7 +3343,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3424,7 +3376,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3457,7 +3409,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3490,7 +3442,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3523,7 +3475,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3555,7 +3507,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3584,7 +3536,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1">
       <c r="B25" s="42">
         <v>9</v>
       </c>
@@ -3613,7 +3565,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1">
       <c r="B26" s="42">
         <v>10</v>
       </c>
@@ -3640,7 +3592,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3669,7 +3621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3695,7 +3647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3721,7 +3673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3743,7 +3695,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3775,7 +3727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3804,7 +3756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3830,7 +3782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3852,7 +3804,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3878,7 +3830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3910,7 +3862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3935,7 +3887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3964,7 +3916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3993,7 +3945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -4025,7 +3977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -4054,7 +4006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -4086,7 +4038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -4117,7 +4069,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -4149,7 +4101,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -4182,7 +4134,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -4214,7 +4166,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -4247,7 +4199,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -4282,7 +4234,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -4315,7 +4267,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -4348,7 +4300,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4380,7 +4332,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4412,7 +4364,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4444,7 +4396,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4479,7 +4431,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4514,7 +4466,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4546,7 +4498,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4578,7 +4530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4610,7 +4562,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="114" customHeight="1">
       <c r="B59" s="2">
         <v>43</v>
       </c>
@@ -4632,7 +4584,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4658,7 +4610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4684,7 +4636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4710,7 +4662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="63.75" customHeight="1">
       <c r="B63" s="2">
         <v>47</v>
       </c>
@@ -4735,7 +4687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="99.75" customHeight="1">
       <c r="B64" s="2">
         <v>48</v>
       </c>
@@ -4757,7 +4709,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4783,7 +4735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4809,7 +4761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4838,7 +4790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4867,7 +4819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B69" s="48">
         <v>53</v>
       </c>
@@ -4896,7 +4848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B70" s="2">
         <v>54</v>
       </c>
@@ -4922,7 +4874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B71" s="2">
         <v>55</v>
       </c>
@@ -4948,7 +4900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B72" s="2">
         <v>56</v>
       </c>
@@ -4974,7 +4926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -5000,7 +4952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -5026,7 +4978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="76.5" customHeight="1">
       <c r="B75" s="2">
         <v>59</v>
       </c>
@@ -5051,7 +5003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -5080,7 +5032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -5109,7 +5061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="84" customHeight="1">
       <c r="B78" s="2">
         <v>62</v>
       </c>
@@ -5131,7 +5083,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1">
       <c r="B79" s="2">
         <v>63</v>
       </c>
@@ -5157,7 +5109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="62.25" customHeight="1">
       <c r="B80" s="2">
         <v>64</v>
       </c>
@@ -5179,7 +5131,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1">
       <c r="B81" s="2">
         <v>65</v>
       </c>
@@ -5205,7 +5157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1">
       <c r="B82" s="2">
         <v>66</v>
       </c>
@@ -5231,7 +5183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1">
       <c r="B83" s="2">
         <v>67</v>
       </c>
@@ -5257,7 +5209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" ht="67.5" customHeight="1">
       <c r="B84" s="2">
         <v>68</v>
       </c>
@@ -5279,7 +5231,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" ht="96.75" customHeight="1">
       <c r="B85" s="2">
         <v>69</v>
       </c>
@@ -5304,7 +5256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" ht="58.5" customHeight="1">
       <c r="B86" s="2">
         <v>70</v>
       </c>
@@ -5329,7 +5281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" ht="181.5" customHeight="1">
       <c r="B87" s="2">
         <v>71</v>
       </c>
@@ -5354,7 +5306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1">
       <c r="B88" s="2">
         <v>72</v>
       </c>
@@ -5380,7 +5332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="54.75" customHeight="1">
       <c r="B89" s="2">
         <v>73</v>
       </c>
@@ -5405,7 +5357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" ht="150" customHeight="1">
       <c r="B90" s="2">
         <v>74</v>
       </c>
@@ -5430,7 +5382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="87.75" customHeight="1">
       <c r="B91" s="2">
         <v>75</v>
       </c>
@@ -5452,7 +5404,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="75" customHeight="1">
       <c r="B92" s="2">
         <v>76</v>
       </c>
@@ -5477,7 +5429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1">
       <c r="B93" s="2">
         <v>77</v>
       </c>
@@ -5503,7 +5455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1">
       <c r="B94" s="2">
         <v>78</v>
       </c>
@@ -5529,7 +5481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" ht="78" customHeight="1">
       <c r="B95" s="2">
         <v>79</v>
       </c>
@@ -5551,7 +5503,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1">
       <c r="B96" s="2">
         <v>80</v>
       </c>
@@ -5580,7 +5532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1">
       <c r="B97" s="2">
         <v>81</v>
       </c>
@@ -5609,7 +5561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1">
       <c r="B98" s="2">
         <v>82</v>
       </c>
@@ -5638,7 +5590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1">
       <c r="B99" s="2">
         <v>83</v>
       </c>
@@ -5667,7 +5619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1">
       <c r="B100" s="2">
         <v>84</v>
       </c>
@@ -5696,7 +5648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="56.25" customHeight="1">
       <c r="B101" s="2">
         <v>85</v>
       </c>
@@ -5721,12 +5673,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="108.75" customHeight="1">
       <c r="B102" s="2">
         <v>86</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>39</v>
@@ -5746,7 +5698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1">
       <c r="B103" s="2">
         <v>87</v>
       </c>
@@ -5775,12 +5727,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B104" s="2">
         <v>87</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>33</v>
@@ -5804,12 +5756,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="70.5" customHeight="1">
       <c r="B105" s="2">
         <v>87</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>34</v>
@@ -5826,12 +5778,12 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="47.25" customHeight="1">
       <c r="B106" s="2">
         <v>88</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>34</v>
@@ -5848,12 +5800,12 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" ht="54.75" customHeight="1">
       <c r="B107" s="2">
         <v>89</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>34</v>
@@ -5870,12 +5822,12 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" ht="30" customHeight="1">
       <c r="B108" s="2">
         <v>90</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>34</v>
@@ -5892,12 +5844,12 @@
       <c r="H108" s="3"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="30" customHeight="1">
       <c r="B109" s="2">
         <v>91</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>34</v>
@@ -5914,12 +5866,12 @@
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" ht="30" customHeight="1">
       <c r="B110" s="2">
         <v>92</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>34</v>
@@ -5936,12 +5888,12 @@
       <c r="H110" s="3"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" ht="30" customHeight="1">
       <c r="B111" s="2">
         <v>93</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>34</v>
@@ -5958,12 +5910,12 @@
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" ht="30" customHeight="1">
       <c r="B112" s="2">
         <v>94</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>34</v>
@@ -5980,12 +5932,12 @@
       <c r="H112" s="3"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="30" customHeight="1">
       <c r="B113" s="2">
         <v>95</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>39</v>
@@ -6002,12 +5954,12 @@
       <c r="H113" s="3"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="30" customHeight="1">
       <c r="B114" s="2">
         <v>96</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>34</v>
@@ -6024,12 +5976,12 @@
       <c r="H114" s="3"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="30" customHeight="1">
       <c r="B115" s="2">
         <v>97</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>39</v>
@@ -6046,12 +5998,12 @@
       <c r="H115" s="3"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="30" customHeight="1">
       <c r="B116" s="2">
         <v>98</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>39</v>
@@ -6068,17 +6020,23 @@
       <c r="H116" s="3"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="2"/>
+    <row r="117" spans="2:9" ht="30" customHeight="1">
+      <c r="B117" s="2">
+        <v>99</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="E117" s="11"/>
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="30" customHeight="1">
       <c r="B118" s="2"/>
       <c r="C118" s="13"/>
       <c r="D118" s="2"/>
@@ -6088,7 +6046,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="30" customHeight="1">
       <c r="B119" s="2"/>
       <c r="C119" s="13"/>
       <c r="D119" s="2"/>
@@ -6098,7 +6056,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="30" customHeight="1">
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="2"/>
@@ -6108,7 +6066,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="30" customHeight="1">
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="2"/>
@@ -6118,7 +6076,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="30" customHeight="1">
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="2"/>
@@ -6128,14 +6086,14 @@
       <c r="H122" s="3"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="30" customHeight="1">
       <c r="C123" s="14"/>
       <c r="E123" s="11"/>
       <c r="F123" s="4"/>
       <c r="G123" s="2"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="30" customHeight="1">
       <c r="C124" s="14"/>
       <c r="E124" s="11"/>
       <c r="F124" s="4"/>
@@ -6171,25 +6129,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -6197,13 +6155,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -6212,7 +6170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -6225,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6192,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -6243,7 +6201,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -6253,7 +6211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>9</v>
@@ -6269,7 +6227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -6292,7 +6250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -6300,7 +6258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -6333,7 +6291,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -6366,7 +6324,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -6399,7 +6357,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -6432,7 +6390,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -6465,7 +6423,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -6498,7 +6456,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -6531,7 +6489,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -6564,7 +6522,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -6597,7 +6555,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -6630,7 +6588,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -6663,7 +6621,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -6696,7 +6654,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -6729,7 +6687,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -6762,7 +6720,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -6795,7 +6753,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -6828,7 +6786,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -6861,7 +6819,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -6894,7 +6852,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -6927,7 +6885,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -6960,7 +6918,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -6993,7 +6951,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -7026,7 +6984,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -7059,7 +7017,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -7092,7 +7050,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -7125,7 +7083,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -7158,7 +7116,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -7191,7 +7149,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -7224,7 +7182,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -7257,7 +7215,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -7290,7 +7248,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -7307,7 +7265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -7324,7 +7282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -7341,7 +7299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -7358,7 +7316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -7375,7 +7333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -7392,7 +7350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -7409,7 +7367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -7426,7 +7384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -7443,7 +7401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -7460,7 +7418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -7477,7 +7435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -7494,7 +7452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -7511,7 +7469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -7528,7 +7486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -7545,7 +7503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -7562,7 +7520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -7579,7 +7537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -7596,7 +7554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -7613,7 +7571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -7630,7 +7588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -7647,7 +7605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -7664,7 +7622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -7681,7 +7639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -7698,7 +7656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -7715,7 +7673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -7732,7 +7690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -7749,7 +7707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -7766,7 +7724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -7783,7 +7741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -7800,7 +7758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -7817,7 +7775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -7834,7 +7792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -7851,7 +7809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -7868,7 +7826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -7892,20 +7850,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -7913,7 +7871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="255" customHeight="1">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -7921,15 +7879,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
@@ -7937,7 +7895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="219" customHeight="1">
       <c r="A7" s="1">
         <v>41366</v>
       </c>
@@ -7945,7 +7903,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="141.75">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
@@ -7953,7 +7911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="96" customHeight="1">
       <c r="A10" s="1">
         <v>41372</v>
       </c>
@@ -7961,7 +7919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="284.25" customHeight="1">
       <c r="A12" s="1">
         <v>41376</v>
       </c>
@@ -7969,12 +7927,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="276" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="276" customHeight="1">
       <c r="A14" s="1">
         <v>41380</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7984,20 +7942,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -8005,7 +7963,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -8013,7 +7971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="51" t="s">
         <v>126</v>
       </c>
@@ -8021,7 +7979,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -8029,7 +7987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="31.5">
       <c r="A56" t="s">
         <v>129</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -31,9 +36,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="184">
   <si>
     <t>Type</t>
   </si>
@@ -930,13 +935,100 @@
     <t>Not a bug</t>
   </si>
   <si>
+    <t xml:space="preserve">Tạo Delivery Plan thì bị double plan ? </t>
+  </si>
+  <si>
+    <t>Create Order_x000D_
+- tạo nhiều order với các kiểu deliveryoption và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu deliveryoption, payment type _x000D_
+=&gt; sửa lại, khi insert xuống database, user order theo delivery option và payment type nào thì insert đúng kiểu đó</t>
+  </si>
+  <si>
+    <t>Create Product screen,on Enable column checkbox must check if Active checkbox in Create Product pop up screen was checked and vice versa</t>
+  </si>
+  <si>
+    <t>when click Edit button then click Save button and continue clicking Edit button again.Don't click Edit button again</t>
+  </si>
+  <si>
+    <t>In Create Product pop-up screen, uncheck Active checkbox.Then click Create.Create Product screen,on Enable column checkbox is check</t>
+  </si>
+  <si>
+    <t>When input so many value into fileds and click Save button .Create Product screen don't display well(be malformed)</t>
+  </si>
+  <si>
+    <t>validate Price field only interger.</t>
+  </si>
+  <si>
+    <t>In pop up screen , Require fields haven't added * yet.</t>
+  </si>
+  <si>
+    <t>pop up screen needn't scroll</t>
+  </si>
+  <si>
+    <t>haven't limited the characters yet which user input.</t>
+  </si>
+  <si>
+    <t>haven't formatted price on Menu table yet</t>
+  </si>
+  <si>
+    <t>haven't formatted price in Create Product screen yet</t>
+  </si>
+  <si>
+    <t>user can change price on browser</t>
+  </si>
+  <si>
+    <t>haven't formatted quantity on Cart Add table yet</t>
+  </si>
+  <si>
+    <t>Khi tao request -&gt; Tao Order -&gt; thi khi refresh lai page order chua hien thi ra</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Customer:
      Bo phan Add New Order khi tao request.
-     Them flow tao Order su dung lai man hinh cua Buyer khi tao flow. Cho phep Customer tao them product
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Them flow tao Order su dung lai man hinh cua Buyer khi tao flow. Cho phep Customer tao them product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Buyer:
-     Sua thong tin se hien thi sau khi Customer mua hang xong. =&gt; Chon direct =&gt; hien thi ngay gio khach hang co the nhan hang. Tom tat mua hang. 
-    Neu chon o Hub thi thong bao nhan hang o dau. passcode la gi.  khi nao hang toi thi se inform qua email
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sua thong tin se hien thi sau khi Customer mua hang xong. =&gt; Chon direct =&gt; hien thi ngay gio khach hang co the nhan hang. Tom tat mua hang. 
+    Neu chon o Hub thi thong bao nhan hang o dau. passcode la gi.  khi nao hang toi thi se inform qua email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Tiktak Staff:
  </t>
     </r>
@@ -996,66 +1088,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tạo Delivery Plan thì bị double plan ? </t>
-  </si>
-  <si>
-    <t>Create Order_x000D_
-- tạo nhiều order với các kiểu deliveryoption và payment type là khác nhau -&gt; dưới db chỉ lưu 1 kiểu deliveryoption, payment type _x000D_
-=&gt; sửa lại, khi insert xuống database, user order theo delivery option và payment type nào thì insert đúng kiểu đó</t>
-  </si>
-  <si>
-    <t>Create Product screen,on Enable column checkbox must check if Active checkbox in Create Product pop up screen was checked and vice versa</t>
-  </si>
-  <si>
-    <t>when click Edit button then click Save button and continue clicking Edit button again.Don't click Edit button again</t>
-  </si>
-  <si>
-    <t>In Create Product pop-up screen, uncheck Active checkbox.Then click Create.Create Product screen,on Enable column checkbox is check</t>
-  </si>
-  <si>
-    <t>When input so many value into fileds and click Save button .Create Product screen don't display well(be malformed)</t>
-  </si>
-  <si>
-    <t>validate Price field only interger.</t>
-  </si>
-  <si>
-    <t>In pop up screen , Require fields haven't added * yet.</t>
-  </si>
-  <si>
-    <t>pop up screen needn't scroll</t>
-  </si>
-  <si>
-    <t>haven't limited the characters yet which user input.</t>
-  </si>
-  <si>
-    <t>haven't formatted price on Menu table yet</t>
-  </si>
-  <si>
-    <t>haven't formatted price in Create Product screen yet</t>
-  </si>
-  <si>
-    <t>user can change price on browser</t>
-  </si>
-  <si>
-    <t>haven't formatted quantity on Cart Add table yet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer:
 Tiktak : 
     Implement Return Plan.
    Hệ thống tính toán expired khi nào 
-   H
+   Change lại notifications
 </t>
   </si>
   <si>
-    <t>Khi tao request -&gt; Tao Order -&gt; thi khi refresh lai page order chua hien thi ra</t>
+    <t>Reports:</t>
+  </si>
+  <si>
+    <t>Actor:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tính tổng doanh thu : (Sales - Expense ) - tính trên tháng - ngày ? </t>
+  </si>
+  <si>
+    <t>Revenue = (Total Fee - Tổng km * Giá Xăng ?) Theo tháng ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue  by Customer </t>
+  </si>
+  <si>
+    <t>Success - Failed Orders by Customer</t>
+  </si>
+  <si>
+    <t>From ngày tháng năm - to ngày tháng năm</t>
+  </si>
+  <si>
+    <t>Tính hiệu quả ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -1247,6 +1316,20 @@
     <font>
       <sz val="12"/>
       <color theme="6" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1577,7 +1660,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1591,7 +1674,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1674,7 +1757,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1691,6 +1784,7 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1780,12 +1874,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="69118592"/>
-        <c:axId val="69128576"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="295911408"/>
+        <c:axId val="295911968"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1953,6 +2055,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2129,6 +2232,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2175,10 +2279,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2334,6 +2443,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2380,10 +2490,15 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2470,19 +2585,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="69118592"/>
-        <c:axId val="69128576"/>
+        <c:smooth val="0"/>
+        <c:axId val="295911408"/>
+        <c:axId val="295911968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69118592"/>
+        <c:axId val="295911408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2498,6 +2621,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2524,13 +2649,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69128576"/>
+        <c:crossAx val="295911968"/>
         <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69128576"/>
+        <c:axId val="295911968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,8 +2664,9 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69118592"/>
+        <c:crossAx val="295911408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2563,6 +2690,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -3166,14 +3294,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3181,10 +3309,10 @@
   <dimension ref="B1:L124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3199,8 +3327,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3350,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -3242,7 +3370,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1">
+    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3310,7 +3438,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1">
+    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3343,7 +3471,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3376,7 +3504,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1">
+    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3409,7 +3537,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1">
+    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3442,7 +3570,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1">
+    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3475,7 +3603,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3507,7 +3635,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3536,7 +3664,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42">
         <v>9</v>
       </c>
@@ -3565,7 +3693,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="42">
         <v>10</v>
       </c>
@@ -3592,7 +3720,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3621,7 +3749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3647,7 +3775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3673,7 +3801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1">
+    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3695,7 +3823,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1">
+    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3727,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1">
+    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3756,7 +3884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1">
+    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3782,7 +3910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3804,7 +3932,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3830,7 +3958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3862,7 +3990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -3887,7 +4015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -3916,7 +4044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -3945,7 +4073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3977,7 +4105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1">
+    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -4006,7 +4134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1">
+    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -4038,7 +4166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -4069,7 +4197,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -4101,7 +4229,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -4134,7 +4262,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1">
+    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -4166,7 +4294,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -4199,7 +4327,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -4234,7 +4362,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -4267,7 +4395,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -4300,7 +4428,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1">
+    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4332,7 +4460,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1">
+    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4364,7 +4492,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1">
+    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4396,7 +4524,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1">
+    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4431,7 +4559,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1">
+    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4466,7 +4594,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1">
+    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4498,7 +4626,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1">
+    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4530,7 +4658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1">
+    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4562,7 +4690,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="114" customHeight="1">
+    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>43</v>
       </c>
@@ -4584,7 +4712,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1">
+    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4610,7 +4738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1">
+    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4636,7 +4764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1">
+    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4662,7 +4790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="63.75" customHeight="1">
+    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>47</v>
       </c>
@@ -4687,7 +4815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="99.75" customHeight="1">
+    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>48</v>
       </c>
@@ -4709,7 +4837,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1">
+    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4735,7 +4863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1">
+    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4761,7 +4889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1">
+    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4790,7 +4918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4819,7 +4947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="48">
         <v>53</v>
       </c>
@@ -4848,7 +4976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>54</v>
       </c>
@@ -4874,7 +5002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>55</v>
       </c>
@@ -4900,7 +5028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>56</v>
       </c>
@@ -4926,7 +5054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1">
+    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -4952,7 +5080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1">
+    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -4978,7 +5106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="76.5" customHeight="1">
+    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>59</v>
       </c>
@@ -5003,7 +5131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1">
+    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -5032,7 +5160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1">
+    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -5061,7 +5189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="84" customHeight="1">
+    <row r="78" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>62</v>
       </c>
@@ -5083,7 +5211,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1">
+    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>63</v>
       </c>
@@ -5109,7 +5237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="62.25" customHeight="1">
+    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>64</v>
       </c>
@@ -5131,7 +5259,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1">
+    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>65</v>
       </c>
@@ -5157,7 +5285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1">
+    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>66</v>
       </c>
@@ -5183,7 +5311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1">
+    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>67</v>
       </c>
@@ -5209,7 +5337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="67.5" customHeight="1">
+    <row r="84" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>68</v>
       </c>
@@ -5231,7 +5359,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:11" ht="96.75" customHeight="1">
+    <row r="85" spans="2:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>69</v>
       </c>
@@ -5256,7 +5384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="58.5" customHeight="1">
+    <row r="86" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>70</v>
       </c>
@@ -5281,7 +5409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="181.5" customHeight="1">
+    <row r="87" spans="2:11" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>71</v>
       </c>
@@ -5306,7 +5434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1">
+    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>72</v>
       </c>
@@ -5332,7 +5460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="54.75" customHeight="1">
+    <row r="89" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>73</v>
       </c>
@@ -5357,7 +5485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="150" customHeight="1">
+    <row r="90" spans="2:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>74</v>
       </c>
@@ -5382,7 +5510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="87.75" customHeight="1">
+    <row r="91" spans="2:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>75</v>
       </c>
@@ -5404,7 +5532,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="75" customHeight="1">
+    <row r="92" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>76</v>
       </c>
@@ -5429,7 +5557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1">
+    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>77</v>
       </c>
@@ -5455,7 +5583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1">
+    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>78</v>
       </c>
@@ -5481,7 +5609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="78" customHeight="1">
+    <row r="95" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>79</v>
       </c>
@@ -5503,7 +5631,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1">
+    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>80</v>
       </c>
@@ -5532,7 +5660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1">
+    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>81</v>
       </c>
@@ -5561,7 +5689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1">
+    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>82</v>
       </c>
@@ -5590,7 +5718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1">
+    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>83</v>
       </c>
@@ -5619,7 +5747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1">
+    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>84</v>
       </c>
@@ -5648,7 +5776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="56.25" customHeight="1">
+    <row r="101" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>85</v>
       </c>
@@ -5673,12 +5801,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="108.75" customHeight="1">
+    <row r="102" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>86</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>39</v>
@@ -5698,7 +5826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1">
+    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>87</v>
       </c>
@@ -5727,12 +5855,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1">
+    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>87</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>33</v>
@@ -5756,12 +5884,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="70.5" customHeight="1">
+    <row r="105" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>87</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>34</v>
@@ -5778,12 +5906,12 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:11" ht="47.25" customHeight="1">
+    <row r="106" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>88</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>34</v>
@@ -5800,12 +5928,12 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:11" ht="54.75" customHeight="1">
+    <row r="107" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>89</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>34</v>
@@ -5822,12 +5950,12 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:11" ht="30" customHeight="1">
+    <row r="108" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>90</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>34</v>
@@ -5844,12 +5972,12 @@
       <c r="H108" s="3"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="2:11" ht="30" customHeight="1">
+    <row r="109" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>91</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>34</v>
@@ -5866,12 +5994,12 @@
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="2:11" ht="30" customHeight="1">
+    <row r="110" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>92</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>34</v>
@@ -5888,12 +6016,12 @@
       <c r="H110" s="3"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="2:11" ht="30" customHeight="1">
+    <row r="111" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>93</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>34</v>
@@ -5910,12 +6038,12 @@
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="2:11" ht="30" customHeight="1">
+    <row r="112" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>94</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>34</v>
@@ -5932,12 +6060,12 @@
       <c r="H112" s="3"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" ht="30" customHeight="1">
+    <row r="113" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>95</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>39</v>
@@ -5954,12 +6082,12 @@
       <c r="H113" s="3"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" ht="30" customHeight="1">
+    <row r="114" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>96</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>34</v>
@@ -5976,12 +6104,12 @@
       <c r="H114" s="3"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" ht="30" customHeight="1">
+    <row r="115" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>97</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>39</v>
@@ -5998,12 +6126,12 @@
       <c r="H115" s="3"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" ht="30" customHeight="1">
+    <row r="116" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>98</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>39</v>
@@ -6020,12 +6148,12 @@
       <c r="H116" s="3"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" ht="30" customHeight="1">
+    <row r="117" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>99</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>34</v>
@@ -6036,7 +6164,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="2:9" ht="30" customHeight="1">
+    <row r="118" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="13"/>
       <c r="D118" s="2"/>
@@ -6046,7 +6174,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="2:9" ht="30" customHeight="1">
+    <row r="119" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="13"/>
       <c r="D119" s="2"/>
@@ -6056,7 +6184,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9" ht="30" customHeight="1">
+    <row r="120" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="2"/>
@@ -6066,7 +6194,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="30" customHeight="1">
+    <row r="121" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="2"/>
@@ -6076,7 +6204,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="2:9" ht="30" customHeight="1">
+    <row r="122" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="2"/>
@@ -6086,14 +6214,14 @@
       <c r="H122" s="3"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="2:9" ht="30" customHeight="1">
+    <row r="123" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="14"/>
       <c r="E123" s="11"/>
       <c r="F123" s="4"/>
       <c r="G123" s="2"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="2:9" ht="30" customHeight="1">
+    <row r="124" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="14"/>
       <c r="E124" s="11"/>
       <c r="F124" s="4"/>
@@ -6129,25 +6257,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -6155,13 +6283,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -6170,7 +6298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -6183,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -6192,7 +6320,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +6329,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -6211,7 +6339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>9</v>
@@ -6227,7 +6355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -6250,7 +6378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -6258,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1</v>
       </c>
@@ -6291,7 +6419,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2</v>
       </c>
@@ -6324,7 +6452,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20">
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>3</v>
       </c>
@@ -6357,7 +6485,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>4</v>
       </c>
@@ -6390,7 +6518,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="20" spans="7:20">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>5</v>
       </c>
@@ -6423,7 +6551,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="21" spans="7:20">
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>6</v>
       </c>
@@ -6456,7 +6584,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20">
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>7</v>
       </c>
@@ -6489,7 +6617,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20">
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>8</v>
       </c>
@@ -6522,7 +6650,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20">
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>9</v>
       </c>
@@ -6555,7 +6683,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20">
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>10</v>
       </c>
@@ -6588,7 +6716,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>11</v>
       </c>
@@ -6621,7 +6749,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>12</v>
       </c>
@@ -6654,7 +6782,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>13</v>
       </c>
@@ -6687,7 +6815,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20">
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>14</v>
       </c>
@@ -6720,7 +6848,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>15</v>
       </c>
@@ -6753,7 +6881,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>16</v>
       </c>
@@ -6786,7 +6914,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20">
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>17</v>
       </c>
@@ -6819,7 +6947,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>18</v>
       </c>
@@ -6852,7 +6980,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>19</v>
       </c>
@@ -6885,7 +7013,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>20</v>
       </c>
@@ -6918,7 +7046,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>21</v>
       </c>
@@ -6951,7 +7079,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>22</v>
       </c>
@@ -6984,7 +7112,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>23</v>
       </c>
@@ -7017,7 +7145,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>24</v>
       </c>
@@ -7050,7 +7178,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>25</v>
       </c>
@@ -7083,7 +7211,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>26</v>
       </c>
@@ -7116,7 +7244,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>27</v>
       </c>
@@ -7149,7 +7277,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>28</v>
       </c>
@@ -7182,7 +7310,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>29</v>
       </c>
@@ -7215,7 +7343,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>30</v>
       </c>
@@ -7248,7 +7376,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>31</v>
       </c>
@@ -7265,7 +7393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="7:20">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>32</v>
       </c>
@@ -7282,7 +7410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="7:20">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>33</v>
       </c>
@@ -7299,7 +7427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="7:10">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>34</v>
       </c>
@@ -7316,7 +7444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="7:10">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>35</v>
       </c>
@@ -7333,7 +7461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="7:10">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>36</v>
       </c>
@@ -7350,7 +7478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="7:10">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>37</v>
       </c>
@@ -7367,7 +7495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>38</v>
       </c>
@@ -7384,7 +7512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="7:10">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>39</v>
       </c>
@@ -7401,7 +7529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="7:10">
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>40</v>
       </c>
@@ -7418,7 +7546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>41</v>
       </c>
@@ -7435,7 +7563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>42</v>
       </c>
@@ -7452,7 +7580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>43</v>
       </c>
@@ -7469,7 +7597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>44</v>
       </c>
@@ -7486,7 +7614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>45</v>
       </c>
@@ -7503,7 +7631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>46</v>
       </c>
@@ -7520,7 +7648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="7:10">
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>47</v>
       </c>
@@ -7537,7 +7665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="7:10">
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>48</v>
       </c>
@@ -7554,7 +7682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="7:10">
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>49</v>
       </c>
@@ -7571,7 +7699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="7:10">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>50</v>
       </c>
@@ -7588,7 +7716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="7:10">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>51</v>
       </c>
@@ -7605,7 +7733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="7:10">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>52</v>
       </c>
@@ -7622,7 +7750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="7:10">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>53</v>
       </c>
@@ -7639,7 +7767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="7:10">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>54</v>
       </c>
@@ -7656,7 +7784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="7:10">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>55</v>
       </c>
@@ -7673,7 +7801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>56</v>
       </c>
@@ -7690,7 +7818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="7:10">
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>57</v>
       </c>
@@ -7707,7 +7835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="7:10">
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>58</v>
       </c>
@@ -7724,7 +7852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="7:10">
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>59</v>
       </c>
@@ -7741,7 +7869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="7:10">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>60</v>
       </c>
@@ -7758,7 +7886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="7:10">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>61</v>
       </c>
@@ -7775,7 +7903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="7:10">
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>62</v>
       </c>
@@ -7792,7 +7920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>63</v>
       </c>
@@ -7809,7 +7937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>64</v>
       </c>
@@ -7826,7 +7954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>65</v>
       </c>
@@ -7850,20 +7978,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -7871,7 +7999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1">
+    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -7879,15 +8007,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
@@ -7895,7 +8023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="219" customHeight="1">
+    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41366</v>
       </c>
@@ -7903,7 +8031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141.75">
+    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
@@ -7911,7 +8039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="96" customHeight="1">
+    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41372</v>
       </c>
@@ -7919,20 +8047,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="284.25" customHeight="1">
+    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41376</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="276" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41380</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7942,20 +8070,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -7963,7 +8091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -7971,7 +8099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
         <v>126</v>
       </c>
@@ -7979,7 +8107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -7987,12 +8115,48 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5">
+    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project issue tracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capstone-project-k5a-group5\Wip\PM_DOCs\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="1005"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracker" sheetId="1" r:id="rId1"/>
@@ -36,9 +31,9 @@
     <definedName name="types">OFFSET(calculations!$S$16,,,calculations!$N$13+1)</definedName>
     <definedName name="typesUnsorted">OFFSET(calculations!$N$15,,,calculations!$N$13+1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="185">
   <si>
     <t>Type</t>
   </si>
@@ -1119,12 +1114,15 @@
   <si>
     <t>Tính hiệu quả ?</t>
   </si>
+  <si>
+    <t>Man Hinh ViewDetailsDeliveryPlans khi click view Details thi pop up hien thi qua thap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="0"/>
@@ -1660,7 +1658,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1674,7 +1672,7 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1757,17 +1755,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1784,7 +1772,6 @@
       </c:layout>
       <c:areaChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
@@ -1844,50 +1831,42 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="295911408"/>
-        <c:axId val="295911968"/>
+        <c:dLbls/>
+        <c:axId val="71804800"/>
+        <c:axId val="71806336"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2023,39 +2002,38 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2203,36 +2181,35 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2279,13 +2256,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2381,69 +2352,68 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.92</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.92</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.92</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.92</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.920000000000002</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.92</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.92</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.92</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.92</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.92</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.92</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.92</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2490,13 +2460,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2523,89 +2487,81 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.92</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.92</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.92</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.92</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.92</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.92</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.92</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.92</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.92</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.92</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.92</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.92</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="295911408"/>
-        <c:axId val="295911968"/>
+        <c:axId val="71804800"/>
+        <c:axId val="71806336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="295911408"/>
+        <c:axId val="71804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2621,8 +2577,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2649,14 +2603,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295911968"/>
+        <c:crossAx val="71806336"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="295911968"/>
+        <c:axId val="71806336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,9 +2617,8 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="295911408"/>
+        <c:crossAx val="71804800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2690,7 +2642,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2712,7 +2663,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3294,25 +3245,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A95" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -3327,8 +3278,8 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" ht="21.75" customHeight="1"/>
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="54" t="s">
         <v>24</v>
       </c>
@@ -3350,7 +3301,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -3370,7 +3321,7 @@
       </c>
       <c r="K3" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="30" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -3405,7 +3356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="44.25" hidden="1" customHeight="1">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -3438,7 +3389,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="69.75" hidden="1" customHeight="1">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -3471,7 +3422,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B19" s="2">
         <v>3</v>
       </c>
@@ -3504,7 +3455,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="128.25" hidden="1" customHeight="1">
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -3537,7 +3488,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="33.75" hidden="1" customHeight="1">
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -3570,7 +3521,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="91.5" hidden="1" customHeight="1">
       <c r="B22" s="2">
         <v>6</v>
       </c>
@@ -3603,7 +3554,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="62.25" hidden="1" customHeight="1">
       <c r="B23" s="2">
         <v>7</v>
       </c>
@@ -3635,7 +3586,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="75" hidden="1" customHeight="1">
       <c r="B24" s="2">
         <v>8</v>
       </c>
@@ -3664,7 +3615,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" s="47" customFormat="1" ht="78" customHeight="1">
       <c r="B25" s="42">
         <v>9</v>
       </c>
@@ -3693,7 +3644,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" s="47" customFormat="1" ht="54" customHeight="1">
       <c r="B26" s="42">
         <v>10</v>
       </c>
@@ -3720,7 +3671,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B27" s="2">
         <v>11</v>
       </c>
@@ -3749,7 +3700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="46.5" hidden="1" customHeight="1">
       <c r="B28" s="2">
         <v>12</v>
       </c>
@@ -3775,7 +3726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B29" s="2">
         <v>13</v>
       </c>
@@ -3801,7 +3752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="2">
         <v>14</v>
       </c>
@@ -3823,7 +3774,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="77.25" hidden="1" customHeight="1">
       <c r="B31" s="2">
         <v>15</v>
       </c>
@@ -3855,7 +3806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="57" hidden="1" customHeight="1">
       <c r="B32" s="2">
         <v>16</v>
       </c>
@@ -3884,7 +3835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="60" hidden="1" customHeight="1">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3910,7 +3861,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="30" customHeight="1">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3932,7 +3883,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B35" s="2">
         <v>19</v>
       </c>
@@ -3958,7 +3909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B36" s="2">
         <v>20</v>
       </c>
@@ -3990,7 +3941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="30" customHeight="1">
       <c r="B37" s="2">
         <v>21</v>
       </c>
@@ -4015,7 +3966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B38" s="2">
         <v>22</v>
       </c>
@@ -4044,7 +3995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B39" s="2">
         <v>23</v>
       </c>
@@ -4073,7 +4024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="26" customFormat="1" ht="57.75" hidden="1" customHeight="1">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -4105,7 +4056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="30" hidden="1" customHeight="1">
       <c r="B41" s="2">
         <v>25</v>
       </c>
@@ -4134,7 +4085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="57.75" hidden="1" customHeight="1">
       <c r="B42" s="2">
         <v>26</v>
       </c>
@@ -4166,7 +4117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B43" s="2">
         <v>27</v>
       </c>
@@ -4197,7 +4148,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B44" s="2">
         <v>28</v>
       </c>
@@ -4229,7 +4180,7 @@
         <v>41358</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" s="35" customFormat="1" ht="73.5" hidden="1" customHeight="1">
       <c r="B45" s="2">
         <v>29</v>
       </c>
@@ -4262,7 +4213,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="54.75" hidden="1" customHeight="1">
       <c r="B46" s="2">
         <v>30</v>
       </c>
@@ -4294,7 +4245,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="35" customFormat="1" ht="51" hidden="1" customHeight="1">
       <c r="B47" s="2">
         <v>31</v>
       </c>
@@ -4327,7 +4278,7 @@
         <v>41359</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" s="41" customFormat="1" ht="48.75" hidden="1" customHeight="1">
       <c r="B48" s="2">
         <v>32</v>
       </c>
@@ -4362,7 +4313,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="41" customFormat="1" ht="62.25" hidden="1" customHeight="1">
       <c r="B49" s="2">
         <v>33</v>
       </c>
@@ -4395,7 +4346,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="41" customFormat="1" ht="106.5" hidden="1" customHeight="1">
       <c r="B50" s="2">
         <v>34</v>
       </c>
@@ -4428,7 +4379,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="66" hidden="1" customHeight="1">
       <c r="B51" s="2">
         <v>35</v>
       </c>
@@ -4460,7 +4411,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="51" hidden="1" customHeight="1">
       <c r="B52" s="2">
         <v>36</v>
       </c>
@@ -4492,7 +4443,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="56.25" hidden="1" customHeight="1">
       <c r="B53" s="2">
         <v>37</v>
       </c>
@@ -4524,7 +4475,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="43.5" hidden="1" customHeight="1">
       <c r="B54" s="2">
         <v>38</v>
       </c>
@@ -4559,7 +4510,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="47.25" hidden="1" customHeight="1">
       <c r="B55" s="2">
         <v>39</v>
       </c>
@@ -4594,7 +4545,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="42.75" hidden="1" customHeight="1">
       <c r="B56" s="2">
         <v>40</v>
       </c>
@@ -4626,7 +4577,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="48.75" hidden="1" customHeight="1">
       <c r="B57" s="2">
         <v>41</v>
       </c>
@@ -4658,7 +4609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="93.75" hidden="1" customHeight="1">
       <c r="B58" s="2">
         <v>42</v>
       </c>
@@ -4690,7 +4641,7 @@
         <v>41363</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="114" customHeight="1">
       <c r="B59" s="2">
         <v>43</v>
       </c>
@@ -4709,10 +4660,12 @@
       <c r="G59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3">
+        <v>41376</v>
+      </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="87.75" hidden="1" customHeight="1">
       <c r="B60" s="2">
         <v>44</v>
       </c>
@@ -4738,7 +4691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="121.5" hidden="1" customHeight="1">
       <c r="B61" s="2">
         <v>45</v>
       </c>
@@ -4764,7 +4717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="61.5" hidden="1" customHeight="1">
       <c r="B62" s="2">
         <v>46</v>
       </c>
@@ -4790,7 +4743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="63.75" customHeight="1">
       <c r="B63" s="2">
         <v>47</v>
       </c>
@@ -4815,7 +4768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="99.75" customHeight="1">
       <c r="B64" s="2">
         <v>48</v>
       </c>
@@ -4834,10 +4787,12 @@
       <c r="G64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3">
+        <v>41376</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="90.75" hidden="1" customHeight="1">
       <c r="B65" s="2">
         <v>49</v>
       </c>
@@ -4863,7 +4818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="91.5" hidden="1" customHeight="1">
       <c r="B66" s="2">
         <v>50</v>
       </c>
@@ -4889,7 +4844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="97.5" hidden="1" customHeight="1">
       <c r="B67" s="2">
         <v>51</v>
       </c>
@@ -4918,7 +4873,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B68" s="2">
         <v>52</v>
       </c>
@@ -4947,7 +4902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B69" s="48">
         <v>53</v>
       </c>
@@ -4976,7 +4931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B70" s="2">
         <v>54</v>
       </c>
@@ -5002,7 +4957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B71" s="2">
         <v>55</v>
       </c>
@@ -5028,7 +4983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B72" s="2">
         <v>56</v>
       </c>
@@ -5054,7 +5009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="61.5" hidden="1" customHeight="1">
       <c r="B73" s="2">
         <v>57</v>
       </c>
@@ -5080,7 +5035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="65.25" hidden="1" customHeight="1">
       <c r="B74" s="2">
         <v>58</v>
       </c>
@@ -5106,7 +5061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="76.5" customHeight="1">
       <c r="B75" s="2">
         <v>59</v>
       </c>
@@ -5131,7 +5086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="50.25" hidden="1" customHeight="1">
       <c r="B76" s="2">
         <v>60</v>
       </c>
@@ -5160,7 +5115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="129" hidden="1" customHeight="1">
       <c r="B77" s="2">
         <v>61</v>
       </c>
@@ -5189,7 +5144,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="84" customHeight="1">
       <c r="B78" s="2">
         <v>62</v>
       </c>
@@ -5211,7 +5166,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="82.5" hidden="1" customHeight="1">
       <c r="B79" s="2">
         <v>63</v>
       </c>
@@ -5237,7 +5192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="62.25" customHeight="1">
       <c r="B80" s="2">
         <v>64</v>
       </c>
@@ -5259,7 +5214,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" ht="101.25" hidden="1" customHeight="1">
       <c r="B81" s="2">
         <v>65</v>
       </c>
@@ -5285,7 +5240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="72.75" hidden="1" customHeight="1">
       <c r="B82" s="2">
         <v>66</v>
       </c>
@@ -5311,7 +5266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" ht="76.5" hidden="1" customHeight="1">
       <c r="B83" s="2">
         <v>67</v>
       </c>
@@ -5337,7 +5292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" ht="67.5" customHeight="1">
       <c r="B84" s="2">
         <v>68</v>
       </c>
@@ -5359,7 +5314,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="2:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" ht="96.75" customHeight="1">
       <c r="B85" s="2">
         <v>69</v>
       </c>
@@ -5378,13 +5333,17 @@
       <c r="G85" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="2"/>
+      <c r="H85" s="3">
+        <v>41376</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K85" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" ht="58.5" customHeight="1">
       <c r="B86" s="2">
         <v>70</v>
       </c>
@@ -5403,13 +5362,17 @@
       <c r="G86" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="2"/>
+      <c r="H86" s="3">
+        <v>41376</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="K86" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" ht="181.5" customHeight="1">
       <c r="B87" s="2">
         <v>71</v>
       </c>
@@ -5434,7 +5397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" ht="120" hidden="1" customHeight="1">
       <c r="B88" s="2">
         <v>72</v>
       </c>
@@ -5460,7 +5423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" ht="54.75" customHeight="1">
       <c r="B89" s="2">
         <v>73</v>
       </c>
@@ -5485,7 +5448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" ht="150" customHeight="1">
       <c r="B90" s="2">
         <v>74</v>
       </c>
@@ -5510,7 +5473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" ht="87.75" customHeight="1">
       <c r="B91" s="2">
         <v>75</v>
       </c>
@@ -5532,7 +5495,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="75" customHeight="1">
       <c r="B92" s="2">
         <v>76</v>
       </c>
@@ -5557,7 +5520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="75" hidden="1" customHeight="1">
       <c r="B93" s="2">
         <v>77</v>
       </c>
@@ -5583,7 +5546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" ht="60" hidden="1" customHeight="1">
       <c r="B94" s="2">
         <v>78</v>
       </c>
@@ -5609,7 +5572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" ht="78" customHeight="1">
       <c r="B95" s="2">
         <v>79</v>
       </c>
@@ -5631,7 +5594,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" ht="61.5" hidden="1" customHeight="1">
       <c r="B96" s="2">
         <v>80</v>
       </c>
@@ -5660,7 +5623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="62.25" hidden="1" customHeight="1">
       <c r="B97" s="2">
         <v>81</v>
       </c>
@@ -5689,7 +5652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="50.25" hidden="1" customHeight="1">
       <c r="B98" s="2">
         <v>82</v>
       </c>
@@ -5718,7 +5681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" ht="48.75" hidden="1" customHeight="1">
       <c r="B99" s="2">
         <v>83</v>
       </c>
@@ -5747,7 +5710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" ht="97.5" hidden="1" customHeight="1">
       <c r="B100" s="2">
         <v>84</v>
       </c>
@@ -5776,7 +5739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="56.25" customHeight="1">
       <c r="B101" s="2">
         <v>85</v>
       </c>
@@ -5801,7 +5764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="108.75" customHeight="1">
       <c r="B102" s="2">
         <v>86</v>
       </c>
@@ -5826,7 +5789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="58.5" hidden="1" customHeight="1">
       <c r="B103" s="2">
         <v>87</v>
       </c>
@@ -5855,7 +5818,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="30" hidden="1" customHeight="1">
       <c r="B104" s="2">
         <v>87</v>
       </c>
@@ -5884,7 +5847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="70.5" customHeight="1">
       <c r="B105" s="2">
         <v>87</v>
       </c>
@@ -5906,7 +5869,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="47.25" customHeight="1">
       <c r="B106" s="2">
         <v>88</v>
       </c>
@@ -5928,7 +5891,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" ht="54.75" customHeight="1">
       <c r="B107" s="2">
         <v>89</v>
       </c>
@@ -5950,7 +5913,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" ht="30" customHeight="1">
       <c r="B108" s="2">
         <v>90</v>
       </c>
@@ -5972,7 +5935,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" ht="30" customHeight="1">
       <c r="B109" s="2">
         <v>91</v>
       </c>
@@ -5994,7 +5957,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" ht="30" customHeight="1">
       <c r="B110" s="2">
         <v>92</v>
       </c>
@@ -6016,7 +5979,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" ht="30" customHeight="1">
       <c r="B111" s="2">
         <v>93</v>
       </c>
@@ -6038,7 +6001,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" ht="30" customHeight="1">
       <c r="B112" s="2">
         <v>94</v>
       </c>
@@ -6060,7 +6023,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" ht="30" customHeight="1">
       <c r="B113" s="2">
         <v>95</v>
       </c>
@@ -6082,7 +6045,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" ht="30" customHeight="1">
       <c r="B114" s="2">
         <v>96</v>
       </c>
@@ -6104,7 +6067,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" ht="30" customHeight="1">
       <c r="B115" s="2">
         <v>97</v>
       </c>
@@ -6126,7 +6089,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" ht="30" customHeight="1">
       <c r="B116" s="2">
         <v>98</v>
       </c>
@@ -6148,7 +6111,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" ht="61.5" customHeight="1">
       <c r="B117" s="2">
         <v>99</v>
       </c>
@@ -6158,23 +6121,48 @@
       <c r="D117" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="2"/>
+      <c r="E117" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="3">
+        <v>41375</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="3">
+        <v>41376</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" ht="30" customHeight="1">
+      <c r="B118" s="2">
+        <v>100</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="3">
+        <v>41379</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K118" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" ht="30" customHeight="1">
       <c r="B119" s="2"/>
       <c r="C119" s="13"/>
       <c r="D119" s="2"/>
@@ -6184,7 +6172,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="30" customHeight="1">
       <c r="B120" s="2"/>
       <c r="C120" s="13"/>
       <c r="D120" s="2"/>
@@ -6194,7 +6182,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="30" customHeight="1">
       <c r="B121" s="2"/>
       <c r="C121" s="13"/>
       <c r="D121" s="2"/>
@@ -6204,7 +6192,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="30" customHeight="1">
       <c r="B122" s="2"/>
       <c r="C122" s="13"/>
       <c r="D122" s="2"/>
@@ -6214,14 +6202,14 @@
       <c r="H122" s="3"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" ht="30" customHeight="1">
       <c r="C123" s="14"/>
       <c r="E123" s="11"/>
       <c r="F123" s="4"/>
       <c r="G123" s="2"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="30" customHeight="1">
       <c r="C124" s="14"/>
       <c r="E124" s="11"/>
       <c r="F124" s="4"/>
@@ -6257,25 +6245,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="14" max="15" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="I4" t="s">
         <v>10</v>
       </c>
@@ -6283,13 +6271,13 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="I8" t="s">
         <v>6</v>
       </c>
@@ -6311,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -6320,7 +6308,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -6329,7 +6317,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="N12" t="e">
         <f ca="1">OFFSET($N$16,,,$N$13)</f>
         <v>#VALUE!</v>
@@ -6339,7 +6327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="N13">
         <f>COUNTA(N16:N45)-COUNTIF(N16:N45,NA())</f>
         <v>9</v>
@@ -6355,7 +6343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" t="s">
         <v>6</v>
       </c>
@@ -6378,7 +6366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="N15" t="s">
         <v>5</v>
       </c>
@@ -6386,7 +6374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="G16">
         <v>1</v>
       </c>
@@ -6419,7 +6407,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17">
         <v>2</v>
       </c>
@@ -6452,7 +6440,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18">
         <v>3</v>
       </c>
@@ -6485,7 +6473,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19">
         <v>4</v>
       </c>
@@ -6518,7 +6506,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20">
         <v>5</v>
       </c>
@@ -6551,7 +6539,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21">
         <v>6</v>
       </c>
@@ -6584,7 +6572,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22">
         <v>7</v>
       </c>
@@ -6617,7 +6605,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="G23">
         <v>8</v>
       </c>
@@ -6650,7 +6638,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="G24">
         <v>9</v>
       </c>
@@ -6683,7 +6671,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:20">
       <c r="G25">
         <v>10</v>
       </c>
@@ -6716,7 +6704,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26">
         <v>11</v>
       </c>
@@ -6726,7 +6714,7 @@
       </c>
       <c r="I26">
         <f>I25+COUNTIFS(issues[OPENED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <f>J25+COUNTIFS(issues[CLOSED ON],H26,issues[TYPE],type,issues[PRIORITY],priority)</f>
@@ -6749,7 +6737,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27">
         <v>12</v>
       </c>
@@ -6759,11 +6747,11 @@
       </c>
       <c r="I27">
         <f>I26+COUNTIFS(issues[OPENED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <f>J26+COUNTIFS(issues[CLOSED ON],H27,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N27" t="e">
         <f t="array" ref="N27">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N26, issues[TYPE]),0))</f>
@@ -6782,7 +6770,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20">
       <c r="G28">
         <v>13</v>
       </c>
@@ -6792,11 +6780,11 @@
       </c>
       <c r="I28">
         <f>I27+COUNTIFS(issues[OPENED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <f>J27+COUNTIFS(issues[CLOSED ON],H28,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N28" t="e">
         <f t="array" ref="N28">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N27, issues[TYPE]),0))</f>
@@ -6815,7 +6803,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:20">
       <c r="G29">
         <v>14</v>
       </c>
@@ -6825,11 +6813,11 @@
       </c>
       <c r="I29">
         <f>I28+COUNTIFS(issues[OPENED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <f>J28+COUNTIFS(issues[CLOSED ON],H29,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N29" t="e">
         <f t="array" ref="N29">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N28, issues[TYPE]),0))</f>
@@ -6848,7 +6836,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20">
       <c r="G30">
         <v>15</v>
       </c>
@@ -6858,11 +6846,11 @@
       </c>
       <c r="I30">
         <f>I29+COUNTIFS(issues[OPENED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <f>J29+COUNTIFS(issues[CLOSED ON],H30,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N30" t="e">
         <f t="array" ref="N30">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N29, issues[TYPE]),0))</f>
@@ -6881,7 +6869,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20">
       <c r="G31">
         <v>16</v>
       </c>
@@ -6891,11 +6879,11 @@
       </c>
       <c r="I31">
         <f>I30+COUNTIFS(issues[OPENED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <f>J30+COUNTIFS(issues[CLOSED ON],H31,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N31" t="e">
         <f t="array" ref="N31">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N30, issues[TYPE]),0))</f>
@@ -6914,7 +6902,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:20">
       <c r="G32">
         <v>17</v>
       </c>
@@ -6924,11 +6912,11 @@
       </c>
       <c r="I32">
         <f>I31+COUNTIFS(issues[OPENED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <f>J31+COUNTIFS(issues[CLOSED ON],H32,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N32" t="e">
         <f t="array" ref="N32">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N31, issues[TYPE]),0))</f>
@@ -6947,7 +6935,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20">
       <c r="G33">
         <v>18</v>
       </c>
@@ -6957,11 +6945,11 @@
       </c>
       <c r="I33">
         <f>I32+COUNTIFS(issues[OPENED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <f>J32+COUNTIFS(issues[CLOSED ON],H33,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N33" t="e">
         <f t="array" ref="N33">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N32, issues[TYPE]),0))</f>
@@ -6980,7 +6968,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20">
       <c r="G34">
         <v>19</v>
       </c>
@@ -6990,11 +6978,11 @@
       </c>
       <c r="I34">
         <f>I33+COUNTIFS(issues[OPENED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <f>J33+COUNTIFS(issues[CLOSED ON],H34,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N34" t="e">
         <f t="array" ref="N34">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N33, issues[TYPE]),0))</f>
@@ -7013,7 +7001,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20">
       <c r="G35">
         <v>20</v>
       </c>
@@ -7023,11 +7011,11 @@
       </c>
       <c r="I35">
         <f>I34+COUNTIFS(issues[OPENED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <f>J34+COUNTIFS(issues[CLOSED ON],H35,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N35" t="e">
         <f t="array" ref="N35">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N34, issues[TYPE]),0))</f>
@@ -7046,7 +7034,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20">
       <c r="G36">
         <v>21</v>
       </c>
@@ -7056,11 +7044,11 @@
       </c>
       <c r="I36">
         <f>I35+COUNTIFS(issues[OPENED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <f>J35+COUNTIFS(issues[CLOSED ON],H36,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N36" t="e">
         <f t="array" ref="N36">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N35, issues[TYPE]),0))</f>
@@ -7079,7 +7067,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20">
       <c r="G37">
         <v>22</v>
       </c>
@@ -7089,11 +7077,11 @@
       </c>
       <c r="I37">
         <f>I36+COUNTIFS(issues[OPENED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <f>J36+COUNTIFS(issues[CLOSED ON],H37,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N37" t="e">
         <f t="array" ref="N37">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N36, issues[TYPE]),0))</f>
@@ -7112,7 +7100,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20">
       <c r="G38">
         <v>23</v>
       </c>
@@ -7122,11 +7110,11 @@
       </c>
       <c r="I38">
         <f>I37+COUNTIFS(issues[OPENED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <f>J37+COUNTIFS(issues[CLOSED ON],H38,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N38" t="e">
         <f t="array" ref="N38">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N37, issues[TYPE]),0))</f>
@@ -7145,7 +7133,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20">
       <c r="G39">
         <v>24</v>
       </c>
@@ -7155,11 +7143,11 @@
       </c>
       <c r="I39">
         <f>I38+COUNTIFS(issues[OPENED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <f>J38+COUNTIFS(issues[CLOSED ON],H39,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N39" t="e">
         <f t="array" ref="N39">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N38, issues[TYPE]),0))</f>
@@ -7178,7 +7166,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20">
       <c r="G40">
         <v>25</v>
       </c>
@@ -7188,11 +7176,11 @@
       </c>
       <c r="I40">
         <f>I39+COUNTIFS(issues[OPENED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <f>J39+COUNTIFS(issues[CLOSED ON],H40,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N40" t="e">
         <f t="array" ref="N40">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N39, issues[TYPE]),0))</f>
@@ -7211,7 +7199,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20">
       <c r="G41">
         <v>26</v>
       </c>
@@ -7221,11 +7209,11 @@
       </c>
       <c r="I41">
         <f>I40+COUNTIFS(issues[OPENED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <f>J40+COUNTIFS(issues[CLOSED ON],H41,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N41" t="e">
         <f t="array" ref="N41">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N40, issues[TYPE]),0))</f>
@@ -7244,7 +7232,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20">
       <c r="G42">
         <v>27</v>
       </c>
@@ -7254,11 +7242,11 @@
       </c>
       <c r="I42">
         <f>I41+COUNTIFS(issues[OPENED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <f>J41+COUNTIFS(issues[CLOSED ON],H42,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N42" t="e">
         <f t="array" ref="N42">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N41, issues[TYPE]),0))</f>
@@ -7277,7 +7265,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20">
       <c r="G43">
         <v>28</v>
       </c>
@@ -7287,11 +7275,11 @@
       </c>
       <c r="I43">
         <f>I42+COUNTIFS(issues[OPENED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <f>J42+COUNTIFS(issues[CLOSED ON],H43,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N43" t="e">
         <f t="array" ref="N43">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N42, issues[TYPE]),0))</f>
@@ -7310,7 +7298,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20">
       <c r="G44">
         <v>29</v>
       </c>
@@ -7320,11 +7308,11 @@
       </c>
       <c r="I44">
         <f>I43+COUNTIFS(issues[OPENED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <f>J43+COUNTIFS(issues[CLOSED ON],H44,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N44" t="e">
         <f t="array" ref="N44">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N43, issues[TYPE]),0))</f>
@@ -7343,7 +7331,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20">
       <c r="G45">
         <v>30</v>
       </c>
@@ -7353,11 +7341,11 @@
       </c>
       <c r="I45">
         <f>I44+COUNTIFS(issues[OPENED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J45">
         <f>J44+COUNTIFS(issues[CLOSED ON],H45,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N45" t="e">
         <f t="array" ref="N45">INDEX(issues[TYPE],MATCH(0,COUNTIF(N$15:N44, issues[TYPE]),0))</f>
@@ -7376,7 +7364,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20">
       <c r="G46">
         <v>31</v>
       </c>
@@ -7386,14 +7374,14 @@
       </c>
       <c r="I46">
         <f>I45+COUNTIFS(issues[OPENED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <f>J45+COUNTIFS(issues[CLOSED ON],H46,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20">
       <c r="G47">
         <v>32</v>
       </c>
@@ -7403,14 +7391,14 @@
       </c>
       <c r="I47">
         <f>I46+COUNTIFS(issues[OPENED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <f>J46+COUNTIFS(issues[CLOSED ON],H47,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20">
       <c r="G48">
         <v>33</v>
       </c>
@@ -7420,14 +7408,14 @@
       </c>
       <c r="I48">
         <f>I47+COUNTIFS(issues[OPENED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <f>J47+COUNTIFS(issues[CLOSED ON],H48,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
       <c r="G49">
         <v>34</v>
       </c>
@@ -7437,14 +7425,14 @@
       </c>
       <c r="I49">
         <f>I48+COUNTIFS(issues[OPENED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <f>J48+COUNTIFS(issues[CLOSED ON],H49,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
       <c r="G50">
         <v>35</v>
       </c>
@@ -7454,14 +7442,14 @@
       </c>
       <c r="I50">
         <f>I49+COUNTIFS(issues[OPENED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <f>J49+COUNTIFS(issues[CLOSED ON],H50,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
       <c r="G51">
         <v>36</v>
       </c>
@@ -7471,14 +7459,14 @@
       </c>
       <c r="I51">
         <f>I50+COUNTIFS(issues[OPENED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <f>J50+COUNTIFS(issues[CLOSED ON],H51,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
       <c r="G52">
         <v>37</v>
       </c>
@@ -7488,14 +7476,14 @@
       </c>
       <c r="I52">
         <f>I51+COUNTIFS(issues[OPENED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <f>J51+COUNTIFS(issues[CLOSED ON],H52,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
       <c r="G53">
         <v>38</v>
       </c>
@@ -7505,14 +7493,14 @@
       </c>
       <c r="I53">
         <f>I52+COUNTIFS(issues[OPENED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J53">
         <f>J52+COUNTIFS(issues[CLOSED ON],H53,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
       <c r="G54">
         <v>39</v>
       </c>
@@ -7522,14 +7510,14 @@
       </c>
       <c r="I54">
         <f>I53+COUNTIFS(issues[OPENED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <f>J53+COUNTIFS(issues[CLOSED ON],H54,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
       <c r="G55">
         <v>40</v>
       </c>
@@ -7539,14 +7527,14 @@
       </c>
       <c r="I55">
         <f>I54+COUNTIFS(issues[OPENED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <f>J54+COUNTIFS(issues[CLOSED ON],H55,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
       <c r="G56">
         <v>41</v>
       </c>
@@ -7556,14 +7544,14 @@
       </c>
       <c r="I56">
         <f>I55+COUNTIFS(issues[OPENED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <f>J55+COUNTIFS(issues[CLOSED ON],H56,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
       <c r="G57">
         <v>42</v>
       </c>
@@ -7573,14 +7561,14 @@
       </c>
       <c r="I57">
         <f>I56+COUNTIFS(issues[OPENED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <f>J56+COUNTIFS(issues[CLOSED ON],H57,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
       <c r="G58">
         <v>43</v>
       </c>
@@ -7590,14 +7578,14 @@
       </c>
       <c r="I58">
         <f>I57+COUNTIFS(issues[OPENED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <f>J57+COUNTIFS(issues[CLOSED ON],H58,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
       <c r="G59">
         <v>44</v>
       </c>
@@ -7607,14 +7595,14 @@
       </c>
       <c r="I59">
         <f>I58+COUNTIFS(issues[OPENED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <f>J58+COUNTIFS(issues[CLOSED ON],H59,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
       <c r="G60">
         <v>45</v>
       </c>
@@ -7624,14 +7612,14 @@
       </c>
       <c r="I60">
         <f>I59+COUNTIFS(issues[OPENED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <f>J59+COUNTIFS(issues[CLOSED ON],H60,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
       <c r="G61">
         <v>46</v>
       </c>
@@ -7641,14 +7629,14 @@
       </c>
       <c r="I61">
         <f>I60+COUNTIFS(issues[OPENED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <f>J60+COUNTIFS(issues[CLOSED ON],H61,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
       <c r="G62">
         <v>47</v>
       </c>
@@ -7658,14 +7646,14 @@
       </c>
       <c r="I62">
         <f>I61+COUNTIFS(issues[OPENED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <f>J61+COUNTIFS(issues[CLOSED ON],H62,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
       <c r="G63">
         <v>48</v>
       </c>
@@ -7675,14 +7663,14 @@
       </c>
       <c r="I63">
         <f>I62+COUNTIFS(issues[OPENED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <f>J62+COUNTIFS(issues[CLOSED ON],H63,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
       <c r="G64">
         <v>49</v>
       </c>
@@ -7692,14 +7680,14 @@
       </c>
       <c r="I64">
         <f>I63+COUNTIFS(issues[OPENED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <f>J63+COUNTIFS(issues[CLOSED ON],H64,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
       <c r="G65">
         <v>50</v>
       </c>
@@ -7709,14 +7697,14 @@
       </c>
       <c r="I65">
         <f>I64+COUNTIFS(issues[OPENED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <f>J64+COUNTIFS(issues[CLOSED ON],H65,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66">
         <v>51</v>
       </c>
@@ -7726,14 +7714,14 @@
       </c>
       <c r="I66">
         <f>I65+COUNTIFS(issues[OPENED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <f>J65+COUNTIFS(issues[CLOSED ON],H66,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
       <c r="G67">
         <v>52</v>
       </c>
@@ -7743,14 +7731,14 @@
       </c>
       <c r="I67">
         <f>I66+COUNTIFS(issues[OPENED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <f>J66+COUNTIFS(issues[CLOSED ON],H67,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68">
         <v>53</v>
       </c>
@@ -7760,14 +7748,14 @@
       </c>
       <c r="I68">
         <f>I67+COUNTIFS(issues[OPENED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <f>J67+COUNTIFS(issues[CLOSED ON],H68,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69">
         <v>54</v>
       </c>
@@ -7777,14 +7765,14 @@
       </c>
       <c r="I69">
         <f>I68+COUNTIFS(issues[OPENED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <f>J68+COUNTIFS(issues[CLOSED ON],H69,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
       <c r="G70">
         <v>55</v>
       </c>
@@ -7794,14 +7782,14 @@
       </c>
       <c r="I70">
         <f>I69+COUNTIFS(issues[OPENED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <f>J69+COUNTIFS(issues[CLOSED ON],H70,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
       <c r="G71">
         <v>56</v>
       </c>
@@ -7811,14 +7799,14 @@
       </c>
       <c r="I71">
         <f>I70+COUNTIFS(issues[OPENED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <f>J70+COUNTIFS(issues[CLOSED ON],H71,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
       <c r="G72">
         <v>57</v>
       </c>
@@ -7828,14 +7816,14 @@
       </c>
       <c r="I72">
         <f>I71+COUNTIFS(issues[OPENED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <f>J71+COUNTIFS(issues[CLOSED ON],H72,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
       <c r="G73">
         <v>58</v>
       </c>
@@ -7845,14 +7833,14 @@
       </c>
       <c r="I73">
         <f>I72+COUNTIFS(issues[OPENED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <f>J72+COUNTIFS(issues[CLOSED ON],H73,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
       <c r="G74">
         <v>59</v>
       </c>
@@ -7862,14 +7850,14 @@
       </c>
       <c r="I74">
         <f>I73+COUNTIFS(issues[OPENED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <f>J73+COUNTIFS(issues[CLOSED ON],H74,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75">
         <v>60</v>
       </c>
@@ -7879,14 +7867,14 @@
       </c>
       <c r="I75">
         <f>I74+COUNTIFS(issues[OPENED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <f>J74+COUNTIFS(issues[CLOSED ON],H75,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
       <c r="G76">
         <v>61</v>
       </c>
@@ -7896,14 +7884,14 @@
       </c>
       <c r="I76">
         <f>I75+COUNTIFS(issues[OPENED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <f>J75+COUNTIFS(issues[CLOSED ON],H76,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
       <c r="G77">
         <v>62</v>
       </c>
@@ -7913,14 +7901,14 @@
       </c>
       <c r="I77">
         <f>I76+COUNTIFS(issues[OPENED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <f>J76+COUNTIFS(issues[CLOSED ON],H77,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
       <c r="G78">
         <v>63</v>
       </c>
@@ -7930,14 +7918,14 @@
       </c>
       <c r="I78">
         <f>I77+COUNTIFS(issues[OPENED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <f>J77+COUNTIFS(issues[CLOSED ON],H78,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
       <c r="G79">
         <v>64</v>
       </c>
@@ -7947,14 +7935,14 @@
       </c>
       <c r="I79">
         <f>I78+COUNTIFS(issues[OPENED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <f>J78+COUNTIFS(issues[CLOSED ON],H79,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
       <c r="G80">
         <v>65</v>
       </c>
@@ -7964,11 +7952,11 @@
       </c>
       <c r="I80">
         <f>I79+COUNTIFS(issues[OPENED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <f>J79+COUNTIFS(issues[CLOSED ON],H80,issues[TYPE],type,issues[PRIORITY],priority)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7978,20 +7966,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
@@ -7999,7 +7987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="255" customHeight="1">
       <c r="A2" s="27">
         <v>41359</v>
       </c>
@@ -8007,15 +7995,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="209.25" customHeight="1">
       <c r="A5" s="27">
         <v>41362</v>
       </c>
@@ -8023,7 +8011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="219" customHeight="1">
       <c r="A7" s="1">
         <v>41366</v>
       </c>
@@ -8031,7 +8019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="141.75">
       <c r="A8" s="1">
         <v>41369</v>
       </c>
@@ -8039,7 +8027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="96" customHeight="1">
       <c r="A10" s="1">
         <v>41372</v>
       </c>
@@ -8047,7 +8035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="284.25" customHeight="1">
       <c r="A12" s="1">
         <v>41376</v>
       </c>
@@ -8055,7 +8043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="276" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="276" customHeight="1">
       <c r="A14" s="1">
         <v>41380</v>
       </c>
@@ -8070,20 +8058,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="123.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -8091,7 +8079,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -8099,7 +8087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="51" t="s">
         <v>126</v>
       </c>
@@ -8107,7 +8095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -8115,7 +8103,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="31.5">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -8123,27 +8111,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -8151,7 +8139,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>181</v>
       </c>
